--- a/qdes.xlsx
+++ b/qdes.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666560679958</v>
+        <v>1.166666425659303</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333333121359916</v>
+        <v>2.333332851318607</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.499999682039873</v>
+        <v>3.49999927697791</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666666242719831</v>
+        <v>4.666665702637213</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332803399789</v>
+        <v>5.833332128296517</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.999999364079747</v>
+        <v>6.99999855395582</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166665924759705</v>
+        <v>8.166664979615124</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333332485439662</v>
+        <v>9.333331405274427</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999904611962</v>
+        <v>10.49999783093373</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666560679958</v>
+        <v>11.66666425659303</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333216747954</v>
+        <v>12.83333068225234</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999872815949</v>
+        <v>13.99999710791164</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666528883945</v>
+        <v>15.16666353357094</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33333184951941</v>
+        <v>16.33332995923025</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999841019937</v>
+        <v>17.49999638488955</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666497087932</v>
+        <v>18.66666281054885</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83333153155928</v>
+        <v>19.83332923620816</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999809223924</v>
+        <v>20.99999566186746</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.1666646529192</v>
+        <v>22.16666208752676</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33333121359916</v>
+        <v>23.33332851318607</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999777427911</v>
+        <v>24.49999493884537</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666433495907</v>
+        <v>25.66666136450467</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83333089563903</v>
+        <v>26.83332779016398</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999745631899</v>
+        <v>27.99999421582328</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666401699894</v>
+        <v>29.16666064148258</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.3333305776789</v>
+        <v>30.33332706714189</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999713835886</v>
+        <v>31.49999349280119</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.66666369903882</v>
+        <v>32.6666599184605</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.83333025971878</v>
+        <v>33.8333263441198</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.99999682039874</v>
+        <v>34.9999927697791</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16666338107869</v>
+        <v>36.16665919543841</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332994175865</v>
+        <v>37.33332562109771</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999650243861</v>
+        <v>38.49999204675701</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66666306311856</v>
+        <v>39.66665847241632</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332962379852</v>
+        <v>40.83332489807562</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999618447848</v>
+        <v>41.99999132373492</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16666274515844</v>
+        <v>43.16665774939423</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.3333293058384</v>
+        <v>44.33332417505353</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999586651835</v>
+        <v>45.49999060071283</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66666242719831</v>
+        <v>46.66665702637214</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332898787827</v>
+        <v>47.83332345203144</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99999554855822</v>
+        <v>48.99998987769074</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16666210923818</v>
+        <v>50.16665630335005</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332866991815</v>
+        <v>51.33332272900935</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.4999952305981</v>
+        <v>52.49998915466865</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66666179127806</v>
+        <v>53.66665558032796</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332835195802</v>
+        <v>54.83332200598726</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99999491263797</v>
+        <v>55.99998843164656</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16666147331793</v>
+        <v>57.16665485730586</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332803399789</v>
+        <v>58.33332128296517</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49999459467784</v>
+        <v>59.49998770862447</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.6666611553578</v>
+        <v>60.66665413428377</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332771603776</v>
+        <v>61.83332055994308</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99999427671772</v>
+        <v>62.99998698560238</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16666083739767</v>
+        <v>64.16665341126168</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33332739807764</v>
+        <v>65.33331983692099</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.4999939587576</v>
+        <v>66.49998626258029</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66666051943756</v>
+        <v>67.66665268823959</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.83332708011751</v>
+        <v>68.8333191138989</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.99999364079747</v>
+        <v>69.9999855395582</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.16666020147743</v>
+        <v>71.1666519652175</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33332676215738</v>
+        <v>72.33331839087681</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49999332283734</v>
+        <v>73.49998481653611</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.6666598835173</v>
+        <v>74.66665124219541</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83332644419725</v>
+        <v>75.83331766785471</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99999300487721</v>
+        <v>76.99998409351402</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665956555717</v>
+        <v>78.16665051917333</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33332612623713</v>
+        <v>79.33331694483263</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49999268691708</v>
+        <v>80.49998337049193</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66665924759704</v>
+        <v>81.66664979615123</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.833325808277</v>
+        <v>82.83331622181053</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99999236895695</v>
+        <v>83.99998264746984</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16665892963692</v>
+        <v>85.16664907312915</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33332549031688</v>
+        <v>86.33331549878845</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49999205099684</v>
+        <v>87.49998192444775</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66665861167679</v>
+        <v>88.66664835010705</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83332517235675</v>
+        <v>89.83331477576635</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99999173303671</v>
+        <v>90.99998120142565</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16665829371667</v>
+        <v>92.16664762708497</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33332485439662</v>
+        <v>93.33331405274427</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49999141507658</v>
+        <v>94.49998047840357</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66665797575654</v>
+        <v>95.66664690406287</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83332453643649</v>
+        <v>96.83331332972217</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99999109711645</v>
+        <v>97.99997975538147</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16665765779641</v>
+        <v>99.16664618104079</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333242184764</v>
+        <v>100.3333126067001</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999907791563</v>
+        <v>101.4999790323594</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666573398363</v>
+        <v>102.6666454580187</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.8333239005162</v>
+        <v>103.833311883678</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999904611962</v>
+        <v>104.9999783093373</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666570218762</v>
+        <v>106.1666447349966</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333235825561</v>
+        <v>107.3333111606559</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999901432361</v>
+        <v>108.4999775863152</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.666656703916</v>
+        <v>109.6666440119745</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.833323264596</v>
+        <v>110.8333104376338</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999898252759</v>
+        <v>111.9999768632931</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666563859559</v>
+        <v>113.1666432889524</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333229466359</v>
+        <v>114.3333097146117</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.4999895073158</v>
+        <v>115.499976140271</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666560679958</v>
+        <v>116.6666425659303</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333226286757</v>
+        <v>117.8333089915896</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999891893557</v>
+        <v>118.9999754172489</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666557500356</v>
+        <v>120.1666418429082</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333223107156</v>
+        <v>121.3333082685675</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999888713956</v>
+        <v>122.4999746942269</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666554320755</v>
+        <v>123.6666411198862</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333219927555</v>
+        <v>124.8333075455455</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999885534354</v>
+        <v>125.9999739712048</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666551141154</v>
+        <v>127.1666403968641</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333216747953</v>
+        <v>128.3333068225234</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999882354753</v>
+        <v>129.4999732481827</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.6666547961553</v>
+        <v>130.666639673842</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333213568352</v>
+        <v>131.8333060995013</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999879175152</v>
+        <v>132.9999725251606</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666544781951</v>
+        <v>134.1666389508199</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333210388751</v>
+        <v>135.3333053764792</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999875995551</v>
+        <v>136.4999718021385</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.666654160235</v>
+        <v>137.6666382277978</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.833320720915</v>
+        <v>138.8333046534571</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999872815949</v>
+        <v>139.9999710791164</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666538422749</v>
+        <v>141.1666375047757</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.3333204029549</v>
+        <v>142.333303930435</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999869636348</v>
+        <v>143.4999703560943</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666535243148</v>
+        <v>144.6666367817536</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333200849947</v>
+        <v>145.8333032074129</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999866456747</v>
+        <v>146.9999696330722</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666532063546</v>
+        <v>148.1666360587315</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333197670346</v>
+        <v>149.3333024843908</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999863277146</v>
+        <v>150.4999689100501</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666528883945</v>
+        <v>151.6666353357094</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333194490745</v>
+        <v>152.8333017613687</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.9999860097544</v>
+        <v>153.999968187028</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666525704344</v>
+        <v>155.1666346126873</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333191311143</v>
+        <v>156.3333010383467</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999856917943</v>
+        <v>157.4999674640059</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666522524743</v>
+        <v>158.6666338896653</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333188131542</v>
+        <v>159.8333003153245</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999853738342</v>
+        <v>160.9999667409839</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666519345141</v>
+        <v>162.1666331666432</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3333184951941</v>
+        <v>163.3332995923025</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.499985055874</v>
+        <v>164.4999660179618</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.666651616554</v>
+        <v>165.6666324436211</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.833318177234</v>
+        <v>166.8332988692804</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999847379139</v>
+        <v>167.9999652949397</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.1666512985939</v>
+        <v>169.166631720599</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3333178592738</v>
+        <v>170.3332981462583</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999844199538</v>
+        <v>171.4999645719176</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666509806338</v>
+        <v>172.6666309975769</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8333175413137</v>
+        <v>173.8332974232362</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999841019937</v>
+        <v>174.9999638488955</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666506626736</v>
+        <v>176.1666302745548</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3333172233536</v>
+        <v>177.3332967002141</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999837840335</v>
+        <v>178.4999631258734</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666503447135</v>
+        <v>179.6666295515327</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.8333169053934</v>
+        <v>180.833295977192</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999834660734</v>
+        <v>181.9999624028513</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666500267534</v>
+        <v>183.1666288285106</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3333165874333</v>
+        <v>184.3332952541699</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999831481133</v>
+        <v>185.4999616798292</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666497087932</v>
+        <v>186.6666281054885</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8333162694732</v>
+        <v>187.8332945311478</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999828301532</v>
+        <v>188.9999609568071</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666493908331</v>
+        <v>190.1666273824665</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3333159515131</v>
+        <v>191.3332938081257</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.499982512193</v>
+        <v>192.4999602337851</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.666649072873</v>
+        <v>193.6666266594443</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.833315633553</v>
+        <v>194.8332930851037</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999821942329</v>
+        <v>195.9999595107629</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666487549129</v>
+        <v>197.1666259364223</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3333153155928</v>
+        <v>198.3332923620816</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999818762728</v>
+        <v>199.4999587877409</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666484369527</v>
+        <v>200.6666252134002</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8333149976327</v>
+        <v>201.8332916390595</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999815583126</v>
+        <v>202.9999580647188</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666481189926</v>
+        <v>204.1666244903781</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3333146796726</v>
+        <v>205.3332909160374</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999812403525</v>
+        <v>206.4999573416967</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.6666478010325</v>
+        <v>207.666623767356</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8333143617124</v>
+        <v>208.8332901930153</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999809223924</v>
+        <v>209.9999566186746</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666474830724</v>
+        <v>211.1666230443339</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3333140437523</v>
+        <v>212.3332894699932</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999806044323</v>
+        <v>213.4999558956525</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666471651122</v>
+        <v>214.6666223213118</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8333137257922</v>
+        <v>215.8332887469711</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999802864722</v>
+        <v>216.9999551726304</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666468471521</v>
+        <v>218.1666215982897</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.3333134078321</v>
+        <v>219.333288023949</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.499979968512</v>
+        <v>220.4999544496083</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.666646529192</v>
+        <v>221.6666208752676</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8333130898719</v>
+        <v>222.8332873009269</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999796505519</v>
+        <v>223.9999537265862</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666462112319</v>
+        <v>225.1666201522455</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3333127719118</v>
+        <v>226.3332865779049</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999793325918</v>
+        <v>227.4999530035641</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666458932717</v>
+        <v>228.6666194292235</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8333124539517</v>
+        <v>229.8332858548827</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999790146316</v>
+        <v>230.9999522805421</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666455753116</v>
+        <v>232.1666187062014</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3333121359915</v>
+        <v>233.3332851318607</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.4999786966715</v>
+        <v>234.49995155752</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666452573515</v>
+        <v>235.6666179831793</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8333118180314</v>
+        <v>236.8332844088386</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999783787114</v>
+        <v>237.9999508344979</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666449393913</v>
+        <v>239.1666172601572</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3333115000713</v>
+        <v>240.3332836858165</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999780607513</v>
+        <v>241.4999501114758</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666446214312</v>
+        <v>242.6666165371351</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8333111821112</v>
+        <v>243.8332829627944</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999777427911</v>
+        <v>244.9999493884537</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.1666443034711</v>
+        <v>246.166615814113</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3333108641511</v>
+        <v>247.3332822397723</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.499977424831</v>
+        <v>248.4999486654316</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.666643985511</v>
+        <v>249.6666150910909</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8333105461909</v>
+        <v>250.8332815167502</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999771068709</v>
+        <v>251.9999479424095</v>
       </c>
       <c r="B218" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666436675508</v>
+        <v>253.1666143680688</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3333102282308</v>
+        <v>254.3332807937281</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999767889107</v>
+        <v>255.4999472193874</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666433495907</v>
+        <v>256.6666136450467</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8333099102707</v>
+        <v>257.8332800707061</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999764709506</v>
+        <v>258.9999464963653</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666430316306</v>
+        <v>260.1666129220246</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.3333095923106</v>
+        <v>261.333279347684</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999761529905</v>
+        <v>262.4999457733433</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666427136705</v>
+        <v>263.6666121990025</v>
       </c>
       <c r="B228" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8333092743504</v>
+        <v>264.8332786246619</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999758350304</v>
+        <v>265.9999450503212</v>
       </c>
       <c r="B230" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666423957103</v>
+        <v>267.1666114759805</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3333089563903</v>
+        <v>268.3332779016397</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999755170703</v>
+        <v>269.4999443272991</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666420777502</v>
+        <v>270.6666107529584</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8333086384301</v>
+        <v>271.8332771786177</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.9999751991101</v>
+        <v>272.999943604277</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666417597901</v>
+        <v>274.1666100299363</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3333083204701</v>
+        <v>275.3332764555956</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.49997488115</v>
+        <v>276.4999428812549</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666414418299</v>
+        <v>277.6666093069142</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8333080025099</v>
+        <v>278.8332757325735</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999745631899</v>
+        <v>279.9999421582328</v>
       </c>
       <c r="B242" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666411238699</v>
+        <v>281.1666085838921</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3333076845498</v>
+        <v>282.3332750095514</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999742452297</v>
+        <v>283.4999414352107</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.6666408059097</v>
+        <v>284.66660786087</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8333073665897</v>
+        <v>285.8332742865293</v>
       </c>
       <c r="B247" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999739272696</v>
+        <v>286.9999407121886</v>
       </c>
       <c r="B248" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666404879496</v>
+        <v>288.1666071378479</v>
       </c>
       <c r="B249" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3333070486295</v>
+        <v>289.3332735635072</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999736093095</v>
+        <v>290.4999399891665</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666401699894</v>
+        <v>291.6666064148258</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8333067306694</v>
+        <v>292.8332728404852</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999732913494</v>
+        <v>293.9999392661445</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666398520293</v>
+        <v>295.1666056918037</v>
       </c>
       <c r="B255" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.3333064127092</v>
+        <v>296.333272117463</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999729733892</v>
+        <v>297.4999385431224</v>
       </c>
       <c r="B257" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666395340692</v>
+        <v>298.6666049687817</v>
       </c>
       <c r="B258" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8333060947492</v>
+        <v>299.8332713944409</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999726554291</v>
+        <v>300.9999378201003</v>
       </c>
       <c r="B260" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.166639216109</v>
+        <v>302.1666042457596</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.333305776789</v>
+        <v>303.3332706714189</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.499972337469</v>
+        <v>304.4999370970781</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.666638898149</v>
+        <v>305.6666035227375</v>
       </c>
       <c r="B264" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8333054588289</v>
+        <v>306.8332699483968</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999720195088</v>
+        <v>307.9999363740561</v>
       </c>
       <c r="B266" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666385801888</v>
+        <v>309.1666027997154</v>
       </c>
       <c r="B267" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3333051408688</v>
+        <v>310.3332692253747</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.4999717015487</v>
+        <v>311.499935651034</v>
       </c>
       <c r="B269" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666382622287</v>
+        <v>312.6666020766933</v>
       </c>
       <c r="B270" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8333048229086</v>
+        <v>313.8332685023526</v>
       </c>
       <c r="B271" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999713835886</v>
+        <v>314.9999349280119</v>
       </c>
       <c r="B272" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666379442685</v>
+        <v>316.1666013536712</v>
       </c>
       <c r="B273" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3333045049485</v>
+        <v>317.3332677793305</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999710656285</v>
+        <v>318.4999342049898</v>
       </c>
       <c r="B275" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666376263084</v>
+        <v>319.6666006306491</v>
       </c>
       <c r="B276" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8333041869884</v>
+        <v>320.8332670563084</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999707476683</v>
+        <v>321.9999334819677</v>
       </c>
       <c r="B278" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.1666373083483</v>
+        <v>323.166599907627</v>
       </c>
       <c r="B279" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3333038690283</v>
+        <v>324.3332663332863</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999704297082</v>
+        <v>325.4999327589456</v>
       </c>
       <c r="B281" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6666369903882</v>
+        <v>326.6665991846049</v>
       </c>
       <c r="B282" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8333035510681</v>
+        <v>327.8332656102642</v>
       </c>
       <c r="B283" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999701117481</v>
+        <v>328.9999320359236</v>
       </c>
       <c r="B284" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1666366724281</v>
+        <v>330.1665984615829</v>
       </c>
       <c r="B285" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.333303233108</v>
+        <v>331.3332648872421</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.499969793788</v>
+        <v>332.4999313129014</v>
       </c>
       <c r="B287" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6666363544679</v>
+        <v>333.6665977385608</v>
       </c>
       <c r="B288" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8333029151479</v>
+        <v>334.8332641642201</v>
       </c>
       <c r="B289" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999694758278</v>
+        <v>335.9999305898793</v>
       </c>
       <c r="B290" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1666360365078</v>
+        <v>337.1665970155387</v>
       </c>
       <c r="B291" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.3333025971878</v>
+        <v>338.333263441198</v>
       </c>
       <c r="B292" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999691578677</v>
+        <v>339.4999298668573</v>
       </c>
       <c r="B293" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6666357185477</v>
+        <v>340.6665962925166</v>
       </c>
       <c r="B294" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8333022792276</v>
+        <v>341.8332627181759</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999688399076</v>
+        <v>342.9999291438352</v>
       </c>
       <c r="B296" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1666354005876</v>
+        <v>344.1665955694945</v>
       </c>
       <c r="B297" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3333019612675</v>
+        <v>345.3332619951538</v>
       </c>
       <c r="B298" t="n">
         <v>0</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999685219474</v>
+        <v>346.4999284208131</v>
       </c>
       <c r="B299" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6666350826274</v>
+        <v>347.6665948464724</v>
       </c>
       <c r="B300" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8333016433074</v>
+        <v>348.8332612721317</v>
       </c>
       <c r="B301" t="n">
         <v>0</v>
@@ -2847,2402 +2847,2402 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.9999682039874</v>
+        <v>349.999927697791</v>
       </c>
       <c r="B302" t="n">
-        <v>94580.70103125948</v>
+        <v>99373.62310697319</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1666347646673</v>
+        <v>351.1665941234503</v>
       </c>
       <c r="B303" t="n">
-        <v>90561.84486368</v>
+        <v>95354.76450171195</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3333013253472</v>
+        <v>352.3332605491096</v>
       </c>
       <c r="B304" t="n">
-        <v>86716.03451953504</v>
+        <v>91508.95186469969</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999678860272</v>
+        <v>353.4999269747689</v>
       </c>
       <c r="B305" t="n">
-        <v>83035.81890932142</v>
+        <v>87828.73409848106</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6666344467072</v>
+        <v>354.6665934004282</v>
       </c>
       <c r="B306" t="n">
-        <v>79514.06777609579</v>
+        <v>84306.98093857875</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8333010073871</v>
+        <v>355.8332598260875</v>
       </c>
       <c r="B307" t="n">
-        <v>76143.95788091735</v>
+        <v>80936.86913891006</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999675680671</v>
+        <v>356.9999262517468</v>
       </c>
       <c r="B308" t="n">
-        <v>72918.95978311537</v>
+        <v>77711.86925204106</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.166634128747</v>
+        <v>358.1665926774061</v>
       </c>
       <c r="B309" t="n">
-        <v>69832.82518978869</v>
+        <v>74625.73297866114</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.333300689427</v>
+        <v>359.3332591030654</v>
       </c>
       <c r="B310" t="n">
-        <v>66879.57485000647</v>
+        <v>71672.48106176888</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.499967250107</v>
+        <v>360.4999255287248</v>
       </c>
       <c r="B311" t="n">
-        <v>64053.4869702748</v>
+        <v>68846.39170211925</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.6666338107869</v>
+        <v>361.666591954384</v>
       </c>
       <c r="B312" t="n">
-        <v>61349.08612880887</v>
+        <v>66141.98947248203</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8333003714669</v>
+        <v>362.8332583800433</v>
       </c>
       <c r="B313" t="n">
-        <v>58761.13266714301</v>
+        <v>63554.0347092342</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999669321468</v>
+        <v>363.9999248057026</v>
       </c>
       <c r="B314" t="n">
-        <v>56284.61253852322</v>
+        <v>61077.51336073934</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.1666334928268</v>
+        <v>365.166591231362</v>
       </c>
       <c r="B315" t="n">
-        <v>53914.72759340879</v>
+        <v>58707.62727283273</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3333000535067</v>
+        <v>366.3332576570212</v>
       </c>
       <c r="B316" t="n">
-        <v>51646.88628326694</v>
+        <v>56439.78489260579</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999666141867</v>
+        <v>367.4999240826805</v>
       </c>
       <c r="B317" t="n">
-        <v>49476.69476465019</v>
+        <v>54269.59237246848</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6666331748667</v>
+        <v>368.6665905083399</v>
       </c>
       <c r="B318" t="n">
-        <v>47399.94838631531</v>
+        <v>52192.84505725602</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332997355466</v>
+        <v>369.8332569339992</v>
       </c>
       <c r="B319" t="n">
-        <v>45412.62354289459</v>
+        <v>50205.51933789173</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999662962265</v>
+        <v>370.9999233596585</v>
       </c>
       <c r="B320" t="n">
-        <v>43510.86987933725</v>
+        <v>48303.76485581418</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1666328569065</v>
+        <v>372.1665897853177</v>
       </c>
       <c r="B321" t="n">
-        <v>41691.00283101562</v>
+        <v>46483.89704307391</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332994175865</v>
+        <v>373.3332562109771</v>
       </c>
       <c r="B322" t="n">
-        <v>39949.4964850398</v>
+        <v>44742.38998364085</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999659782665</v>
+        <v>374.4999226366364</v>
       </c>
       <c r="B323" t="n">
-        <v>38282.97674895774</v>
+        <v>43075.86958209026</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6666325389464</v>
+        <v>375.6665890622957</v>
       </c>
       <c r="B324" t="n">
-        <v>36688.21481359676</v>
+        <v>41481.10702644023</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.8332990996263</v>
+        <v>376.833255487955</v>
       </c>
       <c r="B325" t="n">
-        <v>35162.12089738892</v>
+        <v>39955.01253246563</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999656603063</v>
+        <v>377.9999219136143</v>
       </c>
       <c r="B326" t="n">
-        <v>33701.73826005135</v>
+        <v>38494.62935737243</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1666322209863</v>
+        <v>379.1665883392736</v>
       </c>
       <c r="B327" t="n">
-        <v>32304.23747403474</v>
+        <v>37097.12807123583</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332987816663</v>
+        <v>380.3332547649329</v>
       </c>
       <c r="B328" t="n">
-        <v>30966.91094262731</v>
+        <v>35759.80107510104</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999653423462</v>
+        <v>381.4999211905922</v>
       </c>
       <c r="B329" t="n">
-        <v>29687.16765410779</v>
+        <v>34480.05735512531</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6666319030261</v>
+        <v>382.6665876162515</v>
       </c>
       <c r="B330" t="n">
-        <v>28462.52816177137</v>
+        <v>33255.41746260077</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332984637061</v>
+        <v>383.8332540419108</v>
       </c>
       <c r="B331" t="n">
-        <v>27290.61978011069</v>
+        <v>32083.50871012675</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999650243861</v>
+        <v>384.9999204675701</v>
       </c>
       <c r="B332" t="n">
-        <v>26169.17198784155</v>
+        <v>30962.06057463125</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.166631585066</v>
+        <v>386.1665868932294</v>
       </c>
       <c r="B333" t="n">
-        <v>25096.01202886619</v>
+        <v>29888.9002983294</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.333298145746</v>
+        <v>387.3332533188887</v>
       </c>
       <c r="B334" t="n">
-        <v>24069.06070265453</v>
+        <v>28861.94867909624</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.4999647064259</v>
+        <v>388.499919744548</v>
       </c>
       <c r="B335" t="n">
-        <v>23086.3283358835</v>
+        <v>27879.2160421039</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6666312671059</v>
+        <v>389.6665861702073</v>
       </c>
       <c r="B336" t="n">
-        <v>22145.91092753208</v>
+        <v>26938.79838491091</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332978277858</v>
+        <v>390.8332525958666</v>
       </c>
       <c r="B337" t="n">
-        <v>21245.98645996106</v>
+        <v>26038.87368853933</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999643884658</v>
+        <v>391.9999190215259</v>
       </c>
       <c r="B338" t="n">
-        <v>20384.81136883634</v>
+        <v>25177.69838738859</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1666309491458</v>
+        <v>393.1665854471852</v>
       </c>
       <c r="B339" t="n">
-        <v>19560.71716504667</v>
+        <v>24353.60399115603</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332975098257</v>
+        <v>394.3332518728445</v>
       </c>
       <c r="B340" t="n">
-        <v>18772.10720208007</v>
+        <v>23564.99385220441</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999640705057</v>
+        <v>395.4999182985038</v>
       </c>
       <c r="B341" t="n">
-        <v>18017.45358258974</v>
+        <v>22810.34007212739</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6666306311856</v>
+        <v>396.6665847241632</v>
       </c>
       <c r="B342" t="n">
-        <v>17295.29419816274</v>
+        <v>22088.18054151074</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332971918656</v>
+        <v>397.8332511498224</v>
       </c>
       <c r="B343" t="n">
-        <v>16604.22989654462</v>
+        <v>21397.11610715896</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999637525456</v>
+        <v>398.9999175754817</v>
       </c>
       <c r="B344" t="n">
-        <v>15942.92177084694</v>
+        <v>20735.80786129558</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.1666303132255</v>
+        <v>400.166584001141</v>
       </c>
       <c r="B345" t="n">
-        <v>15310.08856547062</v>
+        <v>20102.97454748512</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332968739055</v>
+        <v>401.3332504268004</v>
       </c>
       <c r="B346" t="n">
-        <v>14704.50419373136</v>
+        <v>19497.39007825612</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999634345854</v>
+        <v>402.4999168524596</v>
       </c>
       <c r="B347" t="n">
-        <v>14124.99536236897</v>
+        <v>18917.88115960664</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6666299952654</v>
+        <v>403.6665832781189</v>
       </c>
       <c r="B348" t="n">
-        <v>13570.43929834388</v>
+        <v>18363.32501779923</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332965559454</v>
+        <v>404.8332497037783</v>
       </c>
       <c r="B349" t="n">
-        <v>13039.76157351239</v>
+        <v>17832.64722403379</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999631166253</v>
+        <v>405.9999161294376</v>
       </c>
       <c r="B350" t="n">
-        <v>12531.93402297005</v>
+        <v>17324.81961278769</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1666296773053</v>
+        <v>407.1665825550969</v>
       </c>
       <c r="B351" t="n">
-        <v>12045.9727530265</v>
+        <v>16838.85828978997</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332962379852</v>
+        <v>408.3332489807562</v>
       </c>
       <c r="B352" t="n">
-        <v>11580.93623495465</v>
+        <v>16373.82172576747</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999627986652</v>
+        <v>409.4999154064155</v>
       </c>
       <c r="B353" t="n">
-        <v>11135.92348082</v>
+        <v>15928.80893227169</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6666293593452</v>
+        <v>410.6665818320748</v>
       </c>
       <c r="B354" t="n">
-        <v>10710.07229785556</v>
+        <v>15502.95771605393</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332959200251</v>
+        <v>411.8332482577341</v>
       </c>
       <c r="B355" t="n">
-        <v>10302.55761800156</v>
+        <v>15095.44300860134</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999624807051</v>
+        <v>412.9999146833934</v>
       </c>
       <c r="B356" t="n">
-        <v>9912.589899371564</v>
+        <v>14705.47526760184</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.166629041385</v>
+        <v>414.1665811090527</v>
       </c>
       <c r="B357" t="n">
-        <v>9539.413596550025</v>
+        <v>14332.29894724063</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333295602065</v>
+        <v>415.333247534712</v>
       </c>
       <c r="B358" t="n">
-        <v>9182.305696755138</v>
+        <v>13975.1910343621</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999621627449</v>
+        <v>416.4999139603713</v>
       </c>
       <c r="B359" t="n">
-        <v>8840.574319034862</v>
+        <v>13633.45964766276</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6666287234249</v>
+        <v>417.6665803860306</v>
       </c>
       <c r="B360" t="n">
-        <v>8513.557373776308</v>
+        <v>13306.44269720017</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332952841048</v>
+        <v>418.8332468116899</v>
       </c>
       <c r="B361" t="n">
-        <v>8200.621279936653</v>
+        <v>12993.50660162345</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999618447848</v>
+        <v>419.9999132373492</v>
       </c>
       <c r="B362" t="n">
-        <v>7901.159737507272</v>
+        <v>12694.04506063487</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1666284054647</v>
+        <v>421.1665796630085</v>
       </c>
       <c r="B363" t="n">
-        <v>7614.592552834704</v>
+        <v>12407.47788031017</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332949661447</v>
+        <v>422.3332460886678</v>
       </c>
       <c r="B364" t="n">
-        <v>7340.364514519205</v>
+        <v>12133.24984899744</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999615268247</v>
+        <v>423.4999125143271</v>
       </c>
       <c r="B365" t="n">
-        <v>7077.94431771922</v>
+        <v>11870.82966161754</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6666280875046</v>
+        <v>424.6665789399864</v>
       </c>
       <c r="B366" t="n">
-        <v>6826.823534769092</v>
+        <v>11619.70889028431</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332946481846</v>
+        <v>425.8332453656457</v>
       </c>
       <c r="B367" t="n">
-        <v>6586.515630124608</v>
+        <v>11379.40099924654</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.9999612088645</v>
+        <v>426.999911791305</v>
       </c>
       <c r="B368" t="n">
-        <v>6356.555017720077</v>
+        <v>11149.44040224576</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1666277695445</v>
+        <v>428.1665782169644</v>
       </c>
       <c r="B369" t="n">
-        <v>6136.496158916952</v>
+        <v>10929.38156046367</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332943302245</v>
+        <v>429.3332446426236</v>
       </c>
       <c r="B370" t="n">
-        <v>5925.912699291761</v>
+        <v>10718.79811930832</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999608909044</v>
+        <v>430.4999110682829</v>
       </c>
       <c r="B371" t="n">
-        <v>5724.396642592409</v>
+        <v>10517.28208237203</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6666274515844</v>
+        <v>431.6665774939422</v>
       </c>
       <c r="B372" t="n">
-        <v>5531.557560264271</v>
+        <v>10324.44302095381</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332940122643</v>
+        <v>432.8332439196016</v>
       </c>
       <c r="B373" t="n">
-        <v>5347.021835010831</v>
+        <v>10139.90731762237</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999605729443</v>
+        <v>433.9999103452608</v>
       </c>
       <c r="B374" t="n">
-        <v>5170.43193692756</v>
+        <v>9963.317442347236</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1666271336243</v>
+        <v>435.1665767709201</v>
       </c>
       <c r="B375" t="n">
-        <v>5001.445730802836</v>
+        <v>9794.331259799563</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332936943042</v>
+        <v>436.3332431965795</v>
       </c>
       <c r="B376" t="n">
-        <v>4839.735813246061</v>
+        <v>9632.621366480211</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999602549842</v>
+        <v>437.4999096222388</v>
       </c>
       <c r="B377" t="n">
-        <v>4684.98887835753</v>
+        <v>9477.874456388976</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.6666268156641</v>
+        <v>438.666576047898</v>
       </c>
       <c r="B378" t="n">
-        <v>4536.905110712582</v>
+        <v>9329.790714008157</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332933763441</v>
+        <v>439.8332424735573</v>
       </c>
       <c r="B379" t="n">
-        <v>4395.197604481398</v>
+        <v>9188.083233421738</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.999959937024</v>
+        <v>440.9999088992167</v>
       </c>
       <c r="B380" t="n">
-        <v>4259.591807562694</v>
+        <v>9052.477462448482</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166626497704</v>
+        <v>442.166575324876</v>
       </c>
       <c r="B381" t="n">
-        <v>4129.824989649806</v>
+        <v>8922.710670708761</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.333293058384</v>
+        <v>443.3332417505353</v>
       </c>
       <c r="B382" t="n">
-        <v>4005.645733203263</v>
+        <v>8798.531440594938</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999596190639</v>
+        <v>444.4999081761946</v>
       </c>
       <c r="B383" t="n">
-        <v>3886.813446339332</v>
+        <v>8679.69918016144</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6666261797438</v>
+        <v>445.6665746018539</v>
       </c>
       <c r="B384" t="n">
-        <v>3773.097896694532</v>
+        <v>8565.983656987362</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332927404238</v>
+        <v>446.8332410275132</v>
       </c>
       <c r="B385" t="n">
-        <v>3664.278765360177</v>
+        <v>8457.164552111492</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999593011038</v>
+        <v>447.9999074531725</v>
       </c>
       <c r="B386" t="n">
-        <v>3560.145220023795</v>
+        <v>8353.031033173669</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1666258617838</v>
+        <v>449.1665738788318</v>
       </c>
       <c r="B387" t="n">
-        <v>3460.495506491458</v>
+        <v>8253.381345935741</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332924224637</v>
+        <v>450.3332403044911</v>
       </c>
       <c r="B388" t="n">
-        <v>3365.136557797218</v>
+        <v>8158.022423391751</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999589831436</v>
+        <v>451.4999067301504</v>
       </c>
       <c r="B389" t="n">
-        <v>3273.883620144605</v>
+        <v>8066.769511708859</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6666255438236</v>
+        <v>452.6665731558097</v>
       </c>
       <c r="B390" t="n">
-        <v>3186.559894954356</v>
+        <v>7979.445812274762</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.8332921045036</v>
+        <v>453.833239581469</v>
       </c>
       <c r="B391" t="n">
-        <v>3102.996196323837</v>
+        <v>7895.88213915761</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999586651836</v>
+        <v>454.9999060071283</v>
       </c>
       <c r="B392" t="n">
-        <v>3023.030623238413</v>
+        <v>7815.916591315736</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1666252258635</v>
+        <v>456.1665724327876</v>
       </c>
       <c r="B393" t="n">
-        <v>2946.508245894297</v>
+        <v>7739.394238920997</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332917865434</v>
+        <v>457.3332388584469</v>
       </c>
       <c r="B394" t="n">
-        <v>2873.280805528815</v>
+        <v>7666.166823189546</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999583472234</v>
+        <v>458.4999052841062</v>
       </c>
       <c r="B395" t="n">
-        <v>2803.20642717622</v>
+        <v>7596.092469136005</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6666249079034</v>
+        <v>459.6665717097655</v>
       </c>
       <c r="B396" t="n">
-        <v>2736.149344789693</v>
+        <v>7529.035410697576</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332914685833</v>
+        <v>460.8332381354248</v>
       </c>
       <c r="B397" t="n">
-        <v>2671.979638202529</v>
+        <v>7464.865727691982</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999580292633</v>
+        <v>461.9999045610841</v>
       </c>
       <c r="B398" t="n">
-        <v>2610.572981411698</v>
+        <v>7403.459094103679</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1666245899432</v>
+        <v>463.1665709867434</v>
       </c>
       <c r="B399" t="n">
-        <v>2551.810401703098</v>
+        <v>7344.696537207472</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332911506232</v>
+        <v>464.3332374124028</v>
       </c>
       <c r="B400" t="n">
-        <v>2495.578049145823</v>
+        <v>7288.464207063024</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.4999577113031</v>
+        <v>465.499903838062</v>
       </c>
       <c r="B401" t="n">
-        <v>2441.766976013858</v>
+        <v>7234.653155936531</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6666242719831</v>
+        <v>466.6665702637213</v>
       </c>
       <c r="B402" t="n">
-        <v>2390.272925704285</v>
+        <v>7183.159127218362</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332908326631</v>
+        <v>467.8332366893806</v>
       </c>
       <c r="B403" t="n">
-        <v>2340.996130744643</v>
+        <v>7133.8823534312</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.999957393343</v>
+        <v>468.99990311504</v>
       </c>
       <c r="B404" t="n">
-        <v>2293.84111949762</v>
+        <v>7086.727362933374</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.166623954023</v>
+        <v>470.1665695406992</v>
       </c>
       <c r="B405" t="n">
-        <v>2248.716531189444</v>
+        <v>7041.602794948839</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332905147029</v>
+        <v>471.3332359663585</v>
       </c>
       <c r="B406" t="n">
-        <v>2205.534938901732</v>
+        <v>6998.421222556852</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999570753829</v>
+        <v>472.4999023920179</v>
       </c>
       <c r="B407" t="n">
-        <v>2164.212680186335</v>
+        <v>6957.09898330895</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6666236360629</v>
+        <v>473.6665688176772</v>
       </c>
       <c r="B408" t="n">
-        <v>2124.669694972402</v>
+        <v>6917.556017134117</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332901967428</v>
+        <v>474.8332352433364</v>
       </c>
       <c r="B409" t="n">
-        <v>2086.829370454368</v>
+        <v>6879.715711227021</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999567574228</v>
+        <v>475.9999016689958</v>
       </c>
       <c r="B410" t="n">
-        <v>2050.618392656034</v>
+        <v>6843.504751613952</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1666233181027</v>
+        <v>477.1665680946551</v>
       </c>
       <c r="B411" t="n">
-        <v>2015.966604390783</v>
+        <v>6808.852981109808</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332898787827</v>
+        <v>478.3332345203144</v>
       </c>
       <c r="B412" t="n">
-        <v>1982.806869332619</v>
+        <v>6775.69326339153</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999564394627</v>
+        <v>479.4999009459736</v>
       </c>
       <c r="B413" t="n">
-        <v>1951.074941943777</v>
+        <v>6743.96135292489</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.6666230001426</v>
+        <v>480.666567371633</v>
       </c>
       <c r="B414" t="n">
-        <v>1920.709343001418</v>
+        <v>6713.595770490907</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332895608225</v>
+        <v>481.8332337972923</v>
       </c>
       <c r="B415" t="n">
-        <v>1891.651240484421</v>
+        <v>6684.537684072358</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999561215025</v>
+        <v>482.9999002229516</v>
       </c>
       <c r="B416" t="n">
-        <v>1863.844335588744</v>
+        <v>6656.730794869926</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1666226821825</v>
+        <v>484.1665666486109</v>
       </c>
       <c r="B417" t="n">
-        <v>1837.234753651367</v>
+        <v>6630.121228225865</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332892428624</v>
+        <v>485.3332330742702</v>
       </c>
       <c r="B418" t="n">
-        <v>1811.770939769754</v>
+        <v>6604.65742924318</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4999558035424</v>
+        <v>486.4998994999295</v>
       </c>
       <c r="B419" t="n">
-        <v>1787.403558916928</v>
+        <v>6580.290062900159</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6666223642223</v>
+        <v>487.6665659255888</v>
       </c>
       <c r="B420" t="n">
-        <v>1764.085400357561</v>
+        <v>6556.971918467251</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332889249023</v>
+        <v>488.8332323512481</v>
       </c>
       <c r="B421" t="n">
-        <v>1741.77128617801</v>
+        <v>6534.657818037361</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9999554855823</v>
+        <v>489.9998987769074</v>
       </c>
       <c r="B422" t="n">
-        <v>1720.417983757398</v>
+        <v>6513.304528995581</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1666220462622</v>
+        <v>491.1665652025667</v>
       </c>
       <c r="B423" t="n">
-        <v>1699.984122004964</v>
+        <v>6492.870680257603</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.3332886069422</v>
+        <v>492.333231628226</v>
       </c>
       <c r="B424" t="n">
-        <v>1680.430111206583</v>
+        <v>6473.316682115961</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4999551676221</v>
+        <v>493.4998980538853</v>
       </c>
       <c r="B425" t="n">
-        <v>1661.718066320403</v>
+        <v>6454.604649535393</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6666217283021</v>
+        <v>494.6665644795446</v>
       </c>
       <c r="B426" t="n">
-        <v>1643.811733577338</v>
+        <v>6436.698328753859</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.833288288982</v>
+        <v>495.8332309052039</v>
       </c>
       <c r="B427" t="n">
-        <v>1626.676420240282</v>
+        <v>6419.563027040407</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.999954849662</v>
+        <v>496.9998973308632</v>
       </c>
       <c r="B428" t="n">
-        <v>1610.278927387964</v>
+        <v>6403.165545481432</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.166621410342</v>
+        <v>498.1665637565225</v>
       </c>
       <c r="B429" t="n">
-        <v>1594.587485594689</v>
+        <v>6387.474114657466</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332879710219</v>
+        <v>499.3332301821818</v>
       </c>
       <c r="B430" t="n">
-        <v>1579.571693377255</v>
+        <v>6372.45833309303</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4999545317019</v>
+        <v>500.4998966078412</v>
       </c>
       <c r="B431" t="n">
-        <v>1565.202458294741</v>
+        <v>6358.089108353736</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6666210923818</v>
+        <v>501.6665630335004</v>
       </c>
       <c r="B432" t="n">
-        <v>1551.451940582067</v>
+        <v>6344.338600680921</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332876530618</v>
+        <v>502.8332294591597</v>
       </c>
       <c r="B433" t="n">
-        <v>1538.293499211624</v>
+        <v>6331.180169054865</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9999542137418</v>
+        <v>503.9998958848191</v>
       </c>
       <c r="B434" t="n">
-        <v>1525.701640278304</v>
+        <v>6318.588319576609</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1666207744217</v>
+        <v>505.1665623104784</v>
       </c>
       <c r="B435" t="n">
-        <v>1513.651967605702</v>
+        <v>6306.538656076827</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332873351017</v>
+        <v>506.3332287361376</v>
       </c>
       <c r="B436" t="n">
-        <v>1502.121135479281</v>
+        <v>6295.007832847916</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4999538957816</v>
+        <v>507.4998951617969</v>
       </c>
       <c r="B437" t="n">
-        <v>1491.086803416028</v>
+        <v>6283.973509413377</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6666204564616</v>
+        <v>508.6665615874563</v>
       </c>
       <c r="B438" t="n">
-        <v>1480.527592879345</v>
+        <v>6273.414307243236</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332870171416</v>
+        <v>509.8332280131156</v>
       </c>
       <c r="B439" t="n">
-        <v>1470.423045860476</v>
+        <v>6263.309768335205</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9999535778215</v>
+        <v>510.9998944387748</v>
       </c>
       <c r="B440" t="n">
-        <v>1460.753585240842</v>
+        <v>6253.640315577536</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1666201385015</v>
+        <v>512.1665608644341</v>
       </c>
       <c r="B441" t="n">
-        <v>1451.500476863262</v>
+        <v>6244.387214818912</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332866991814</v>
+        <v>513.3332272900934</v>
       </c>
       <c r="B442" t="n">
-        <v>1442.645793234207</v>
+        <v>6235.532538572827</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4999532598614</v>
+        <v>514.4998937157528</v>
       </c>
       <c r="B443" t="n">
-        <v>1434.17237879095</v>
+        <v>6227.059131282599</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6666198205413</v>
+        <v>515.6665601414121</v>
       </c>
       <c r="B444" t="n">
-        <v>1426.063816663778</v>
+        <v>6218.950576084375</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332863812213</v>
+        <v>516.8332265670714</v>
       </c>
       <c r="B445" t="n">
-        <v>1418.304396867681</v>
+        <v>6211.191162999091</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9999529419013</v>
+        <v>517.9998929927307</v>
       </c>
       <c r="B446" t="n">
-        <v>1410.879085865449</v>
+        <v>6203.765858495825</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.1666195025812</v>
+        <v>519.16655941839</v>
       </c>
       <c r="B447" t="n">
-        <v>1403.773497441948</v>
+        <v>6196.660276365004</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332860632612</v>
+        <v>520.3332258440493</v>
       </c>
       <c r="B448" t="n">
-        <v>1396.973864829629</v>
+        <v>6189.860649844982</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4999526239411</v>
+        <v>521.4998922697085</v>
       </c>
       <c r="B449" t="n">
-        <v>1390.467014037896</v>
+        <v>6183.353804950593</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6666191846211</v>
+        <v>522.6665586953679</v>
       </c>
       <c r="B450" t="n">
-        <v>1384.24033832745</v>
+        <v>6177.127134947773</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332857453011</v>
+        <v>523.8332251210272</v>
       </c>
       <c r="B451" t="n">
-        <v>1378.281773785985</v>
+        <v>6171.168575930314</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.999952305981</v>
+        <v>524.9998915466865</v>
       </c>
       <c r="B452" t="n">
-        <v>1372.579775955188</v>
+        <v>6165.466583444454</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.166618866661</v>
+        <v>526.1665579723458</v>
       </c>
       <c r="B453" t="n">
-        <v>1367.123297463269</v>
+        <v>6160.010110124352</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332854273409</v>
+        <v>527.3332243980051</v>
       </c>
       <c r="B454" t="n">
-        <v>1361.901766621814</v>
+        <v>6154.788584285721</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4999519880208</v>
+        <v>528.4998908236644</v>
       </c>
       <c r="B455" t="n">
-        <v>1356.905066942792</v>
+        <v>6149.791889446052</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6666185487009</v>
+        <v>529.6665572493238</v>
       </c>
       <c r="B456" t="n">
-        <v>1352.123517539051</v>
+        <v>6145.010344722961</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332851093808</v>
+        <v>530.8332236749831</v>
       </c>
       <c r="B457" t="n">
-        <v>1347.547854367627</v>
+        <v>6140.434686077498</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9999516700608</v>
+        <v>531.9998901006423</v>
       </c>
       <c r="B458" t="n">
-        <v>1343.169212280528</v>
+        <v>6136.056048367601</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1666182307407</v>
+        <v>533.1665565263016</v>
       </c>
       <c r="B459" t="n">
-        <v>1338.97910785061</v>
+        <v>6131.865948169429</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332847914206</v>
+        <v>534.3332229519609</v>
       </c>
       <c r="B460" t="n">
-        <v>1334.96942293348</v>
+        <v>6127.856267343267</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4999513521007</v>
+        <v>535.4998893776202</v>
       </c>
       <c r="B461" t="n">
-        <v>1331.132388939443</v>
+        <v>6124.019237303878</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6666179127806</v>
+        <v>536.6665558032795</v>
       </c>
       <c r="B462" t="n">
-        <v>1327.460571783139</v>
+        <v>6120.347423970123</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332844734605</v>
+        <v>537.8332222289389</v>
       </c>
       <c r="B463" t="n">
-        <v>1323.946857479252</v>
+        <v>6116.833713360681</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9999510341405</v>
+        <v>538.9998886545982</v>
       </c>
       <c r="B464" t="n">
-        <v>1320.584438359965</v>
+        <v>6113.471297811231</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1666175948204</v>
+        <v>540.1665550802575</v>
       </c>
       <c r="B465" t="n">
-        <v>1317.366799884707</v>
+        <v>6110.253662785802</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332841555005</v>
+        <v>541.3332215059168</v>
       </c>
       <c r="B466" t="n">
-        <v>1314.287708019712</v>
+        <v>6107.174574253918</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.4999507161804</v>
+        <v>542.499887931576</v>
       </c>
       <c r="B467" t="n">
-        <v>1311.341197159286</v>
+        <v>6104.228066613477</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6666172768603</v>
+        <v>543.6665543572353</v>
       </c>
       <c r="B468" t="n">
-        <v>1308.521558567372</v>
+        <v>6101.408431132045</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332838375403</v>
+        <v>544.8332207828946</v>
       </c>
       <c r="B469" t="n">
-        <v>1305.823329316933</v>
+        <v>6098.710204886504</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.9999503982202</v>
+        <v>545.999887208554</v>
       </c>
       <c r="B470" t="n">
-        <v>1303.241281707079</v>
+        <v>6096.128160178569</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1666169589002</v>
+        <v>547.1665536342133</v>
       </c>
       <c r="B471" t="n">
-        <v>1300.770413133312</v>
+        <v>6093.657294407444</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332835195802</v>
+        <v>548.3332200598726</v>
       </c>
       <c r="B472" t="n">
-        <v>1298.40593639563</v>
+        <v>6091.292820376322</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4999500802601</v>
+        <v>549.4998864855319</v>
       </c>
       <c r="B473" t="n">
-        <v>1296.143270423897</v>
+        <v>6089.030157018016</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6666166409401</v>
+        <v>550.6665529111912</v>
       </c>
       <c r="B474" t="n">
-        <v>1293.978031401191</v>
+        <v>6086.864920518844</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.83328320162</v>
+        <v>551.8332193368504</v>
       </c>
       <c r="B475" t="n">
-        <v>1291.906024272292</v>
+        <v>6084.792915825776</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9999497622999</v>
+        <v>552.9998857625097</v>
       </c>
       <c r="B476" t="n">
-        <v>1289.92323461322</v>
+        <v>6082.810128518649</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.16661632298</v>
+        <v>554.1665521881691</v>
       </c>
       <c r="B477" t="n">
-        <v>1288.025820855669</v>
+        <v>6080.91271703139</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332828836599</v>
+        <v>555.3332186138284</v>
       </c>
       <c r="B478" t="n">
-        <v>1286.210106843855</v>
+        <v>6079.097005210733</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4999494443399</v>
+        <v>556.4998850394877</v>
       </c>
       <c r="B479" t="n">
-        <v>1284.472574710923</v>
+        <v>6077.359475192897</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.6666160050198</v>
+        <v>557.666551465147</v>
       </c>
       <c r="B480" t="n">
-        <v>1282.809858064491</v>
+        <v>6075.69676058725</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332825656997</v>
+        <v>558.8332178908063</v>
       </c>
       <c r="B481" t="n">
-        <v>1281.218735463119</v>
+        <v>6074.105639955726</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9999491263798</v>
+        <v>559.9998843164656</v>
       </c>
       <c r="B482" t="n">
-        <v>1279.696124177007</v>
+        <v>6072.583030570309</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1666156870597</v>
+        <v>561.1665507421249</v>
       </c>
       <c r="B483" t="n">
-        <v>1278.239074213138</v>
+        <v>6071.125982440319</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332822477397</v>
+        <v>562.3332171677843</v>
       </c>
       <c r="B484" t="n">
-        <v>1276.844762600559</v>
+        <v>6069.73167259715</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4999488084196</v>
+        <v>563.4998835934435</v>
       </c>
       <c r="B485" t="n">
-        <v>1275.51048792163</v>
+        <v>6068.397399625261</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6666153690995</v>
+        <v>564.6665500191028</v>
       </c>
       <c r="B486" t="n">
-        <v>1274.233665077464</v>
+        <v>6067.120578427873</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332819297796</v>
+        <v>565.8332164447621</v>
       </c>
       <c r="B487" t="n">
-        <v>1273.011820279788</v>
+        <v>6065.898735218567</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9999484904595</v>
+        <v>566.9998828704214</v>
       </c>
       <c r="B488" t="n">
-        <v>1271.842586257184</v>
+        <v>6064.72950272833</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1666150511394</v>
+        <v>568.1665492960807</v>
       </c>
       <c r="B489" t="n">
-        <v>1270.723697670371</v>
+        <v>6063.610615619223</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.3332816118194</v>
+        <v>569.33321572174</v>
       </c>
       <c r="B490" t="n">
-        <v>1269.652986721514</v>
+        <v>6062.539906095568</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4999481724993</v>
+        <v>570.4998821473994</v>
       </c>
       <c r="B491" t="n">
-        <v>1268.62837895437</v>
+        <v>6061.515299703293</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6666147331794</v>
+        <v>571.6665485730587</v>
       </c>
       <c r="B492" t="n">
-        <v>1267.647889236969</v>
+        <v>6060.534811310999</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332812938593</v>
+        <v>572.8332149987179</v>
       </c>
       <c r="B493" t="n">
-        <v>1266.709617912635</v>
+        <v>6059.596541265004</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9999478545392</v>
+        <v>573.9998814243772</v>
       </c>
       <c r="B494" t="n">
-        <v>1265.811747122035</v>
+        <v>6058.698671706833</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1666144152192</v>
+        <v>575.1665478500365</v>
       </c>
       <c r="B495" t="n">
-        <v>1264.95253727966</v>
+        <v>6057.839463052919</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332809758991</v>
+        <v>576.3332142756958</v>
       </c>
       <c r="B496" t="n">
-        <v>1264.1303237042</v>
+        <v>6057.017250622828</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.499947536579</v>
+        <v>577.4998807013552</v>
       </c>
       <c r="B497" t="n">
-        <v>1263.343513392367</v>
+        <v>6056.230441415766</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6666140972591</v>
+        <v>578.6665471270145</v>
       </c>
       <c r="B498" t="n">
-        <v>1262.590581933785</v>
+        <v>6055.477511021713</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.833280657939</v>
+        <v>579.8332135526738</v>
       </c>
       <c r="B499" t="n">
-        <v>1261.870070556733</v>
+        <v>6054.757000671192</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.999947218619</v>
+        <v>580.9998799783331</v>
       </c>
       <c r="B500" t="n">
-        <v>1261.180583301846</v>
+        <v>6054.067514405475</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1666137792989</v>
+        <v>582.1665464039924</v>
       </c>
       <c r="B501" t="n">
-        <v>1260.52078431757</v>
+        <v>6053.407716374731</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332803399788</v>
+        <v>583.3332128296516</v>
       </c>
       <c r="B502" t="n">
-        <v>1259.889395272333</v>
+        <v>6052.776328248307</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4999469006589</v>
+        <v>584.4998792553109</v>
       </c>
       <c r="B503" t="n">
-        <v>1259.28519287723</v>
+        <v>6052.172126739031</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6666134613388</v>
+        <v>585.6665456809703</v>
       </c>
       <c r="B504" t="n">
-        <v>1258.707006516855</v>
+        <v>6051.593941232167</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332800220188</v>
+        <v>586.8332121066296</v>
       </c>
       <c r="B505" t="n">
-        <v>1258.153715980218</v>
+        <v>6051.040651518198</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9999465826987</v>
+        <v>587.9998785322889</v>
       </c>
       <c r="B506" t="n">
-        <v>1257.62424929123</v>
+        <v>6050.511185621447</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1666131433786</v>
+        <v>589.1665449579482</v>
       </c>
       <c r="B507" t="n">
-        <v>1257.117580630994</v>
+        <v>6050.004517725041</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332797040587</v>
+        <v>590.3332113836075</v>
       </c>
       <c r="B508" t="n">
-        <v>1256.632728351355</v>
+        <v>6049.519666181245</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4999462647386</v>
+        <v>591.4998778092668</v>
       </c>
       <c r="B509" t="n">
-        <v>1256.168753071957</v>
+        <v>6049.055691610933</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6666128254185</v>
+        <v>592.6665442349261</v>
       </c>
       <c r="B510" t="n">
-        <v>1255.724755861342</v>
+        <v>6048.611695083346</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332793860985</v>
+        <v>593.8332106605855</v>
       </c>
       <c r="B511" t="n">
-        <v>1255.299876494327</v>
+        <v>6048.186816374271</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9999459467784</v>
+        <v>594.9998770862447</v>
       </c>
       <c r="B512" t="n">
-        <v>1254.893291785121</v>
+        <v>6047.780232299163</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.1666125074585</v>
+        <v>596.166543511904</v>
       </c>
       <c r="B513" t="n">
-        <v>1254.504213994315</v>
+        <v>6047.391155119053</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332790681384</v>
+        <v>597.3332099375633</v>
       </c>
       <c r="B514" t="n">
-        <v>1254.13188930037</v>
+        <v>6047.018831013121</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4999456288183</v>
+        <v>598.4998763632226</v>
       </c>
       <c r="B515" t="n">
-        <v>1253.77559634043</v>
+        <v>6046.662538619764</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6666121894983</v>
+        <v>599.6665427888819</v>
       </c>
       <c r="B516" t="n">
-        <v>1253.434644812421</v>
+        <v>6046.321587637631</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332787501782</v>
+        <v>600.8332092145412</v>
       </c>
       <c r="B517" t="n">
-        <v>1253.108374137636</v>
+        <v>6045.995317488476</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9999453108583</v>
+        <v>601.9998756402006</v>
       </c>
       <c r="B518" t="n">
-        <v>1252.796152181139</v>
+        <v>6045.683096038357</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1666118715382</v>
+        <v>603.1665420658599</v>
       </c>
       <c r="B519" t="n">
-        <v>1252.49737402649</v>
+        <v>6045.384318371033</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332784322181</v>
+        <v>604.3332084915191</v>
       </c>
       <c r="B520" t="n">
-        <v>1252.211460803737</v>
+        <v>6045.098405617825</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4999449928981</v>
+        <v>605.4998749171784</v>
       </c>
       <c r="B521" t="n">
-        <v>1251.937858569065</v>
+        <v>6044.824803835119</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.666611553578</v>
+        <v>606.6665413428377</v>
       </c>
       <c r="B522" t="n">
-        <v>1251.676037229402</v>
+        <v>6044.562982930854</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833278114258</v>
+        <v>607.833207768497</v>
       </c>
       <c r="B523" t="n">
-        <v>1251.425489517884</v>
+        <v>6044.312435638642</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.999944674938</v>
+        <v>608.9998741941563</v>
       </c>
       <c r="B524" t="n">
-        <v>1251.185730009196</v>
+        <v>6044.072676533379</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1666112356179</v>
+        <v>610.1665406198157</v>
       </c>
       <c r="B525" t="n">
-        <v>1250.95629417934</v>
+        <v>6043.843241092352</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.3332777962979</v>
+        <v>611.333207045475</v>
       </c>
       <c r="B526" t="n">
-        <v>1250.736737506892</v>
+        <v>6043.623684794086</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4999443569778</v>
+        <v>612.4998734711343</v>
       </c>
       <c r="B527" t="n">
-        <v>1250.526634610388</v>
+        <v>6043.413582257602</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6666109176577</v>
+        <v>613.6665398967936</v>
       </c>
       <c r="B528" t="n">
-        <v>1250.325578424516</v>
+        <v>6043.212526418612</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332774783378</v>
+        <v>614.8332063224528</v>
       </c>
       <c r="B529" t="n">
-        <v>1250.133179411373</v>
+        <v>6043.020127739435</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9999440390177</v>
+        <v>615.9998727481121</v>
       </c>
       <c r="B530" t="n">
-        <v>1249.949064806786</v>
+        <v>6042.836013456123</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1666105996977</v>
+        <v>617.1665391737714</v>
       </c>
       <c r="B531" t="n">
-        <v>1249.772877896599</v>
+        <v>6042.659826855282</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332771603776</v>
+        <v>618.3332055994308</v>
       </c>
       <c r="B532" t="n">
-        <v>1249.604277326158</v>
+        <v>6042.491226582752</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4999437210575</v>
+        <v>619.4998720250901</v>
       </c>
       <c r="B533" t="n">
-        <v>1249.442936439499</v>
+        <v>6042.329885982803</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6666102817376</v>
+        <v>620.6665384507494</v>
       </c>
       <c r="B534" t="n">
-        <v>1249.288542645837</v>
+        <v>6042.175492464877</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332768424175</v>
+        <v>621.8332048764087</v>
       </c>
       <c r="B535" t="n">
-        <v>1249.140796813353</v>
+        <v>6042.027746898193</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.9999434030974</v>
+        <v>622.999871302068</v>
       </c>
       <c r="B536" t="n">
-        <v>1248.999412691357</v>
+        <v>6041.886363031759</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1666099637774</v>
+        <v>624.1665377277272</v>
       </c>
       <c r="B537" t="n">
-        <v>1248.864116354386</v>
+        <v>6041.751066940618</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332765244573</v>
+        <v>625.3332041533866</v>
       </c>
       <c r="B538" t="n">
-        <v>1248.734645671476</v>
+        <v>6041.621596494576</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4999430851374</v>
+        <v>626.4998705790459</v>
       </c>
       <c r="B539" t="n">
-        <v>1248.610749798972</v>
+        <v>6041.497700849683</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6666096458173</v>
+        <v>627.6665370047052</v>
       </c>
       <c r="B540" t="n">
-        <v>1248.492188693955</v>
+        <v>6041.379139964061</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332762064972</v>
+        <v>628.8332034303645</v>
       </c>
       <c r="B541" t="n">
-        <v>1248.378732649349</v>
+        <v>6041.265684130341</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9999427671772</v>
+        <v>629.9998698560238</v>
       </c>
       <c r="B542" t="n">
-        <v>1248.270161849092</v>
+        <v>6041.157113533508</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1666093278571</v>
+        <v>631.1665362816831</v>
       </c>
       <c r="B543" t="n">
-        <v>1248.166265942321</v>
+        <v>6041.053217821869</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332758885371</v>
+        <v>632.3332027073424</v>
       </c>
       <c r="B544" t="n">
-        <v>1248.066843634949</v>
+        <v>6040.953795702384</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4999424492171</v>
+        <v>633.4998691330018</v>
       </c>
       <c r="B545" t="n">
-        <v>1247.971702300506</v>
+        <v>6040.858654549098</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.666609009897</v>
+        <v>634.6665355586611</v>
       </c>
       <c r="B546" t="n">
-        <v>1247.880657607051</v>
+        <v>6040.767610029512</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.833275570577</v>
+        <v>635.8332019843203</v>
       </c>
       <c r="B547" t="n">
-        <v>1247.793533159598</v>
+        <v>6040.680485749423</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9999421312569</v>
+        <v>636.9998684099796</v>
       </c>
       <c r="B548" t="n">
-        <v>1247.710160157801</v>
+        <v>6040.597112908735</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1666086919369</v>
+        <v>638.1665348356389</v>
       </c>
       <c r="B549" t="n">
-        <v>1247.6303770705</v>
+        <v>6040.517329976533</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332752526169</v>
+        <v>639.3332012612982</v>
       </c>
       <c r="B550" t="n">
-        <v>1247.554029321507</v>
+        <v>6040.440982376614</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4999418132968</v>
+        <v>640.4998676869575</v>
       </c>
       <c r="B551" t="n">
-        <v>1247.480968990116</v>
+        <v>6040.36792218852</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6666083739768</v>
+        <v>641.6665341126169</v>
       </c>
       <c r="B552" t="n">
-        <v>1247.411054525256</v>
+        <v>6040.298007861702</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332749346567</v>
+        <v>642.8332005382762</v>
       </c>
       <c r="B553" t="n">
-        <v>1247.344150470894</v>
+        <v>6040.23110394011</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9999414953367</v>
+        <v>643.9998669639355</v>
       </c>
       <c r="B554" t="n">
-        <v>1247.280127203207</v>
+        <v>6040.167080799906</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1666080560167</v>
+        <v>645.1665333895947</v>
       </c>
       <c r="B555" t="n">
-        <v>1247.218860679533</v>
+        <v>6040.105814399483</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.3332746166966</v>
+        <v>646.333199815254</v>
       </c>
       <c r="B556" t="n">
-        <v>1247.160232199364</v>
+        <v>6040.047186037251</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4999411773765</v>
+        <v>647.4998662409133</v>
       </c>
       <c r="B557" t="n">
-        <v>1247.104128172035</v>
+        <v>6039.991082123601</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6666077380565</v>
+        <v>648.6665326665726</v>
       </c>
       <c r="B558" t="n">
-        <v>1247.050439898863</v>
+        <v>6039.937393959569</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.8332742987365</v>
+        <v>649.833199092232</v>
       </c>
       <c r="B559" t="n">
-        <v>1246.9990633609</v>
+        <v>6039.886017526732</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9999408594165</v>
+        <v>650.9998655178913</v>
       </c>
       <c r="B560" t="n">
-        <v>1246.949899018208</v>
+        <v>6039.83685328514</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1666074200964</v>
+        <v>652.1665319435506</v>
       </c>
       <c r="B561" t="n">
-        <v>1246.902851617152</v>
+        <v>6039.789805981414</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3332739807763</v>
+        <v>653.3331983692099</v>
       </c>
       <c r="B562" t="n">
-        <v>1246.857830005727</v>
+        <v>6039.744784463539</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4999405414563</v>
+        <v>654.4998647948692</v>
       </c>
       <c r="B563" t="n">
-        <v>1246.81474695611</v>
+        <v>6039.701701503949</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6666071021363</v>
+        <v>655.6665312205284</v>
       </c>
       <c r="B564" t="n">
-        <v>1246.773518997119</v>
+        <v>6039.660473631453</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8332736628163</v>
+        <v>656.8331976461877</v>
       </c>
       <c r="B565" t="n">
-        <v>1246.734066251212</v>
+        <v>6039.621020968499</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9999402234962</v>
+        <v>657.9998640718471</v>
       </c>
       <c r="B566" t="n">
-        <v>1246.69631228033</v>
+        <v>6039.583267077823</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1666067841761</v>
+        <v>659.1665304975064</v>
       </c>
       <c r="B567" t="n">
-        <v>1246.660183937888</v>
+        <v>6039.547138812296</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3332733448561</v>
+        <v>660.3331969231657</v>
       </c>
       <c r="B568" t="n">
-        <v>1246.625611226925</v>
+        <v>6039.512566175216</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.4999399055361</v>
+        <v>661.499863348825</v>
       </c>
       <c r="B569" t="n">
-        <v>1246.59252716441</v>
+        <v>6039.479482183812</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.666606466216</v>
+        <v>662.6665297744843</v>
       </c>
       <c r="B570" t="n">
-        <v>1246.560867650896</v>
+        <v>6039.44782273863</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.833273026896</v>
+        <v>663.8331962001436</v>
       </c>
       <c r="B571" t="n">
-        <v>1246.530571347943</v>
+        <v>6039.41752650149</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9999395875759</v>
+        <v>664.9998626258028</v>
       </c>
       <c r="B572" t="n">
-        <v>1246.501579557678</v>
+        <v>6039.388534774513</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1666061482559</v>
+        <v>666.1665290514622</v>
       </c>
       <c r="B573" t="n">
-        <v>1246.473836109581</v>
+        <v>6039.360791387172</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3332727089359</v>
+        <v>667.3331954771215</v>
       </c>
       <c r="B574" t="n">
-        <v>1246.44728725209</v>
+        <v>6039.334242588166</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4999392696158</v>
+        <v>668.4998619027808</v>
       </c>
       <c r="B575" t="n">
-        <v>1246.421881548222</v>
+        <v>6039.308836940239</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6666058302958</v>
+        <v>669.6665283284401</v>
       </c>
       <c r="B576" t="n">
-        <v>1246.397569774935</v>
+        <v>6039.284525221146</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8332723909757</v>
+        <v>670.8331947540994</v>
       </c>
       <c r="B577" t="n">
-        <v>1246.374304829724</v>
+        <v>6039.261260327843</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9999389516556</v>
+        <v>671.9998611797587</v>
       </c>
       <c r="B578" t="n">
-        <v>1246.352041637482</v>
+        <v>6039.23899718575</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1666055123357</v>
+        <v>673.1665276054181</v>
       </c>
       <c r="B579" t="n">
-        <v>1246.330737064582</v>
+        <v>6039.217692660701</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3332720730156</v>
+        <v>674.3331940310774</v>
       </c>
       <c r="B580" t="n">
-        <v>1246.310349834039</v>
+        <v>6039.197305476242</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4999386336956</v>
+        <v>675.4998604567367</v>
       </c>
       <c r="B581" t="n">
-        <v>1246.290840446552</v>
+        <v>6039.177796133336</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6666051943755</v>
+        <v>676.6665268823959</v>
       </c>
       <c r="B582" t="n">
-        <v>1246.272171103426</v>
+        <v>6039.159126832745</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8332717550554</v>
+        <v>677.8331933080552</v>
       </c>
       <c r="B583" t="n">
-        <v>1246.254305634038</v>
+        <v>6039.141261404379</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9999383157354</v>
+        <v>678.9998597337145</v>
       </c>
       <c r="B584" t="n">
-        <v>1246.237209424375</v>
+        <v>6039.124165234222</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1666048764154</v>
+        <v>680.1665261593738</v>
       </c>
       <c r="B585" t="n">
-        <v>1246.220849351466</v>
+        <v>6039.107805199299</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3332714370954</v>
+        <v>681.3331925850332</v>
       </c>
       <c r="B586" t="n">
-        <v>1246.20519371861</v>
+        <v>6039.092149602636</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4999379977753</v>
+        <v>682.4998590106925</v>
       </c>
       <c r="B587" t="n">
-        <v>1246.190212193281</v>
+        <v>6039.077168112241</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6666045584552</v>
+        <v>683.6665254363518</v>
       </c>
       <c r="B588" t="n">
-        <v>1246.17587574932</v>
+        <v>6039.062831702217</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8332711191352</v>
+        <v>684.8331918620111</v>
       </c>
       <c r="B589" t="n">
-        <v>1246.162156611265</v>
+        <v>6039.04911259603</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9999376798152</v>
+        <v>685.9998582876703</v>
       </c>
       <c r="B590" t="n">
-        <v>1246.149028198143</v>
+        <v>6039.035984214041</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1666042404951</v>
+        <v>687.1665247133296</v>
       </c>
       <c r="B591" t="n">
-        <v>1246.136465074496</v>
+        <v>6039.023421120522</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3332708011751</v>
+        <v>688.3331911389889</v>
       </c>
       <c r="B592" t="n">
-        <v>1246.12444289979</v>
+        <v>6039.0113989744</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.499937361855</v>
+        <v>689.4998575646483</v>
       </c>
       <c r="B593" t="n">
-        <v>1246.112938381584</v>
+        <v>6038.999894484036</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.666603922535</v>
+        <v>690.6665239903076</v>
       </c>
       <c r="B594" t="n">
-        <v>1246.101929230564</v>
+        <v>6038.988885359309</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.833270483215</v>
+        <v>691.8331904159669</v>
       </c>
       <c r="B595" t="n">
-        <v>1246.091394116646</v>
+        <v>6038.978350270936</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9999370438949</v>
+        <v>692.9998568416262</v>
       </c>
       <c r="B596" t="n">
-        <v>1246.081312628835</v>
+        <v>6038.968268807652</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1666036045749</v>
+        <v>694.1665232672855</v>
       </c>
       <c r="B597" t="n">
-        <v>1246.071665234539</v>
+        <v>6038.958621436863</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3332701652548</v>
+        <v>695.3331896929448</v>
       </c>
       <c r="B598" t="n">
-        <v>1246.0624332421</v>
+        <v>6038.949389467176</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.4999367259348</v>
+        <v>696.499856118604</v>
       </c>
       <c r="B599" t="n">
-        <v>1246.053598765468</v>
+        <v>6038.940555012004</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6666032866148</v>
+        <v>697.6665225442634</v>
       </c>
       <c r="B600" t="n">
-        <v>1246.045144687797</v>
+        <v>6038.932100955301</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8332698472947</v>
+        <v>698.8331889699227</v>
       </c>
       <c r="B601" t="n">
-        <v>1246.037054629867</v>
+        <v>6038.924010917311</v>
       </c>
     </row>
   </sheetData>

--- a/qdes.xlsx
+++ b/qdes.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666425659303</v>
+        <v>1.017377804163516</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333332851318607</v>
+        <v>2.034755608327031</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.49999927697791</v>
+        <v>3.052133412490547</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666665702637213</v>
+        <v>4.069511216654062</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332128296517</v>
+        <v>5.086889020817578</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.99999855395582</v>
+        <v>6.104266824981093</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166664979615124</v>
+        <v>7.121644629144608</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333331405274427</v>
+        <v>8.139022433308124</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999783093373</v>
+        <v>9.15640023747164</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666425659303</v>
+        <v>10.17377804163516</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333068225234</v>
+        <v>11.19115584579867</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999710791164</v>
+        <v>12.20853364996219</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666353357094</v>
+        <v>13.2259114541257</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33332995923025</v>
+        <v>14.24328925828922</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999638488955</v>
+        <v>15.26066706245273</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666281054885</v>
+        <v>16.27804486661625</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83332923620816</v>
+        <v>17.29542267077976</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999566186746</v>
+        <v>18.31280047494328</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.16666208752676</v>
+        <v>19.3301782791068</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33332851318607</v>
+        <v>20.34755608327031</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999493884537</v>
+        <v>21.36493388743382</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666136450467</v>
+        <v>22.38231169159734</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83332779016398</v>
+        <v>23.39968949576086</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999421582328</v>
+        <v>24.41706729992437</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666064148258</v>
+        <v>25.43444510408789</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.33332706714189</v>
+        <v>26.4518229082514</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999349280119</v>
+        <v>27.46920071241492</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.6666599184605</v>
+        <v>28.48657851657843</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.8333263441198</v>
+        <v>29.50395632074195</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.9999927697791</v>
+        <v>30.52133412490547</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16665919543841</v>
+        <v>31.53871192906898</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332562109771</v>
+        <v>32.5560897332325</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999204675701</v>
+        <v>33.57346753739601</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66665847241632</v>
+        <v>34.59084534155953</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332489807562</v>
+        <v>35.60822314572304</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999132373492</v>
+        <v>36.62560094988656</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16665774939423</v>
+        <v>37.64297875405008</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.33332417505353</v>
+        <v>38.66035655821359</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999060071283</v>
+        <v>39.67773436237711</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66665702637214</v>
+        <v>40.69511216654062</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332345203144</v>
+        <v>41.71248997070413</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99998987769074</v>
+        <v>42.72986777486765</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16665630335005</v>
+        <v>43.74724557903117</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332272900935</v>
+        <v>44.76462338319468</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.49998915466865</v>
+        <v>45.7820011873582</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66665558032796</v>
+        <v>46.79937899152171</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332200598726</v>
+        <v>47.81675679568523</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99998843164656</v>
+        <v>48.83413459984875</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16665485730586</v>
+        <v>49.85151240401226</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332128296517</v>
+        <v>50.86889020817578</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49998770862447</v>
+        <v>51.88626801233929</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.66665413428377</v>
+        <v>52.90364581650281</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332055994308</v>
+        <v>53.92102362066633</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99998698560238</v>
+        <v>54.93840142482984</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16665341126168</v>
+        <v>55.95577922899336</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33331983692099</v>
+        <v>56.97315703315687</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.49998626258029</v>
+        <v>57.99053483732038</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66665268823959</v>
+        <v>59.0079126414839</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.8333191138989</v>
+        <v>60.02529044564741</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.9999855395582</v>
+        <v>61.04266824981093</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.1666519652175</v>
+        <v>62.06004605397445</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33331839087681</v>
+        <v>63.07742385813796</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49998481653611</v>
+        <v>64.09480166230148</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.66665124219541</v>
+        <v>65.11217946646499</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83331766785471</v>
+        <v>66.12955727062851</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99998409351402</v>
+        <v>67.14693507479203</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665051917333</v>
+        <v>68.16431287895554</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33331694483263</v>
+        <v>69.18169068311906</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49998337049193</v>
+        <v>70.19906848728257</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66664979615123</v>
+        <v>71.21644629144609</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.83331622181053</v>
+        <v>72.23382409560961</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99998264746984</v>
+        <v>73.25120189977312</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16664907312915</v>
+        <v>74.26857970393664</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33331549878845</v>
+        <v>75.28595750810015</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49998192444775</v>
+        <v>76.30333531226367</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66664835010705</v>
+        <v>77.32071311642719</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83331477576635</v>
+        <v>78.3380909205907</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99998120142565</v>
+        <v>79.35546872475422</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16664762708497</v>
+        <v>80.37284652891773</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33331405274427</v>
+        <v>81.39022433308125</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49998047840357</v>
+        <v>82.40760213724475</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66664690406287</v>
+        <v>83.42497994140827</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83331332972217</v>
+        <v>84.44235774557178</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99997975538147</v>
+        <v>85.4597355497353</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16664618104079</v>
+        <v>86.47711335389882</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333126067001</v>
+        <v>87.49449115806233</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999790323594</v>
+        <v>88.51186896222585</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666454580187</v>
+        <v>89.52924676638936</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.833311883678</v>
+        <v>90.54662457055288</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999783093373</v>
+        <v>91.5640023747164</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666447349966</v>
+        <v>92.58138017887991</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333111606559</v>
+        <v>93.59875798304343</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999775863152</v>
+        <v>94.61613578720694</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.6666440119745</v>
+        <v>95.63351359137046</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.8333104376338</v>
+        <v>96.65089139553398</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999768632931</v>
+        <v>97.66826919969749</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666432889524</v>
+        <v>98.68564700386101</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333097146117</v>
+        <v>99.70302480802452</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.499976140271</v>
+        <v>100.720402612188</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666425659303</v>
+        <v>101.7377804163516</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333089915896</v>
+        <v>102.7551582205151</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999754172489</v>
+        <v>103.7725360246786</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666418429082</v>
+        <v>104.7899138288421</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333082685675</v>
+        <v>105.8072916330056</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999746942269</v>
+        <v>106.8246694371691</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666411198862</v>
+        <v>107.8420472413327</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333075455455</v>
+        <v>108.8594250454962</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999739712048</v>
+        <v>109.8768028496597</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666403968641</v>
+        <v>110.8941806538232</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333068225234</v>
+        <v>111.9115584579867</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999732481827</v>
+        <v>112.9289362621502</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.666639673842</v>
+        <v>113.9463140663137</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333060995013</v>
+        <v>114.9636918704772</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999725251606</v>
+        <v>115.9810696746408</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666389508199</v>
+        <v>116.9984474788043</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333053764792</v>
+        <v>118.0158252829678</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999718021385</v>
+        <v>119.0332030871313</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.6666382277978</v>
+        <v>120.0505808912948</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.8333046534571</v>
+        <v>121.0679586954583</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999710791164</v>
+        <v>122.0853364996219</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666375047757</v>
+        <v>123.1027143037854</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.333303930435</v>
+        <v>124.1200921079489</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999703560943</v>
+        <v>125.1374699121124</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666367817536</v>
+        <v>126.1548477162759</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333032074129</v>
+        <v>127.1722255204394</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999696330722</v>
+        <v>128.189603324603</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666360587315</v>
+        <v>129.2069811287665</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333024843908</v>
+        <v>130.22435893293</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999689100501</v>
+        <v>131.2417367370935</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666353357094</v>
+        <v>132.259114541257</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333017613687</v>
+        <v>133.2764923454205</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.999968187028</v>
+        <v>134.2938701495841</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666346126873</v>
+        <v>135.3112479537476</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333010383467</v>
+        <v>136.3286257579111</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999674640059</v>
+        <v>137.3460035620746</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666338896653</v>
+        <v>138.3633813662381</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333003153245</v>
+        <v>139.3807591704016</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999667409839</v>
+        <v>140.3981369745651</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666331666432</v>
+        <v>141.4155147787287</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3332995923025</v>
+        <v>142.4328925828922</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.4999660179618</v>
+        <v>143.4502703870557</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.6666324436211</v>
+        <v>144.4676481912192</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.8332988692804</v>
+        <v>145.4850259953827</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999652949397</v>
+        <v>146.5024037995462</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.166631720599</v>
+        <v>147.5197816037098</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3332981462583</v>
+        <v>148.5371594078733</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999645719176</v>
+        <v>149.5545372120368</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666309975769</v>
+        <v>150.5719150162003</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8332974232362</v>
+        <v>151.5892928203638</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999638488955</v>
+        <v>152.6066706245273</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666302745548</v>
+        <v>153.6240484286909</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3332967002141</v>
+        <v>154.6414262328544</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999631258734</v>
+        <v>155.6588040370179</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666295515327</v>
+        <v>156.6761818411814</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.833295977192</v>
+        <v>157.6935596453449</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999624028513</v>
+        <v>158.7109374495084</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666288285106</v>
+        <v>159.728315253672</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3332952541699</v>
+        <v>160.7456930578355</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999616798292</v>
+        <v>161.763070861999</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666281054885</v>
+        <v>162.7804486661625</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8332945311478</v>
+        <v>163.797826470326</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999609568071</v>
+        <v>164.8152042744895</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666273824665</v>
+        <v>165.832582078653</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3332938081257</v>
+        <v>166.8499598828165</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.4999602337851</v>
+        <v>167.8673376869801</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.6666266594443</v>
+        <v>168.8847154911436</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.8332930851037</v>
+        <v>169.9020932953071</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999595107629</v>
+        <v>170.9194710994706</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666259364223</v>
+        <v>171.9368489036341</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3332923620816</v>
+        <v>172.9542267077976</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999587877409</v>
+        <v>173.9716045119611</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666252134002</v>
+        <v>174.9889823161247</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8332916390595</v>
+        <v>176.0063601202882</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999580647188</v>
+        <v>177.0237379244517</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666244903781</v>
+        <v>178.0411157286152</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3332909160374</v>
+        <v>179.0584935327787</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999573416967</v>
+        <v>180.0758713369422</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.666623767356</v>
+        <v>181.0932491411058</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8332901930153</v>
+        <v>182.1106269452693</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999566186746</v>
+        <v>183.1280047494328</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666230443339</v>
+        <v>184.1453825535963</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3332894699932</v>
+        <v>185.1627603577598</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999558956525</v>
+        <v>186.1801381619233</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666223213118</v>
+        <v>187.1975159660869</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8332887469711</v>
+        <v>188.2148937702504</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999551726304</v>
+        <v>189.2322715744139</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666215982897</v>
+        <v>190.2496493785774</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.333288023949</v>
+        <v>191.2670271827409</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.4999544496083</v>
+        <v>192.2844049869044</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.6666208752676</v>
+        <v>193.301782791068</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8332873009269</v>
+        <v>194.3191605952315</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999537265862</v>
+        <v>195.336538399395</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666201522455</v>
+        <v>196.3539162035585</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3332865779049</v>
+        <v>197.371294007722</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999530035641</v>
+        <v>198.3886718118855</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666194292235</v>
+        <v>199.406049616049</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8332858548827</v>
+        <v>200.4234274202126</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999522805421</v>
+        <v>201.4408052243761</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666187062014</v>
+        <v>202.4581830285396</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3332851318607</v>
+        <v>203.4755608327031</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.49995155752</v>
+        <v>204.4929386368666</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666179831793</v>
+        <v>205.5103164410301</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8332844088386</v>
+        <v>206.5276942451937</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999508344979</v>
+        <v>207.5450720493572</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666172601572</v>
+        <v>208.5624498535207</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3332836858165</v>
+        <v>209.5798276576842</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999501114758</v>
+        <v>210.5972054618477</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666165371351</v>
+        <v>211.6145832660112</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8332829627944</v>
+        <v>212.6319610701748</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999493884537</v>
+        <v>213.6493388743383</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.166615814113</v>
+        <v>214.6667166785018</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3332822397723</v>
+        <v>215.6840944826653</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.4999486654316</v>
+        <v>216.7014722868288</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.6666150910909</v>
+        <v>217.7188500909923</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8332815167502</v>
+        <v>218.7362278951558</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999479424095</v>
+        <v>219.7536056993194</v>
       </c>
       <c r="B218" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666143680688</v>
+        <v>220.7709835034829</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3332807937281</v>
+        <v>221.7883613076464</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999472193874</v>
+        <v>222.8057391118099</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666136450467</v>
+        <v>223.8231169159734</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8332800707061</v>
+        <v>224.8404947201369</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999464963653</v>
+        <v>225.8578725243005</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666129220246</v>
+        <v>226.875250328464</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.333279347684</v>
+        <v>227.8926281326275</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999457733433</v>
+        <v>228.910005936791</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666121990025</v>
+        <v>229.9273837409545</v>
       </c>
       <c r="B228" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8332786246619</v>
+        <v>230.944761545118</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999450503212</v>
+        <v>231.9621393492815</v>
       </c>
       <c r="B230" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666114759805</v>
+        <v>232.979517153445</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3332779016397</v>
+        <v>233.9968949576086</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999443272991</v>
+        <v>235.0142727617721</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666107529584</v>
+        <v>236.0316505659356</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8332771786177</v>
+        <v>237.0490283700991</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.999943604277</v>
+        <v>238.0664061742626</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666100299363</v>
+        <v>239.0837839784261</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3332764555956</v>
+        <v>240.1011617825897</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.4999428812549</v>
+        <v>241.1185395867532</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666093069142</v>
+        <v>242.1359173909167</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8332757325735</v>
+        <v>243.1532951950802</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999421582328</v>
+        <v>244.1706729992437</v>
       </c>
       <c r="B242" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666085838921</v>
+        <v>245.1880508034072</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3332750095514</v>
+        <v>246.2054286075708</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999414352107</v>
+        <v>247.2228064117343</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.66660786087</v>
+        <v>248.2401842158978</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8332742865293</v>
+        <v>249.2575620200613</v>
       </c>
       <c r="B247" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999407121886</v>
+        <v>250.2749398242248</v>
       </c>
       <c r="B248" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666071378479</v>
+        <v>251.2923176283883</v>
       </c>
       <c r="B249" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3332735635072</v>
+        <v>252.3096954325518</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999399891665</v>
+        <v>253.3270732367154</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666064148258</v>
+        <v>254.3444510408789</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8332728404852</v>
+        <v>255.3618288450424</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999392661445</v>
+        <v>256.3792066492059</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666056918037</v>
+        <v>257.3965844533694</v>
       </c>
       <c r="B255" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.333272117463</v>
+        <v>258.4139622575329</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999385431224</v>
+        <v>259.4313400616965</v>
       </c>
       <c r="B257" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666049687817</v>
+        <v>260.44871786586</v>
       </c>
       <c r="B258" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8332713944409</v>
+        <v>261.4660956700235</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999378201003</v>
+        <v>262.483473474187</v>
       </c>
       <c r="B260" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.1666042457596</v>
+        <v>263.5008512783505</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.3332706714189</v>
+        <v>264.518229082514</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.4999370970781</v>
+        <v>265.5356068866776</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.6666035227375</v>
+        <v>266.5529846908411</v>
       </c>
       <c r="B264" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8332699483968</v>
+        <v>267.5703624950046</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999363740561</v>
+        <v>268.5877402991681</v>
       </c>
       <c r="B266" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666027997154</v>
+        <v>269.6051181033316</v>
       </c>
       <c r="B267" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3332692253747</v>
+        <v>270.6224959074951</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.499935651034</v>
+        <v>271.6398737116587</v>
       </c>
       <c r="B269" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666020766933</v>
+        <v>272.6572515158222</v>
       </c>
       <c r="B270" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8332685023526</v>
+        <v>273.6746293199857</v>
       </c>
       <c r="B271" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999349280119</v>
+        <v>274.6920071241492</v>
       </c>
       <c r="B272" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666013536712</v>
+        <v>275.7093849283127</v>
       </c>
       <c r="B273" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3332677793305</v>
+        <v>276.7267627324762</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999342049898</v>
+        <v>277.7441405366397</v>
       </c>
       <c r="B275" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666006306491</v>
+        <v>278.7615183408033</v>
       </c>
       <c r="B276" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8332670563084</v>
+        <v>279.7788961449668</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999334819677</v>
+        <v>280.7962739491303</v>
       </c>
       <c r="B278" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.166599907627</v>
+        <v>281.8136517532938</v>
       </c>
       <c r="B279" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3332663332863</v>
+        <v>282.8310295574573</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999327589456</v>
+        <v>283.8484073616208</v>
       </c>
       <c r="B281" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6665991846049</v>
+        <v>284.8657851657844</v>
       </c>
       <c r="B282" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8332656102642</v>
+        <v>285.8831629699479</v>
       </c>
       <c r="B283" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999320359236</v>
+        <v>286.9005407741114</v>
       </c>
       <c r="B284" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1665984615829</v>
+        <v>287.9179185782749</v>
       </c>
       <c r="B285" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.3332648872421</v>
+        <v>288.9352963824384</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.4999313129014</v>
+        <v>289.9526741866019</v>
       </c>
       <c r="B287" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6665977385608</v>
+        <v>290.9700519907655</v>
       </c>
       <c r="B288" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8332641642201</v>
+        <v>291.987429794929</v>
       </c>
       <c r="B289" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999305898793</v>
+        <v>293.0048075990925</v>
       </c>
       <c r="B290" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1665970155387</v>
+        <v>294.022185403256</v>
       </c>
       <c r="B291" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.333263441198</v>
+        <v>295.0395632074195</v>
       </c>
       <c r="B292" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999298668573</v>
+        <v>296.056941011583</v>
       </c>
       <c r="B293" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6665962925166</v>
+        <v>297.0743188157466</v>
       </c>
       <c r="B294" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8332627181759</v>
+        <v>298.0916966199101</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999291438352</v>
+        <v>299.1090744240736</v>
       </c>
       <c r="B296" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1665955694945</v>
+        <v>300.1264522282371</v>
       </c>
       <c r="B297" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3332619951538</v>
+        <v>301.1438300324006</v>
       </c>
       <c r="B298" t="n">
         <v>0</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999284208131</v>
+        <v>302.1612078365641</v>
       </c>
       <c r="B299" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6665948464724</v>
+        <v>303.1785856407276</v>
       </c>
       <c r="B300" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8332612721317</v>
+        <v>304.1959634448912</v>
       </c>
       <c r="B301" t="n">
         <v>0</v>
@@ -2847,2402 +2847,2402 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.999927697791</v>
+        <v>305.2133412490547</v>
       </c>
       <c r="B302" t="n">
-        <v>99373.62310697319</v>
+        <v>107206.2427721604</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1665941234503</v>
+        <v>306.2307190532182</v>
       </c>
       <c r="B303" t="n">
-        <v>95354.76450171195</v>
+        <v>103157.643163415</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3332605491096</v>
+        <v>307.2480968573817</v>
       </c>
       <c r="B304" t="n">
-        <v>91508.95186469969</v>
+        <v>99267.0953606343</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999269747689</v>
+        <v>308.2654746615452</v>
       </c>
       <c r="B305" t="n">
-        <v>87828.73409848106</v>
+        <v>95528.42923691423</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6665934004282</v>
+        <v>309.2828524657087</v>
       </c>
       <c r="B306" t="n">
-        <v>84306.98093857875</v>
+        <v>91935.71553868918</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8332598260875</v>
+        <v>310.3002302698723</v>
       </c>
       <c r="B307" t="n">
-        <v>80936.86913891006</v>
+        <v>88483.25648236234</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999262517468</v>
+        <v>311.3176080740358</v>
       </c>
       <c r="B308" t="n">
-        <v>77711.86925204106</v>
+        <v>85165.57671803956</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.1665926774061</v>
+        <v>312.3349858781993</v>
       </c>
       <c r="B309" t="n">
-        <v>74625.73297866114</v>
+        <v>81977.41464601408</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.3332591030654</v>
+        <v>313.3523636823628</v>
       </c>
       <c r="B310" t="n">
-        <v>71672.48106176888</v>
+        <v>78913.71407225721</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.4999255287248</v>
+        <v>314.3697414865263</v>
       </c>
       <c r="B311" t="n">
-        <v>68846.39170211925</v>
+        <v>75969.61618965524</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.666591954384</v>
+        <v>315.3871192906898</v>
       </c>
       <c r="B312" t="n">
-        <v>66141.98947248203</v>
+        <v>73140.45187229819</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8332583800433</v>
+        <v>316.4044970948534</v>
       </c>
       <c r="B313" t="n">
-        <v>63554.0347092342</v>
+        <v>70421.73427058125</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999248057026</v>
+        <v>317.4218748990169</v>
       </c>
       <c r="B314" t="n">
-        <v>61077.51336073934</v>
+        <v>67809.15169538809</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.166591231362</v>
+        <v>318.4392527031804</v>
       </c>
       <c r="B315" t="n">
-        <v>58707.62727283273</v>
+        <v>65298.56078006438</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3332576570212</v>
+        <v>319.4566305073439</v>
       </c>
       <c r="B316" t="n">
-        <v>56439.78489260579</v>
+        <v>62885.97990933696</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999240826805</v>
+        <v>320.4740083115074</v>
       </c>
       <c r="B317" t="n">
-        <v>54269.59237246848</v>
+        <v>60567.58290476096</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6665905083399</v>
+        <v>321.4913861156709</v>
       </c>
       <c r="B318" t="n">
-        <v>52192.84505725602</v>
+        <v>58339.69295668088</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332569339992</v>
+        <v>322.5087639198345</v>
       </c>
       <c r="B319" t="n">
-        <v>50205.51933789173</v>
+        <v>56198.77679307262</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999233596585</v>
+        <v>323.526141723998</v>
       </c>
       <c r="B320" t="n">
-        <v>48303.76485581418</v>
+        <v>54141.43907603293</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1665897853177</v>
+        <v>324.5435195281615</v>
       </c>
       <c r="B321" t="n">
-        <v>46483.89704307391</v>
+        <v>52164.41701701881</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332562109771</v>
+        <v>325.560897332325</v>
       </c>
       <c r="B322" t="n">
-        <v>44742.38998364085</v>
+        <v>50264.57520230027</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999226366364</v>
+        <v>326.5782751364885</v>
       </c>
       <c r="B323" t="n">
-        <v>43075.86958209026</v>
+        <v>48438.90062042264</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6665890622957</v>
+        <v>327.595652940652</v>
       </c>
       <c r="B324" t="n">
-        <v>41481.10702644023</v>
+        <v>46684.49788378934</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.833255487955</v>
+        <v>328.6130307448155</v>
       </c>
       <c r="B325" t="n">
-        <v>39955.01253246563</v>
+        <v>44998.58463678494</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999219136143</v>
+        <v>329.630408548979</v>
       </c>
       <c r="B326" t="n">
-        <v>38494.62935737243</v>
+        <v>43378.48714316152</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1665883392736</v>
+        <v>330.6477863531425</v>
       </c>
       <c r="B327" t="n">
-        <v>37097.12807123583</v>
+        <v>41821.63604568753</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332547649329</v>
+        <v>331.665164157306</v>
       </c>
       <c r="B328" t="n">
-        <v>35759.80107510104</v>
+        <v>40325.56229133343</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999211905922</v>
+        <v>332.6825419614696</v>
       </c>
       <c r="B329" t="n">
-        <v>34480.05735512531</v>
+        <v>38887.89321553029</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6665876162515</v>
+        <v>333.6999197656331</v>
       </c>
       <c r="B330" t="n">
-        <v>33255.41746260077</v>
+        <v>37506.34877929887</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332540419108</v>
+        <v>334.7172975697966</v>
       </c>
       <c r="B331" t="n">
-        <v>32083.50871012675</v>
+        <v>36178.7379532701</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999204675701</v>
+        <v>335.7346753739601</v>
       </c>
       <c r="B332" t="n">
-        <v>30962.06057463125</v>
+        <v>34902.95524287441</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.1665868932294</v>
+        <v>336.7520531781236</v>
       </c>
       <c r="B333" t="n">
-        <v>29888.9002983294</v>
+        <v>33676.97734917592</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.3332533188887</v>
+        <v>337.7694309822871</v>
       </c>
       <c r="B334" t="n">
-        <v>28861.94867909624</v>
+        <v>32498.85996007141</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.499919744548</v>
+        <v>338.7868087864506</v>
       </c>
       <c r="B335" t="n">
-        <v>27879.2160421039</v>
+        <v>31366.73466674866</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6665861702073</v>
+        <v>339.8041865906142</v>
       </c>
       <c r="B336" t="n">
-        <v>26938.79838491091</v>
+        <v>30278.80600052614</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332525958666</v>
+        <v>340.8215643947777</v>
       </c>
       <c r="B337" t="n">
-        <v>26038.87368853933</v>
+        <v>29233.34858537149</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999190215259</v>
+        <v>341.8389421989412</v>
       </c>
       <c r="B338" t="n">
-        <v>25177.69838738859</v>
+        <v>28228.70440157896</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1665854471852</v>
+        <v>342.8563200031047</v>
       </c>
       <c r="B339" t="n">
-        <v>24353.60399115603</v>
+        <v>27263.28015627058</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332518728445</v>
+        <v>343.8736978072682</v>
       </c>
       <c r="B340" t="n">
-        <v>23564.99385220441</v>
+        <v>26335.54475654769</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999182985038</v>
+        <v>344.8910756114317</v>
       </c>
       <c r="B341" t="n">
-        <v>22810.34007212739</v>
+        <v>25444.02688129126</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6665847241632</v>
+        <v>345.9084534155953</v>
       </c>
       <c r="B342" t="n">
-        <v>22088.18054151074</v>
+        <v>24587.31264775054</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332511498224</v>
+        <v>346.9258312197588</v>
       </c>
       <c r="B343" t="n">
-        <v>21397.11610715896</v>
+        <v>23764.04336922927</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999175754817</v>
+        <v>347.9432090239223</v>
       </c>
       <c r="B344" t="n">
-        <v>20735.80786129558</v>
+        <v>22972.91340030658</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.166584001141</v>
+        <v>348.9605868280858</v>
       </c>
       <c r="B345" t="n">
-        <v>20102.97454748512</v>
+        <v>22212.66806617714</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332504268004</v>
+        <v>349.9779646322493</v>
       </c>
       <c r="B346" t="n">
-        <v>19497.39007825612</v>
+        <v>21482.10167282928</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999168524596</v>
+        <v>350.9953424364128</v>
       </c>
       <c r="B347" t="n">
-        <v>18917.88115960664</v>
+        <v>20780.05559490004</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6665832781189</v>
+        <v>352.0127202405764</v>
       </c>
       <c r="B348" t="n">
-        <v>18363.32501779923</v>
+        <v>20105.41643818055</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332497037783</v>
+        <v>353.0300980447399</v>
       </c>
       <c r="B349" t="n">
-        <v>17832.64722403379</v>
+        <v>19457.11427385315</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999161294376</v>
+        <v>354.0474758489034</v>
       </c>
       <c r="B350" t="n">
-        <v>17324.81961278769</v>
+        <v>18834.12094166139</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1665825550969</v>
+        <v>355.0648536530669</v>
       </c>
       <c r="B351" t="n">
-        <v>16838.85828978997</v>
+        <v>18235.4484193233</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332489807562</v>
+        <v>356.0822314572304</v>
       </c>
       <c r="B352" t="n">
-        <v>16373.82172576747</v>
+        <v>17660.14725559805</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999154064155</v>
+        <v>357.0996092613939</v>
       </c>
       <c r="B353" t="n">
-        <v>15928.80893227169</v>
+        <v>17107.3050645269</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6665818320748</v>
+        <v>358.1169870655575</v>
       </c>
       <c r="B354" t="n">
-        <v>15502.95771605393</v>
+        <v>16576.0450784542</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332482577341</v>
+        <v>359.134364869721</v>
       </c>
       <c r="B355" t="n">
-        <v>15095.44300860134</v>
+        <v>16065.52475753736</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999146833934</v>
+        <v>360.1517426738845</v>
       </c>
       <c r="B356" t="n">
-        <v>14705.47526760184</v>
+        <v>15574.93445354023</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.1665811090527</v>
+        <v>361.169120478048</v>
       </c>
       <c r="B357" t="n">
-        <v>14332.29894724063</v>
+        <v>15103.49612578855</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333247534712</v>
+        <v>362.1864982822115</v>
       </c>
       <c r="B358" t="n">
-        <v>13975.1910343621</v>
+        <v>14650.46210725584</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999139603713</v>
+        <v>363.203876086375</v>
       </c>
       <c r="B359" t="n">
-        <v>13633.45964766276</v>
+        <v>14215.11391881512</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6665803860306</v>
+        <v>364.2212538905385</v>
       </c>
       <c r="B360" t="n">
-        <v>13306.44269720017</v>
+        <v>13796.76112978607</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332468116899</v>
+        <v>365.2386316947021</v>
       </c>
       <c r="B361" t="n">
-        <v>12993.50660162345</v>
+        <v>13394.74026295854</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999132373492</v>
+        <v>366.2560094988656</v>
       </c>
       <c r="B362" t="n">
-        <v>12694.04506063487</v>
+        <v>13008.41374236857</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1665796630085</v>
+        <v>367.2733873030291</v>
       </c>
       <c r="B363" t="n">
-        <v>12407.47788031017</v>
+        <v>12637.16888214845</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332460886678</v>
+        <v>368.2907651071926</v>
       </c>
       <c r="B364" t="n">
-        <v>12133.24984899744</v>
+        <v>12280.41691485003</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999125143271</v>
+        <v>369.3081429113561</v>
       </c>
       <c r="B365" t="n">
-        <v>11870.82966161754</v>
+        <v>11937.59205770373</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6665789399864</v>
+        <v>370.3255207155196</v>
       </c>
       <c r="B366" t="n">
-        <v>11619.70889028431</v>
+        <v>11608.1506153274</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332453656457</v>
+        <v>371.3428985196832</v>
       </c>
       <c r="B367" t="n">
-        <v>11379.40099924654</v>
+        <v>11291.57011746502</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.999911791305</v>
+        <v>372.3602763238467</v>
       </c>
       <c r="B368" t="n">
-        <v>11149.44040224576</v>
+        <v>10987.34849038626</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1665782169644</v>
+        <v>373.3776541280102</v>
       </c>
       <c r="B369" t="n">
-        <v>10929.38156046367</v>
+        <v>10695.0032606353</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332446426236</v>
+        <v>374.3950319321737</v>
       </c>
       <c r="B370" t="n">
-        <v>10718.79811930832</v>
+        <v>10414.07078986084</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999110682829</v>
+        <v>375.4124097363372</v>
       </c>
       <c r="B371" t="n">
-        <v>10517.28208237203</v>
+        <v>10144.10553952077</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6665774939422</v>
+        <v>376.4297875405007</v>
       </c>
       <c r="B372" t="n">
-        <v>10324.44302095381</v>
+        <v>9884.679364290248</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332439196016</v>
+        <v>377.4471653446643</v>
       </c>
       <c r="B373" t="n">
-        <v>10139.90731762237</v>
+        <v>9635.380833053066</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999103452608</v>
+        <v>378.4645431488278</v>
       </c>
       <c r="B374" t="n">
-        <v>9963.317442347236</v>
+        <v>9395.814576403201</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1665767709201</v>
+        <v>379.4819209529913</v>
       </c>
       <c r="B375" t="n">
-        <v>9794.331259799563</v>
+        <v>9165.600659616468</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332431965795</v>
+        <v>380.4992987571548</v>
       </c>
       <c r="B376" t="n">
-        <v>9632.621366480211</v>
+        <v>8944.373980102804</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999096222388</v>
+        <v>381.5166765613183</v>
       </c>
       <c r="B377" t="n">
-        <v>9477.874456388976</v>
+        <v>8731.783688378142</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.666576047898</v>
+        <v>382.5340543654818</v>
       </c>
       <c r="B378" t="n">
-        <v>9329.790714008157</v>
+        <v>8527.492631644731</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332424735573</v>
+        <v>383.5514321696454</v>
       </c>
       <c r="B379" t="n">
-        <v>9188.083233421738</v>
+        <v>8331.176819089462</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.9999088992167</v>
+        <v>384.5688099738089</v>
       </c>
       <c r="B380" t="n">
-        <v>9052.477462448482</v>
+        <v>8142.524908058689</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166575324876</v>
+        <v>385.5861877779724</v>
       </c>
       <c r="B381" t="n">
-        <v>8922.710670708761</v>
+        <v>7961.237710291586</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.3332417505353</v>
+        <v>386.6035655821359</v>
       </c>
       <c r="B382" t="n">
-        <v>8798.531440594938</v>
+        <v>7787.027717428166</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999081761946</v>
+        <v>387.6209433862994</v>
       </c>
       <c r="B383" t="n">
-        <v>8679.69918016144</v>
+        <v>7619.618645043424</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6665746018539</v>
+        <v>388.6383211904629</v>
       </c>
       <c r="B384" t="n">
-        <v>8565.983656987362</v>
+        <v>7458.744994479259</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332410275132</v>
+        <v>389.6556989946264</v>
       </c>
       <c r="B385" t="n">
-        <v>8457.164552111492</v>
+        <v>7304.15163178301</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999074531725</v>
+        <v>390.67307679879</v>
       </c>
       <c r="B386" t="n">
-        <v>8353.031033173669</v>
+        <v>7155.593383082623</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1665738788318</v>
+        <v>391.6904546029535</v>
       </c>
       <c r="B387" t="n">
-        <v>8253.381345935741</v>
+        <v>7012.834645760953</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332403044911</v>
+        <v>392.707832407117</v>
       </c>
       <c r="B388" t="n">
-        <v>8158.022423391751</v>
+        <v>6875.649014804951</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999067301504</v>
+        <v>393.7252102112805</v>
       </c>
       <c r="B389" t="n">
-        <v>8066.769511708859</v>
+        <v>6743.818923744142</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6665731558097</v>
+        <v>394.742588015444</v>
       </c>
       <c r="B390" t="n">
-        <v>7979.445812274762</v>
+        <v>6617.135299606602</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.833239581469</v>
+        <v>395.7599658196075</v>
       </c>
       <c r="B391" t="n">
-        <v>7895.88213915761</v>
+        <v>6495.39723134457</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999060071283</v>
+        <v>396.7773436237711</v>
       </c>
       <c r="B392" t="n">
-        <v>7815.916591315736</v>
+        <v>6378.411651202459</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1665724327876</v>
+        <v>397.7947214279346</v>
       </c>
       <c r="B393" t="n">
-        <v>7739.394238920997</v>
+        <v>6265.99302852694</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332388584469</v>
+        <v>398.8120992320981</v>
       </c>
       <c r="B394" t="n">
-        <v>7666.166823189546</v>
+        <v>6157.963075528674</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999052841062</v>
+        <v>399.8294770362616</v>
       </c>
       <c r="B395" t="n">
-        <v>7596.092469136005</v>
+        <v>6054.150464530408</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6665717097655</v>
+        <v>400.8468548404251</v>
       </c>
       <c r="B396" t="n">
-        <v>7529.035410697576</v>
+        <v>5954.390556252703</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332381354248</v>
+        <v>401.8642326445886</v>
       </c>
       <c r="B397" t="n">
-        <v>7464.865727691982</v>
+        <v>5858.525138710098</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999045610841</v>
+        <v>402.8816104487522</v>
       </c>
       <c r="B398" t="n">
-        <v>7403.459094103679</v>
+        <v>5766.402176296579</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1665709867434</v>
+        <v>403.8989882529157</v>
       </c>
       <c r="B399" t="n">
-        <v>7344.696537207472</v>
+        <v>5677.875568669379</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332374124028</v>
+        <v>404.9163660570792</v>
       </c>
       <c r="B400" t="n">
-        <v>7288.464207063024</v>
+        <v>5592.804919043452</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.499903838062</v>
+        <v>405.9337438612427</v>
       </c>
       <c r="B401" t="n">
-        <v>7234.653155936531</v>
+        <v>5511.055311532624</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6665702637213</v>
+        <v>406.9511216654062</v>
       </c>
       <c r="B402" t="n">
-        <v>7183.159127218362</v>
+        <v>5432.497097182927</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332366893806</v>
+        <v>407.9684994695697</v>
       </c>
       <c r="B403" t="n">
-        <v>7133.8823534312</v>
+        <v>5357.005688358988</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.99990311504</v>
+        <v>408.9858772737333</v>
       </c>
       <c r="B404" t="n">
-        <v>7086.727362933374</v>
+        <v>5284.461361156587</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.1665695406992</v>
+        <v>410.0032550778968</v>
       </c>
       <c r="B405" t="n">
-        <v>7041.602794948839</v>
+        <v>5214.74906552926</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332359663585</v>
+        <v>411.0206328820603</v>
       </c>
       <c r="B406" t="n">
-        <v>6998.421222556852</v>
+        <v>5147.758242827254</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999023920179</v>
+        <v>412.0380106862238</v>
       </c>
       <c r="B407" t="n">
-        <v>6957.09898330895</v>
+        <v>5083.382650460623</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6665688176772</v>
+        <v>413.0553884903873</v>
       </c>
       <c r="B408" t="n">
-        <v>6917.556017134117</v>
+        <v>5021.520193403807</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332352433364</v>
+        <v>414.0727662945508</v>
       </c>
       <c r="B409" t="n">
-        <v>6879.715711227021</v>
+        <v>4962.072762283275</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999016689958</v>
+        <v>415.0901440987143</v>
       </c>
       <c r="B410" t="n">
-        <v>6843.504751613952</v>
+        <v>4904.946077780268</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1665680946551</v>
+        <v>416.1075219028779</v>
       </c>
       <c r="B411" t="n">
-        <v>6808.852981109808</v>
+        <v>4850.049541112663</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332345203144</v>
+        <v>417.1248997070414</v>
       </c>
       <c r="B412" t="n">
-        <v>6775.69326339153</v>
+        <v>4797.296090351613</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999009459736</v>
+        <v>418.1422775112049</v>
       </c>
       <c r="B413" t="n">
-        <v>6743.96135292489</v>
+        <v>4746.602062346172</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.666567371633</v>
+        <v>419.1596553153684</v>
       </c>
       <c r="B414" t="n">
-        <v>6713.595770490907</v>
+        <v>4697.887060041681</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332337972923</v>
+        <v>420.1770331195319</v>
       </c>
       <c r="B415" t="n">
-        <v>6684.537684072358</v>
+        <v>4651.073824974301</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999002229516</v>
+        <v>421.1944109236954</v>
       </c>
       <c r="B416" t="n">
-        <v>6656.730794869926</v>
+        <v>4606.088114745257</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1665666486109</v>
+        <v>422.211788727859</v>
       </c>
       <c r="B417" t="n">
-        <v>6630.121228225865</v>
+        <v>4562.858585277483</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332330742702</v>
+        <v>423.2291665320225</v>
       </c>
       <c r="B418" t="n">
-        <v>6604.65742924318</v>
+        <v>4521.31667767016</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4998994999295</v>
+        <v>424.246544336186</v>
       </c>
       <c r="B419" t="n">
-        <v>6580.290062900159</v>
+        <v>4481.39650946796</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6665659255888</v>
+        <v>425.2639221403495</v>
       </c>
       <c r="B420" t="n">
-        <v>6556.971918467251</v>
+        <v>4443.034770176782</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332323512481</v>
+        <v>426.281299944513</v>
       </c>
       <c r="B421" t="n">
-        <v>6534.657818037361</v>
+        <v>4406.170620857189</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9998987769074</v>
+        <v>427.2986777486765</v>
       </c>
       <c r="B422" t="n">
-        <v>6513.304528995581</v>
+        <v>4370.745597640539</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1665652025667</v>
+        <v>428.3160555528401</v>
       </c>
       <c r="B423" t="n">
-        <v>6492.870680257603</v>
+        <v>4336.70351900608</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.333231628226</v>
+        <v>429.3334333570036</v>
       </c>
       <c r="B424" t="n">
-        <v>6473.316682115961</v>
+        <v>4303.990396684262</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4998980538853</v>
+        <v>430.3508111611671</v>
       </c>
       <c r="B425" t="n">
-        <v>6454.604649535393</v>
+        <v>4272.554350033429</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6665644795446</v>
+        <v>431.3681889653306</v>
       </c>
       <c r="B426" t="n">
-        <v>6436.698328753859</v>
+        <v>4242.345523761282</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.8332309052039</v>
+        <v>432.3855667694941</v>
       </c>
       <c r="B427" t="n">
-        <v>6419.563027040407</v>
+        <v>4213.316008858544</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.9998973308632</v>
+        <v>433.4029445736576</v>
       </c>
       <c r="B428" t="n">
-        <v>6403.165545481432</v>
+        <v>4185.419766617733</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.1665637565225</v>
+        <v>434.4203223778212</v>
       </c>
       <c r="B429" t="n">
-        <v>6387.474114657466</v>
+        <v>4158.612555620763</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332301821818</v>
+        <v>435.4377001819847</v>
       </c>
       <c r="B430" t="n">
-        <v>6372.45833309303</v>
+        <v>4132.851861572563</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4998966078412</v>
+        <v>436.4550779861482</v>
       </c>
       <c r="B431" t="n">
-        <v>6358.089108353736</v>
+        <v>4108.096829879465</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6665630335004</v>
+        <v>437.4724557903117</v>
       </c>
       <c r="B432" t="n">
-        <v>6344.338600680921</v>
+        <v>4084.308200855099</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332294591597</v>
+        <v>438.4898335944752</v>
       </c>
       <c r="B433" t="n">
-        <v>6331.180169054865</v>
+        <v>4061.448247457127</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9998958848191</v>
+        <v>439.5072113986387</v>
       </c>
       <c r="B434" t="n">
-        <v>6318.588319576609</v>
+        <v>4039.480715456597</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1665623104784</v>
+        <v>440.5245892028022</v>
       </c>
       <c r="B435" t="n">
-        <v>6306.538656076827</v>
+        <v>4018.370765938635</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332287361376</v>
+        <v>441.5419670069658</v>
       </c>
       <c r="B436" t="n">
-        <v>6295.007832847916</v>
+        <v>3998.084920053757</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4998951617969</v>
+        <v>442.5593448111293</v>
       </c>
       <c r="B437" t="n">
-        <v>6283.973509413377</v>
+        <v>3978.591005919752</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6665615874563</v>
+        <v>443.5767226152928</v>
       </c>
       <c r="B438" t="n">
-        <v>6273.414307243236</v>
+        <v>3959.858107601691</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332280131156</v>
+        <v>444.5941004194563</v>
       </c>
       <c r="B439" t="n">
-        <v>6263.309768335205</v>
+        <v>3941.85651608014</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9998944387748</v>
+        <v>445.6114782236198</v>
       </c>
       <c r="B440" t="n">
-        <v>6253.640315577536</v>
+        <v>3924.557682135161</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1665608644341</v>
+        <v>446.6288560277833</v>
       </c>
       <c r="B441" t="n">
-        <v>6244.387214818912</v>
+        <v>3907.934171069953</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332272900934</v>
+        <v>447.6462338319469</v>
       </c>
       <c r="B442" t="n">
-        <v>6235.532538572827</v>
+        <v>3891.959619200201</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4998937157528</v>
+        <v>448.6636116361104</v>
       </c>
       <c r="B443" t="n">
-        <v>6227.059131282599</v>
+        <v>3876.608692044653</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6665601414121</v>
+        <v>449.6809894402739</v>
       </c>
       <c r="B444" t="n">
-        <v>6218.950576084375</v>
+        <v>3861.857044144509</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332265670714</v>
+        <v>450.6983672444374</v>
       </c>
       <c r="B445" t="n">
-        <v>6211.191162999091</v>
+        <v>3847.681280455143</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9998929927307</v>
+        <v>451.7157450486009</v>
       </c>
       <c r="B446" t="n">
-        <v>6203.765858495825</v>
+        <v>3834.058919243254</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.16655941839</v>
+        <v>452.7331228527644</v>
       </c>
       <c r="B447" t="n">
-        <v>6196.660276365004</v>
+        <v>3820.968356430511</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332258440493</v>
+        <v>453.750500656928</v>
       </c>
       <c r="B448" t="n">
-        <v>6189.860649844982</v>
+        <v>3808.388831332745</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4998922697085</v>
+        <v>454.7678784610915</v>
       </c>
       <c r="B449" t="n">
-        <v>6183.353804950593</v>
+        <v>3796.300393734859</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6665586953679</v>
+        <v>455.7852562652549</v>
       </c>
       <c r="B450" t="n">
-        <v>6177.127134947773</v>
+        <v>3784.683872251082</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332251210272</v>
+        <v>456.8026340694184</v>
       </c>
       <c r="B451" t="n">
-        <v>6171.168575930314</v>
+        <v>3773.520843919357</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.9998915466865</v>
+        <v>457.820011873582</v>
       </c>
       <c r="B452" t="n">
-        <v>6165.466583444454</v>
+        <v>3762.793604986236</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.1665579723458</v>
+        <v>458.8373896777455</v>
       </c>
       <c r="B453" t="n">
-        <v>6160.010110124352</v>
+        <v>3752.485142828008</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332243980051</v>
+        <v>459.854767481909</v>
       </c>
       <c r="B454" t="n">
-        <v>6154.788584285721</v>
+        <v>3742.579108970253</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4998908236644</v>
+        <v>460.8721452860725</v>
       </c>
       <c r="B455" t="n">
-        <v>6149.791889446052</v>
+        <v>3733.05979316137</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6665572493238</v>
+        <v>461.889523090236</v>
       </c>
       <c r="B456" t="n">
-        <v>6145.010344722961</v>
+        <v>3723.912098456156</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332236749831</v>
+        <v>462.9069008943995</v>
       </c>
       <c r="B457" t="n">
-        <v>6140.434686077498</v>
+        <v>3715.121517273853</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9998901006423</v>
+        <v>463.9242786985631</v>
       </c>
       <c r="B458" t="n">
-        <v>6136.056048367601</v>
+        <v>3706.674108389519</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1665565263016</v>
+        <v>464.9416565027266</v>
       </c>
       <c r="B459" t="n">
-        <v>6131.865948169429</v>
+        <v>3698.556474824674</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332229519609</v>
+        <v>465.9590343068901</v>
       </c>
       <c r="B460" t="n">
-        <v>6127.856267343267</v>
+        <v>3690.755742600994</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4998893776202</v>
+        <v>466.9764121110536</v>
       </c>
       <c r="B461" t="n">
-        <v>6124.019237303878</v>
+        <v>3683.259540322059</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6665558032795</v>
+        <v>467.9937899152171</v>
       </c>
       <c r="B462" t="n">
-        <v>6120.347423970123</v>
+        <v>3676.055979554324</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332222289389</v>
+        <v>469.0111677193806</v>
       </c>
       <c r="B463" t="n">
-        <v>6116.833713360681</v>
+        <v>3669.133635972609</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9998886545982</v>
+        <v>470.0285455235442</v>
       </c>
       <c r="B464" t="n">
-        <v>6113.471297811231</v>
+        <v>3662.481531241578</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1665550802575</v>
+        <v>471.0459233277077</v>
       </c>
       <c r="B465" t="n">
-        <v>6110.253662785802</v>
+        <v>3656.089115604667</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332215059168</v>
+        <v>472.0633011318712</v>
       </c>
       <c r="B466" t="n">
-        <v>6107.174574253918</v>
+        <v>3649.946251154361</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.499887931576</v>
+        <v>473.0806789360347</v>
       </c>
       <c r="B467" t="n">
-        <v>6104.228066613477</v>
+        <v>3644.043195752823</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6665543572353</v>
+        <v>474.0980567401982</v>
       </c>
       <c r="B468" t="n">
-        <v>6101.408431132045</v>
+        <v>3638.370587581408</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332207828946</v>
+        <v>475.1154345443617</v>
       </c>
       <c r="B469" t="n">
-        <v>6098.710204886504</v>
+        <v>3632.919430295103</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.999887208554</v>
+        <v>476.1328123485252</v>
       </c>
       <c r="B470" t="n">
-        <v>6096.128160178569</v>
+        <v>3627.681078753041</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1665536342133</v>
+        <v>477.1501901526888</v>
       </c>
       <c r="B471" t="n">
-        <v>6093.657294407444</v>
+        <v>3622.647225309772</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332200598726</v>
+        <v>478.1675679568523</v>
       </c>
       <c r="B472" t="n">
-        <v>6091.292820376322</v>
+        <v>3617.809886637784</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4998864855319</v>
+        <v>479.1849457610158</v>
       </c>
       <c r="B473" t="n">
-        <v>6089.030157018016</v>
+        <v>3613.161391069039</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6665529111912</v>
+        <v>480.2023235651793</v>
       </c>
       <c r="B474" t="n">
-        <v>6086.864920518844</v>
+        <v>3608.694366426336</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.8332193368504</v>
+        <v>481.2197013693428</v>
       </c>
       <c r="B475" t="n">
-        <v>6084.792915825776</v>
+        <v>3604.401728331938</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9998857625097</v>
+        <v>482.2370791735063</v>
       </c>
       <c r="B476" t="n">
-        <v>6082.810128518649</v>
+        <v>3600.276668973185</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.1665521881691</v>
+        <v>483.2544569776699</v>
       </c>
       <c r="B477" t="n">
-        <v>6080.91271703139</v>
+        <v>3596.312646304868</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332186138284</v>
+        <v>484.2718347818334</v>
       </c>
       <c r="B478" t="n">
-        <v>6079.097005210733</v>
+        <v>3592.503373673905</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4998850394877</v>
+        <v>485.2892125859969</v>
       </c>
       <c r="B479" t="n">
-        <v>6077.359475192897</v>
+        <v>3588.84280985038</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.666551465147</v>
+        <v>486.3065903901604</v>
       </c>
       <c r="B480" t="n">
-        <v>6075.69676058725</v>
+        <v>3585.325149444684</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332178908063</v>
+        <v>487.3239681943239</v>
       </c>
       <c r="B481" t="n">
-        <v>6074.105639955726</v>
+        <v>3581.944813703086</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9998843164656</v>
+        <v>488.3413459984874</v>
       </c>
       <c r="B482" t="n">
-        <v>6072.583030570309</v>
+        <v>3578.696441657786</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1665507421249</v>
+        <v>489.358723802651</v>
       </c>
       <c r="B483" t="n">
-        <v>6071.125982440319</v>
+        <v>3575.574881625633</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332171677843</v>
+        <v>490.3761016068145</v>
       </c>
       <c r="B484" t="n">
-        <v>6069.73167259715</v>
+        <v>3572.575183039227</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4998835934435</v>
+        <v>491.393479410978</v>
       </c>
       <c r="B485" t="n">
-        <v>6068.397399625261</v>
+        <v>3569.692588593539</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6665500191028</v>
+        <v>492.4108572151415</v>
       </c>
       <c r="B486" t="n">
-        <v>6067.120578427873</v>
+        <v>3566.922526702819</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332164447621</v>
+        <v>493.428235019305</v>
       </c>
       <c r="B487" t="n">
-        <v>6065.898735218567</v>
+        <v>3564.260604249684</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9998828704214</v>
+        <v>494.4456128234685</v>
       </c>
       <c r="B488" t="n">
-        <v>6064.72950272833</v>
+        <v>3561.702599617809</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1665492960807</v>
+        <v>495.4629906276321</v>
       </c>
       <c r="B489" t="n">
-        <v>6063.610615619223</v>
+        <v>3559.244455997456</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.33321572174</v>
+        <v>496.4803684317956</v>
       </c>
       <c r="B490" t="n">
-        <v>6062.539906095568</v>
+        <v>3556.882274950968</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4998821473994</v>
+        <v>497.4977462359591</v>
       </c>
       <c r="B491" t="n">
-        <v>6061.515299703293</v>
+        <v>3554.612310230237</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6665485730587</v>
+        <v>498.5151240401226</v>
       </c>
       <c r="B492" t="n">
-        <v>6060.534811310999</v>
+        <v>3552.430961835413</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332149987179</v>
+        <v>499.5325018442861</v>
       </c>
       <c r="B493" t="n">
-        <v>6059.596541265004</v>
+        <v>3550.334770306558</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9998814243772</v>
+        <v>500.5498796484496</v>
       </c>
       <c r="B494" t="n">
-        <v>6058.698671706833</v>
+        <v>3548.320411235366</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1665478500365</v>
+        <v>501.5672574526131</v>
       </c>
       <c r="B495" t="n">
-        <v>6057.839463052919</v>
+        <v>3546.384689994784</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332142756958</v>
+        <v>502.5846352567767</v>
       </c>
       <c r="B496" t="n">
-        <v>6057.017250622828</v>
+        <v>3544.524536670595</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.4998807013552</v>
+        <v>503.6020130609402</v>
       </c>
       <c r="B497" t="n">
-        <v>6056.230441415766</v>
+        <v>3542.737001194943</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6665471270145</v>
+        <v>504.6193908651037</v>
       </c>
       <c r="B498" t="n">
-        <v>6055.477511021713</v>
+        <v>3541.019248665856</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.8332135526738</v>
+        <v>505.6367686692672</v>
       </c>
       <c r="B499" t="n">
-        <v>6054.757000671192</v>
+        <v>3539.368554852144</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.9998799783331</v>
+        <v>506.6541464734307</v>
       </c>
       <c r="B500" t="n">
-        <v>6054.067514405475</v>
+        <v>3537.782301873239</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1665464039924</v>
+        <v>507.6715242775942</v>
       </c>
       <c r="B501" t="n">
-        <v>6053.407716374731</v>
+        <v>3536.257974046611</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332128296516</v>
+        <v>508.6889020817578</v>
       </c>
       <c r="B502" t="n">
-        <v>6052.776328248307</v>
+        <v>3534.793153899081</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4998792553109</v>
+        <v>509.7062798859213</v>
       </c>
       <c r="B503" t="n">
-        <v>6052.172126739031</v>
+        <v>3533.385518332205</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6665456809703</v>
+        <v>510.7236576900848</v>
       </c>
       <c r="B504" t="n">
-        <v>6051.593941232167</v>
+        <v>3532.032834937426</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332121066296</v>
+        <v>511.7410354942483</v>
       </c>
       <c r="B505" t="n">
-        <v>6051.040651518198</v>
+        <v>3530.732958457027</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9998785322889</v>
+        <v>512.7584132984118</v>
       </c>
       <c r="B506" t="n">
-        <v>6050.511185621447</v>
+        <v>3529.483827381643</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1665449579482</v>
+        <v>513.7757911025753</v>
       </c>
       <c r="B507" t="n">
-        <v>6050.004517725041</v>
+        <v>3528.283460679149</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332113836075</v>
+        <v>514.7931689067389</v>
       </c>
       <c r="B508" t="n">
-        <v>6049.519666181245</v>
+        <v>3527.12995465521</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4998778092668</v>
+        <v>515.8105467109024</v>
       </c>
       <c r="B509" t="n">
-        <v>6049.055691610933</v>
+        <v>3526.021479933215</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6665442349261</v>
+        <v>516.8279245150659</v>
       </c>
       <c r="B510" t="n">
-        <v>6048.611695083346</v>
+        <v>3524.956278552079</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332106605855</v>
+        <v>517.8453023192294</v>
       </c>
       <c r="B511" t="n">
-        <v>6048.186816374271</v>
+        <v>3523.932661180049</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9998770862447</v>
+        <v>518.8626801233929</v>
       </c>
       <c r="B512" t="n">
-        <v>6047.780232299163</v>
+        <v>3522.949004433788</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.166543511904</v>
+        <v>519.8800579275564</v>
       </c>
       <c r="B513" t="n">
-        <v>6047.391155119053</v>
+        <v>3522.003748304881</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332099375633</v>
+        <v>520.89743573172</v>
       </c>
       <c r="B514" t="n">
-        <v>6047.018831013121</v>
+        <v>3521.095393686082</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4998763632226</v>
+        <v>521.9148135358835</v>
       </c>
       <c r="B515" t="n">
-        <v>6046.662538619764</v>
+        <v>3520.2224999921</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6665427888819</v>
+        <v>522.932191340047</v>
       </c>
       <c r="B516" t="n">
-        <v>6046.321587637631</v>
+        <v>3519.383682877671</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332092145412</v>
+        <v>523.9495691442105</v>
       </c>
       <c r="B517" t="n">
-        <v>6045.995317488476</v>
+        <v>3518.577612038806</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9998756402006</v>
+        <v>524.966946948374</v>
       </c>
       <c r="B518" t="n">
-        <v>6045.683096038357</v>
+        <v>3517.80300910612</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1665420658599</v>
+        <v>525.9843247525375</v>
       </c>
       <c r="B519" t="n">
-        <v>6045.384318371033</v>
+        <v>3517.058645615186</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332084915191</v>
+        <v>527.001702556701</v>
       </c>
       <c r="B520" t="n">
-        <v>6045.098405617825</v>
+        <v>3516.343341059456</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4998749171784</v>
+        <v>528.0190803608646</v>
       </c>
       <c r="B521" t="n">
-        <v>6044.824803835119</v>
+        <v>3515.655961018075</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.6665413428377</v>
+        <v>529.0364581650281</v>
       </c>
       <c r="B522" t="n">
-        <v>6044.562982930854</v>
+        <v>3514.995415355809</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833207768497</v>
+        <v>530.0538359691916</v>
       </c>
       <c r="B523" t="n">
-        <v>6044.312435638642</v>
+        <v>3514.360656494797</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.9998741941563</v>
+        <v>531.0712137733551</v>
       </c>
       <c r="B524" t="n">
-        <v>6044.072676533379</v>
+        <v>3513.750677754136</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1665406198157</v>
+        <v>532.0885915775186</v>
       </c>
       <c r="B525" t="n">
-        <v>6043.843241092352</v>
+        <v>3513.164511751455</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.333207045475</v>
+        <v>533.1059693816821</v>
       </c>
       <c r="B526" t="n">
-        <v>6043.623684794086</v>
+        <v>3512.601228869869</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4998734711343</v>
+        <v>534.1233471858457</v>
       </c>
       <c r="B527" t="n">
-        <v>6043.413582257602</v>
+        <v>3512.059935783549</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6665398967936</v>
+        <v>535.1407249900092</v>
       </c>
       <c r="B528" t="n">
-        <v>6043.212526418612</v>
+        <v>3511.539774040688</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332063224528</v>
+        <v>536.1581027941727</v>
       </c>
       <c r="B529" t="n">
-        <v>6043.020127739435</v>
+        <v>3511.03991870294</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9998727481121</v>
+        <v>537.1754805983362</v>
       </c>
       <c r="B530" t="n">
-        <v>6042.836013456123</v>
+        <v>3510.559577035807</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1665391737714</v>
+        <v>538.1928584024997</v>
       </c>
       <c r="B531" t="n">
-        <v>6042.659826855282</v>
+        <v>3510.097987252121</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332055994308</v>
+        <v>539.2102362066632</v>
       </c>
       <c r="B532" t="n">
-        <v>6042.491226582752</v>
+        <v>3509.654417303711</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4998720250901</v>
+        <v>540.2276140108268</v>
       </c>
       <c r="B533" t="n">
-        <v>6042.329885982803</v>
+        <v>3509.228163721266</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6665384507494</v>
+        <v>541.2449918149903</v>
       </c>
       <c r="B534" t="n">
-        <v>6042.175492464877</v>
+        <v>3508.818550497146</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332048764087</v>
+        <v>542.2623696191538</v>
       </c>
       <c r="B535" t="n">
-        <v>6042.027746898193</v>
+        <v>3508.424928014254</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.999871302068</v>
+        <v>543.2797474233173</v>
       </c>
       <c r="B536" t="n">
-        <v>6041.886363031759</v>
+        <v>3508.046672016631</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1665377277272</v>
+        <v>544.2971252274808</v>
       </c>
       <c r="B537" t="n">
-        <v>6041.751066940618</v>
+        <v>3507.683182616888</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332041533866</v>
+        <v>545.3145030316443</v>
       </c>
       <c r="B538" t="n">
-        <v>6041.621596494576</v>
+        <v>3507.333883347223</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4998705790459</v>
+        <v>546.3318808358079</v>
       </c>
       <c r="B539" t="n">
-        <v>6041.497700849683</v>
+        <v>3506.998220245112</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6665370047052</v>
+        <v>547.3492586399714</v>
       </c>
       <c r="B540" t="n">
-        <v>6041.379139964061</v>
+        <v>3506.675660972156</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332034303645</v>
+        <v>548.3666364441349</v>
       </c>
       <c r="B541" t="n">
-        <v>6041.265684130341</v>
+        <v>3506.365693973429</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9998698560238</v>
+        <v>549.3840142482984</v>
       </c>
       <c r="B542" t="n">
-        <v>6041.157113533508</v>
+        <v>3506.067827663543</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1665362816831</v>
+        <v>550.4013920524619</v>
       </c>
       <c r="B543" t="n">
-        <v>6041.053217821869</v>
+        <v>3505.781589647995</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332027073424</v>
+        <v>551.4187698566254</v>
       </c>
       <c r="B544" t="n">
-        <v>6040.953795702384</v>
+        <v>3505.506525973985</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4998691330018</v>
+        <v>552.4361476607889</v>
       </c>
       <c r="B545" t="n">
-        <v>6040.858654549098</v>
+        <v>3505.242200410698</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.6665355586611</v>
+        <v>553.4535254649525</v>
       </c>
       <c r="B546" t="n">
-        <v>6040.767610029512</v>
+        <v>3504.988193756895</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.8332019843203</v>
+        <v>554.470903269116</v>
       </c>
       <c r="B547" t="n">
-        <v>6040.680485749423</v>
+        <v>3504.744103176446</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9998684099796</v>
+        <v>555.4882810732795</v>
       </c>
       <c r="B548" t="n">
-        <v>6040.597112908735</v>
+        <v>3504.509541559014</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1665348356389</v>
+        <v>556.505658877443</v>
       </c>
       <c r="B549" t="n">
-        <v>6040.517329976533</v>
+        <v>3504.284136907455</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332012612982</v>
+        <v>557.5230366816065</v>
       </c>
       <c r="B550" t="n">
-        <v>6040.440982376614</v>
+        <v>3504.067531745777</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4998676869575</v>
+        <v>558.54041448577</v>
       </c>
       <c r="B551" t="n">
-        <v>6040.36792218852</v>
+        <v>3503.859382554101</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6665341126169</v>
+        <v>559.5577922899336</v>
       </c>
       <c r="B552" t="n">
-        <v>6040.298007861702</v>
+        <v>3503.659359223271</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332005382762</v>
+        <v>560.5751700940971</v>
       </c>
       <c r="B553" t="n">
-        <v>6040.23110394011</v>
+        <v>3503.467144530032</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9998669639355</v>
+        <v>561.5925478982606</v>
       </c>
       <c r="B554" t="n">
-        <v>6040.167080799906</v>
+        <v>3503.282433636442</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1665333895947</v>
+        <v>562.6099257024241</v>
       </c>
       <c r="B555" t="n">
-        <v>6040.105814399483</v>
+        <v>3503.104933604028</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.333199815254</v>
+        <v>563.6273035065876</v>
       </c>
       <c r="B556" t="n">
-        <v>6040.047186037251</v>
+        <v>3502.934362930951</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4998662409133</v>
+        <v>564.6446813107511</v>
       </c>
       <c r="B557" t="n">
-        <v>6039.991082123601</v>
+        <v>3502.770451104221</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6665326665726</v>
+        <v>565.6620591149147</v>
       </c>
       <c r="B558" t="n">
-        <v>6039.937393959569</v>
+        <v>3502.61293817154</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.833199092232</v>
+        <v>566.6794369190782</v>
       </c>
       <c r="B559" t="n">
-        <v>6039.886017526732</v>
+        <v>3502.461574328814</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9998655178913</v>
+        <v>567.6968147232417</v>
       </c>
       <c r="B560" t="n">
-        <v>6039.83685328514</v>
+        <v>3502.316119524223</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1665319435506</v>
+        <v>568.7141925274052</v>
       </c>
       <c r="B561" t="n">
-        <v>6039.789805981414</v>
+        <v>3502.176343076424</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3331983692099</v>
+        <v>569.7315703315687</v>
       </c>
       <c r="B562" t="n">
-        <v>6039.744784463539</v>
+        <v>3502.042023310848</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4998647948692</v>
+        <v>570.7489481357322</v>
       </c>
       <c r="B563" t="n">
-        <v>6039.701701503949</v>
+        <v>3501.912947205523</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6665312205284</v>
+        <v>571.7663259398958</v>
       </c>
       <c r="B564" t="n">
-        <v>6039.660473631453</v>
+        <v>3501.788910055307</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8331976461877</v>
+        <v>572.7837037440593</v>
       </c>
       <c r="B565" t="n">
-        <v>6039.621020968499</v>
+        <v>3501.669715146243</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9998640718471</v>
+        <v>573.8010815482228</v>
       </c>
       <c r="B566" t="n">
-        <v>6039.583267077823</v>
+        <v>3501.555173443742</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1665304975064</v>
+        <v>574.8184593523863</v>
       </c>
       <c r="B567" t="n">
-        <v>6039.547138812296</v>
+        <v>3501.445103293329</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3331969231657</v>
+        <v>575.8358371565498</v>
       </c>
       <c r="B568" t="n">
-        <v>6039.512566175216</v>
+        <v>3501.339330131229</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.499863348825</v>
+        <v>576.8532149607133</v>
       </c>
       <c r="B569" t="n">
-        <v>6039.479482183812</v>
+        <v>3501.237686209056</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.6665297744843</v>
+        <v>577.8705927648768</v>
       </c>
       <c r="B570" t="n">
-        <v>6039.44782273863</v>
+        <v>3501.140010327108</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.8331962001436</v>
+        <v>578.8879705690404</v>
       </c>
       <c r="B571" t="n">
-        <v>6039.41752650149</v>
+        <v>3501.046147578085</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9998626258028</v>
+        <v>579.9053483732039</v>
       </c>
       <c r="B572" t="n">
-        <v>6039.388534774513</v>
+        <v>3500.955949103099</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1665290514622</v>
+        <v>580.9227261773674</v>
       </c>
       <c r="B573" t="n">
-        <v>6039.360791387172</v>
+        <v>3500.869271853192</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3331954771215</v>
+        <v>581.9401039815309</v>
       </c>
       <c r="B574" t="n">
-        <v>6039.334242588166</v>
+        <v>3500.78597836529</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4998619027808</v>
+        <v>582.9574817856944</v>
       </c>
       <c r="B575" t="n">
-        <v>6039.308836940239</v>
+        <v>3500.705936541223</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6665283284401</v>
+        <v>583.9748595898579</v>
       </c>
       <c r="B576" t="n">
-        <v>6039.284525221146</v>
+        <v>3500.629019440863</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8331947540994</v>
+        <v>584.9922373940215</v>
       </c>
       <c r="B577" t="n">
-        <v>6039.261260327843</v>
+        <v>3500.555105078945</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9998611797587</v>
+        <v>586.009615198185</v>
       </c>
       <c r="B578" t="n">
-        <v>6039.23899718575</v>
+        <v>3500.484076233243</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1665276054181</v>
+        <v>587.0269930023485</v>
       </c>
       <c r="B579" t="n">
-        <v>6039.217692660701</v>
+        <v>3500.415820256741</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3331940310774</v>
+        <v>588.044370806512</v>
       </c>
       <c r="B580" t="n">
-        <v>6039.197305476242</v>
+        <v>3500.350228900228</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4998604567367</v>
+        <v>589.0617486106755</v>
       </c>
       <c r="B581" t="n">
-        <v>6039.177796133336</v>
+        <v>3500.287198141046</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6665268823959</v>
+        <v>590.079126414839</v>
       </c>
       <c r="B582" t="n">
-        <v>6039.159126832745</v>
+        <v>3500.226628016429</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8331933080552</v>
+        <v>591.0965042190026</v>
       </c>
       <c r="B583" t="n">
-        <v>6039.141261404379</v>
+        <v>3500.16842246698</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9998597337145</v>
+        <v>592.1138820231661</v>
       </c>
       <c r="B584" t="n">
-        <v>6039.124165234222</v>
+        <v>3500.1124891829</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1665261593738</v>
+        <v>593.1312598273296</v>
       </c>
       <c r="B585" t="n">
-        <v>6039.107805199299</v>
+        <v>3500.058739457902</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3331925850332</v>
+        <v>594.1486376314931</v>
       </c>
       <c r="B586" t="n">
-        <v>6039.092149602636</v>
+        <v>3500.007088048942</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4998590106925</v>
+        <v>595.1660154356566</v>
       </c>
       <c r="B587" t="n">
-        <v>6039.077168112241</v>
+        <v>3499.957453040266</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6665254363518</v>
+        <v>596.1833932398201</v>
       </c>
       <c r="B588" t="n">
-        <v>6039.062831702217</v>
+        <v>3499.909755714802</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8331918620111</v>
+        <v>597.2007710439837</v>
       </c>
       <c r="B589" t="n">
-        <v>6039.04911259603</v>
+        <v>3499.863920427713</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9998582876703</v>
+        <v>598.2181488481472</v>
       </c>
       <c r="B590" t="n">
-        <v>6039.035984214041</v>
+        <v>3499.819874487933</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1665247133296</v>
+        <v>599.2355266523107</v>
       </c>
       <c r="B591" t="n">
-        <v>6039.023421120522</v>
+        <v>3499.777548041221</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3331911389889</v>
+        <v>600.2529044564742</v>
       </c>
       <c r="B592" t="n">
-        <v>6039.0113989744</v>
+        <v>3499.736873961524</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.4998575646483</v>
+        <v>601.2702822606377</v>
       </c>
       <c r="B593" t="n">
-        <v>6038.999894484036</v>
+        <v>3499.697787742317</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.6665239903076</v>
+        <v>602.2876600648012</v>
       </c>
       <c r="B594" t="n">
-        <v>6038.988885359309</v>
+        <v>3499.660227395947</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.8331904159669</v>
+        <v>603.3050378689647</v>
       </c>
       <c r="B595" t="n">
-        <v>6038.978350270936</v>
+        <v>3499.624133354179</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9998568416262</v>
+        <v>604.3224156731283</v>
       </c>
       <c r="B596" t="n">
-        <v>6038.968268807652</v>
+        <v>3499.589448374291</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1665232672855</v>
+        <v>605.3397934772918</v>
       </c>
       <c r="B597" t="n">
-        <v>6038.958621436863</v>
+        <v>3499.556117449137</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3331896929448</v>
+        <v>606.3571712814553</v>
       </c>
       <c r="B598" t="n">
-        <v>6038.949389467176</v>
+        <v>3499.524087717537</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.499856118604</v>
+        <v>607.3745490856188</v>
       </c>
       <c r="B599" t="n">
-        <v>6038.940555012004</v>
+        <v>3499.493308382938</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6665225442634</v>
+        <v>608.3919268897823</v>
       </c>
       <c r="B600" t="n">
-        <v>6038.932100955301</v>
+        <v>3499.463730631774</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8331889699227</v>
+        <v>609.4093046939458</v>
       </c>
       <c r="B601" t="n">
-        <v>6038.924010917311</v>
+        <v>3499.435307555513</v>
       </c>
     </row>
   </sheetData>

--- a/qdes.xlsx
+++ b/qdes.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.017377804163516</v>
+        <v>1.166665719868598</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.034755608327031</v>
+        <v>2.333331439737196</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.052133412490547</v>
+        <v>3.499997159605794</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.069511216654062</v>
+        <v>4.666662879474393</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.086889020817578</v>
+        <v>5.833328599342991</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.104266824981093</v>
+        <v>6.999994319211589</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.121644629144608</v>
+        <v>8.166660039080186</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.139022433308124</v>
+        <v>9.333325758948785</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.15640023747164</v>
+        <v>10.49999147881738</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.17377804163516</v>
+        <v>11.66665719868598</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.19115584579867</v>
+        <v>12.83332291855458</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.20853364996219</v>
+        <v>13.99998863842318</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.2259114541257</v>
+        <v>15.16665435829178</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.24328925828922</v>
+        <v>16.33332007816037</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.26066706245273</v>
+        <v>17.49998579802897</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.27804486661625</v>
+        <v>18.66665151789757</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17.29542267077976</v>
+        <v>19.83331723776617</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18.31280047494328</v>
+        <v>20.99998295763477</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.3301782791068</v>
+        <v>22.16664867750336</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.34755608327031</v>
+        <v>23.33331439737196</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21.36493388743382</v>
+        <v>24.49998011724056</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.38231169159734</v>
+        <v>25.66664583710916</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23.39968949576086</v>
+        <v>26.83331155697776</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24.41706729992437</v>
+        <v>27.99997727684636</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25.43444510408789</v>
+        <v>29.16664299671495</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.4518229082514</v>
+        <v>30.33330871658355</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27.46920071241492</v>
+        <v>31.49997443645215</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28.48657851657843</v>
+        <v>32.66664015632075</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29.50395632074195</v>
+        <v>33.83330587618934</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.52133412490547</v>
+        <v>34.99997159605795</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31.53871192906898</v>
+        <v>36.16663731592654</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32.5560897332325</v>
+        <v>37.33330303579514</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33.57346753739601</v>
+        <v>38.49996875566374</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.59084534155953</v>
+        <v>39.66663447553233</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35.60822314572304</v>
+        <v>40.83330019540094</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36.62560094988656</v>
+        <v>41.99996591526953</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37.64297875405008</v>
+        <v>43.16663163513813</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38.66035655821359</v>
+        <v>44.33329735500673</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39.67773436237711</v>
+        <v>45.49996307487532</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40.69511216654062</v>
+        <v>46.66662879474393</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41.71248997070413</v>
+        <v>47.83329451461253</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42.72986777486765</v>
+        <v>48.99996023448112</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.74724557903117</v>
+        <v>50.16662595434972</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44.76462338319468</v>
+        <v>51.33329167421832</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45.7820011873582</v>
+        <v>52.49995739408691</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46.79937899152171</v>
+        <v>53.66662311395552</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47.81675679568523</v>
+        <v>54.83328883382411</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48.83413459984875</v>
+        <v>55.99995455369271</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49.85151240401226</v>
+        <v>57.16662027356131</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50.86889020817578</v>
+        <v>58.3332859934299</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51.88626801233929</v>
+        <v>59.49995171329851</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52.90364581650281</v>
+        <v>60.6666174331671</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53.92102362066633</v>
+        <v>61.8332831530357</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54.93840142482984</v>
+        <v>62.9999488729043</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55.95577922899336</v>
+        <v>64.1666145927729</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56.97315703315687</v>
+        <v>65.33328031264149</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57.99053483732038</v>
+        <v>66.4999460325101</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59.0079126414839</v>
+        <v>67.66661175237869</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.02529044564741</v>
+        <v>68.83327747224729</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61.04266824981093</v>
+        <v>69.99994319211589</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62.06004605397445</v>
+        <v>71.16660891198448</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63.07742385813796</v>
+        <v>72.33327463185309</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64.09480166230148</v>
+        <v>73.49994035172168</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65.11217946646499</v>
+        <v>74.66660607159028</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66.12955727062851</v>
+        <v>75.83327179145888</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67.14693507479203</v>
+        <v>76.99993751132747</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68.16431287895554</v>
+        <v>78.16660323119608</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69.18169068311906</v>
+        <v>79.33326895106467</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70.19906848728257</v>
+        <v>80.49993467093327</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71.21644629144609</v>
+        <v>81.66660039080188</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72.23382409560961</v>
+        <v>82.83326611067046</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73.25120189977312</v>
+        <v>83.99993183053907</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74.26857970393664</v>
+        <v>85.16659755040766</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75.28595750810015</v>
+        <v>86.33326327027626</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76.30333531226367</v>
+        <v>87.49992899014487</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77.32071311642719</v>
+        <v>88.66659471001346</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78.3380909205907</v>
+        <v>89.83326042988206</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79.35546872475422</v>
+        <v>90.99992614975065</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80.37284652891773</v>
+        <v>92.16659186961925</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81.39022433308125</v>
+        <v>93.33325758948786</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82.40760213724475</v>
+        <v>94.49992330935645</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83.42497994140827</v>
+        <v>95.66658902922505</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84.44235774557178</v>
+        <v>96.83325474909364</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85.4597355497353</v>
+        <v>97.99992046896224</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86.47711335389882</v>
+        <v>99.16658618883083</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87.49449115806233</v>
+        <v>100.3332519086994</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88.51186896222585</v>
+        <v>101.499917628568</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89.52924676638936</v>
+        <v>102.6665833484366</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90.54662457055288</v>
+        <v>103.8332490683052</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91.5640023747164</v>
+        <v>104.9999147881738</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92.58138017887991</v>
+        <v>106.1665805080424</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93.59875798304343</v>
+        <v>107.333246227911</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94.61613578720694</v>
+        <v>108.4999119477796</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95.63351359137046</v>
+        <v>109.6665776676482</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96.65089139553398</v>
+        <v>110.8332433875168</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97.66826919969749</v>
+        <v>111.9999091073854</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98.68564700386101</v>
+        <v>113.166574827254</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99.70302480802452</v>
+        <v>114.3332405471226</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100.720402612188</v>
+        <v>115.4999062669912</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101.7377804163516</v>
+        <v>116.6665719868598</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102.7551582205151</v>
+        <v>117.8332377067284</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103.7725360246786</v>
+        <v>118.999903426597</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104.7899138288421</v>
+        <v>120.1665691464656</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105.8072916330056</v>
+        <v>121.3332348663342</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106.8246694371691</v>
+        <v>122.4999005862028</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107.8420472413327</v>
+        <v>123.6665663060714</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108.8594250454962</v>
+        <v>124.83323202594</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109.8768028496597</v>
+        <v>125.9998977458086</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110.8941806538232</v>
+        <v>127.1665634656772</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111.9115584579867</v>
+        <v>128.3332291855458</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112.9289362621502</v>
+        <v>129.4998949054144</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113.9463140663137</v>
+        <v>130.666560625283</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114.9636918704772</v>
+        <v>131.8332263451516</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115.9810696746408</v>
+        <v>132.9998920650202</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116.9984474788043</v>
+        <v>134.1665577848888</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118.0158252829678</v>
+        <v>135.3332235047574</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119.0332030871313</v>
+        <v>136.499889224626</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>120.0505808912948</v>
+        <v>137.6665549444946</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>121.0679586954583</v>
+        <v>138.8332206643632</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>122.0853364996219</v>
+        <v>139.9998863842318</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123.1027143037854</v>
+        <v>141.1665521041004</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>124.1200921079489</v>
+        <v>142.333217823969</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125.1374699121124</v>
+        <v>143.4998835438376</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126.1548477162759</v>
+        <v>144.6665492637062</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127.1722255204394</v>
+        <v>145.8332149835748</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128.189603324603</v>
+        <v>146.9998807034434</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129.2069811287665</v>
+        <v>148.166546423312</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130.22435893293</v>
+        <v>149.3332121431806</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131.2417367370935</v>
+        <v>150.4998778630492</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132.259114541257</v>
+        <v>151.6665435829178</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133.2764923454205</v>
+        <v>152.8332093027863</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>134.2938701495841</v>
+        <v>153.9998750226549</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>135.3112479537476</v>
+        <v>155.1665407425236</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136.3286257579111</v>
+        <v>156.3332064623922</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137.3460035620746</v>
+        <v>157.4998721822608</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138.3633813662381</v>
+        <v>158.6665379021293</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>139.3807591704016</v>
+        <v>159.8332036219979</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140.3981369745651</v>
+        <v>160.9998693418665</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>141.4155147787287</v>
+        <v>162.1665350617351</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>142.4328925828922</v>
+        <v>163.3332007816038</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143.4502703870557</v>
+        <v>164.4998665014723</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>144.4676481912192</v>
+        <v>165.6665322213409</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>145.4850259953827</v>
+        <v>166.8331979412095</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>146.5024037995462</v>
+        <v>167.9998636610781</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>147.5197816037098</v>
+        <v>169.1665293809467</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>148.5371594078733</v>
+        <v>170.3331951008153</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149.5545372120368</v>
+        <v>171.4998608206839</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150.5719150162003</v>
+        <v>172.6665265405525</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>151.5892928203638</v>
+        <v>173.8331922604211</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>152.6066706245273</v>
+        <v>174.9998579802897</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>153.6240484286909</v>
+        <v>176.1665237001583</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>154.6414262328544</v>
+        <v>177.3331894200269</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>155.6588040370179</v>
+        <v>178.4998551398955</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>156.6761818411814</v>
+        <v>179.6665208597641</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>157.6935596453449</v>
+        <v>180.8331865796327</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>158.7109374495084</v>
+        <v>181.9998522995013</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159.728315253672</v>
+        <v>183.1665180193699</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>160.7456930578355</v>
+        <v>184.3331837392385</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>161.763070861999</v>
+        <v>185.4998494591071</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.7804486661625</v>
+        <v>186.6665151789757</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>163.797826470326</v>
+        <v>187.8331808988443</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>164.8152042744895</v>
+        <v>188.9998466187129</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>165.832582078653</v>
+        <v>190.1665123385815</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166.8499598828165</v>
+        <v>191.3331780584501</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>167.8673376869801</v>
+        <v>192.4998437783187</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>168.8847154911436</v>
+        <v>193.6665094981873</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>169.9020932953071</v>
+        <v>194.8331752180559</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>170.9194710994706</v>
+        <v>195.9998409379245</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>171.9368489036341</v>
+        <v>197.1665066577931</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>172.9542267077976</v>
+        <v>198.3331723776617</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>173.9716045119611</v>
+        <v>199.4998380975303</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>174.9889823161247</v>
+        <v>200.6665038173989</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>176.0063601202882</v>
+        <v>201.8331695372675</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>177.0237379244517</v>
+        <v>202.9998352571361</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>178.0411157286152</v>
+        <v>204.1665009770047</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>179.0584935327787</v>
+        <v>205.3331666968733</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>180.0758713369422</v>
+        <v>206.4998324167419</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>181.0932491411058</v>
+        <v>207.6664981366105</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>182.1106269452693</v>
+        <v>208.8331638564791</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>183.1280047494328</v>
+        <v>209.9998295763477</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>184.1453825535963</v>
+        <v>211.1664952962163</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>185.1627603577598</v>
+        <v>212.3331610160849</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>186.1801381619233</v>
+        <v>213.4998267359535</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>187.1975159660869</v>
+        <v>214.6664924558221</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>188.2148937702504</v>
+        <v>215.8331581756906</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>189.2322715744139</v>
+        <v>216.9998238955592</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>190.2496493785774</v>
+        <v>218.1664896154278</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>191.2670271827409</v>
+        <v>219.3331553352965</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>192.2844049869044</v>
+        <v>220.4998210551651</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>193.301782791068</v>
+        <v>221.6664867750336</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>194.3191605952315</v>
+        <v>222.8331524949022</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>195.336538399395</v>
+        <v>223.9998182147708</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>196.3539162035585</v>
+        <v>225.1664839346394</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>197.371294007722</v>
+        <v>226.333149654508</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>198.3886718118855</v>
+        <v>227.4998153743766</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>199.406049616049</v>
+        <v>228.6664810942452</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>200.4234274202126</v>
+        <v>229.8331468141138</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>201.4408052243761</v>
+        <v>230.9998125339824</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>202.4581830285396</v>
+        <v>232.166478253851</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>203.4755608327031</v>
+        <v>233.3331439737196</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>204.4929386368666</v>
+        <v>234.4998096935882</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>205.5103164410301</v>
+        <v>235.6664754134568</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>206.5276942451937</v>
+        <v>236.8331411333254</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>207.5450720493572</v>
+        <v>237.999806853194</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>208.5624498535207</v>
+        <v>239.1664725730626</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>209.5798276576842</v>
+        <v>240.3331382929312</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>210.5972054618477</v>
+        <v>241.4998040127998</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>211.6145832660112</v>
+        <v>242.6664697326684</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>212.6319610701748</v>
+        <v>243.833135452537</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>213.6493388743383</v>
+        <v>244.9998011724056</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>214.6667166785018</v>
+        <v>246.1664668922742</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>215.6840944826653</v>
+        <v>247.3331326121428</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>216.7014722868288</v>
+        <v>248.4997983320114</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>217.7188500909923</v>
+        <v>249.66646405188</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>218.7362278951558</v>
+        <v>250.8331297717486</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>219.7536056993194</v>
+        <v>251.9997954916172</v>
       </c>
       <c r="B218" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>220.7709835034829</v>
+        <v>253.1664612114858</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>221.7883613076464</v>
+        <v>254.3331269313544</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>222.8057391118099</v>
+        <v>255.499792651223</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>223.8231169159734</v>
+        <v>256.6664583710916</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>224.8404947201369</v>
+        <v>257.8331240909602</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>225.8578725243005</v>
+        <v>258.9997898108288</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>226.875250328464</v>
+        <v>260.1664555306974</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>227.8926281326275</v>
+        <v>261.333121250566</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>228.910005936791</v>
+        <v>262.4997869704346</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>229.9273837409545</v>
+        <v>263.6664526903032</v>
       </c>
       <c r="B228" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>230.944761545118</v>
+        <v>264.8331184101718</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>231.9621393492815</v>
+        <v>265.9997841300404</v>
       </c>
       <c r="B230" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>232.979517153445</v>
+        <v>267.166449849909</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>233.9968949576086</v>
+        <v>268.3331155697776</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>235.0142727617721</v>
+        <v>269.4997812896462</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>236.0316505659356</v>
+        <v>270.6664470095147</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>237.0490283700991</v>
+        <v>271.8331127293833</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>238.0664061742626</v>
+        <v>272.9997784492519</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>239.0837839784261</v>
+        <v>274.1664441691206</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>240.1011617825897</v>
+        <v>275.3331098889892</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>241.1185395867532</v>
+        <v>276.4997756088578</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>242.1359173909167</v>
+        <v>277.6664413287264</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>243.1532951950802</v>
+        <v>278.833107048595</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>244.1706729992437</v>
+        <v>279.9997727684636</v>
       </c>
       <c r="B242" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>245.1880508034072</v>
+        <v>281.1664384883322</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>246.2054286075708</v>
+        <v>282.3331042082007</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>247.2228064117343</v>
+        <v>283.4997699280693</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>248.2401842158978</v>
+        <v>284.6664356479379</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>249.2575620200613</v>
+        <v>285.8331013678065</v>
       </c>
       <c r="B247" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>250.2749398242248</v>
+        <v>286.9997670876751</v>
       </c>
       <c r="B248" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>251.2923176283883</v>
+        <v>288.1664328075437</v>
       </c>
       <c r="B249" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>252.3096954325518</v>
+        <v>289.3330985274123</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>253.3270732367154</v>
+        <v>290.499764247281</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>254.3444510408789</v>
+        <v>291.6664299671496</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>255.3618288450424</v>
+        <v>292.8330956870182</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>256.3792066492059</v>
+        <v>293.9997614068867</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>257.3965844533694</v>
+        <v>295.1664271267553</v>
       </c>
       <c r="B255" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>258.4139622575329</v>
+        <v>296.3330928466239</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>259.4313400616965</v>
+        <v>297.4997585664925</v>
       </c>
       <c r="B257" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>260.44871786586</v>
+        <v>298.6664242863611</v>
       </c>
       <c r="B258" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>261.4660956700235</v>
+        <v>299.8330900062297</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>262.483473474187</v>
+        <v>300.9997557260983</v>
       </c>
       <c r="B260" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>263.5008512783505</v>
+        <v>302.1664214459669</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>264.518229082514</v>
+        <v>303.3330871658355</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>265.5356068866776</v>
+        <v>304.4997528857041</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>266.5529846908411</v>
+        <v>305.6664186055727</v>
       </c>
       <c r="B264" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>267.5703624950046</v>
+        <v>306.8330843254413</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>268.5877402991681</v>
+        <v>307.9997500453099</v>
       </c>
       <c r="B266" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>269.6051181033316</v>
+        <v>309.1664157651785</v>
       </c>
       <c r="B267" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>270.6224959074951</v>
+        <v>310.3330814850471</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>271.6398737116587</v>
+        <v>311.4997472049157</v>
       </c>
       <c r="B269" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>272.6572515158222</v>
+        <v>312.6664129247843</v>
       </c>
       <c r="B270" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>273.6746293199857</v>
+        <v>313.8330786446529</v>
       </c>
       <c r="B271" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>274.6920071241492</v>
+        <v>314.9997443645215</v>
       </c>
       <c r="B272" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>275.7093849283127</v>
+        <v>316.1664100843901</v>
       </c>
       <c r="B273" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>276.7267627324762</v>
+        <v>317.3330758042587</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>277.7441405366397</v>
+        <v>318.4997415241273</v>
       </c>
       <c r="B275" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>278.7615183408033</v>
+        <v>319.6664072439959</v>
       </c>
       <c r="B276" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>279.7788961449668</v>
+        <v>320.8330729638645</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>280.7962739491303</v>
+        <v>321.9997386837331</v>
       </c>
       <c r="B278" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>281.8136517532938</v>
+        <v>323.1664044036017</v>
       </c>
       <c r="B279" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>282.8310295574573</v>
+        <v>324.3330701234703</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>283.8484073616208</v>
+        <v>325.4997358433389</v>
       </c>
       <c r="B281" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>284.8657851657844</v>
+        <v>326.6664015632075</v>
       </c>
       <c r="B282" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>285.8831629699479</v>
+        <v>327.833067283076</v>
       </c>
       <c r="B283" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>286.9005407741114</v>
+        <v>328.9997330029447</v>
       </c>
       <c r="B284" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>287.9179185782749</v>
+        <v>330.1663987228133</v>
       </c>
       <c r="B285" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>288.9352963824384</v>
+        <v>331.3330644426819</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>289.9526741866019</v>
+        <v>332.4997301625505</v>
       </c>
       <c r="B287" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>290.9700519907655</v>
+        <v>333.6663958824191</v>
       </c>
       <c r="B288" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>291.987429794929</v>
+        <v>334.8330616022877</v>
       </c>
       <c r="B289" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>293.0048075990925</v>
+        <v>335.9997273221563</v>
       </c>
       <c r="B290" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>294.022185403256</v>
+        <v>337.1663930420249</v>
       </c>
       <c r="B291" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>295.0395632074195</v>
+        <v>338.3330587618935</v>
       </c>
       <c r="B292" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>296.056941011583</v>
+        <v>339.499724481762</v>
       </c>
       <c r="B293" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>297.0743188157466</v>
+        <v>340.6663902016306</v>
       </c>
       <c r="B294" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>298.0916966199101</v>
+        <v>341.8330559214992</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>299.1090744240736</v>
+        <v>342.9997216413678</v>
       </c>
       <c r="B296" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>300.1264522282371</v>
+        <v>344.1663873612364</v>
       </c>
       <c r="B297" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>301.1438300324006</v>
+        <v>345.333053081105</v>
       </c>
       <c r="B298" t="n">
         <v>0</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>302.1612078365641</v>
+        <v>346.4997188009737</v>
       </c>
       <c r="B299" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>303.1785856407276</v>
+        <v>347.6663845208423</v>
       </c>
       <c r="B300" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>304.1959634448912</v>
+        <v>348.8330502407109</v>
       </c>
       <c r="B301" t="n">
         <v>0</v>
@@ -2847,2402 +2847,2402 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>305.2133412490547</v>
+        <v>349.9997159605795</v>
       </c>
       <c r="B302" t="n">
-        <v>107206.2427721604</v>
+        <v>96266.3295012481</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>306.2307190532182</v>
+        <v>351.166381680448</v>
       </c>
       <c r="B303" t="n">
-        <v>103157.643163415</v>
+        <v>92247.47340906443</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>307.2480968573817</v>
+        <v>352.3330474003166</v>
       </c>
       <c r="B304" t="n">
-        <v>99267.0953606343</v>
+        <v>88401.66303368539</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>308.2654746615452</v>
+        <v>353.4997131201852</v>
       </c>
       <c r="B305" t="n">
-        <v>95528.42923691423</v>
+        <v>84721.44729464986</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>309.2828524657087</v>
+        <v>354.6663788400538</v>
       </c>
       <c r="B306" t="n">
-        <v>91935.71553868918</v>
+        <v>81199.69594347737</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>310.3002302698723</v>
+        <v>355.8330445599224</v>
       </c>
       <c r="B307" t="n">
-        <v>88483.25648236234</v>
+        <v>77829.58574913941</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>311.3176080740358</v>
+        <v>356.999710279791</v>
       </c>
       <c r="B308" t="n">
-        <v>85165.57671803956</v>
+        <v>74604.587278365</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>312.3349858781993</v>
+        <v>358.1663759996596</v>
       </c>
       <c r="B309" t="n">
-        <v>81977.41464601408</v>
+        <v>71518.45224516324</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>313.3523636823628</v>
+        <v>359.3330417195282</v>
       </c>
       <c r="B310" t="n">
-        <v>78913.71407225721</v>
+        <v>68565.2014050565</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>314.3697414865263</v>
+        <v>360.4997074393968</v>
       </c>
       <c r="B311" t="n">
-        <v>75969.61618965524</v>
+        <v>65739.1129705715</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>315.3871192906898</v>
+        <v>361.6663731592654</v>
       </c>
       <c r="B312" t="n">
-        <v>73140.45187229819</v>
+        <v>63034.71152553852</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>316.4044970948534</v>
+        <v>362.833038879134</v>
       </c>
       <c r="B313" t="n">
-        <v>70421.73427058125</v>
+        <v>60446.75741672514</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>317.4218748990169</v>
+        <v>363.9997045990026</v>
       </c>
       <c r="B314" t="n">
-        <v>67809.15169538809</v>
+        <v>57970.23660224803</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>318.4392527031804</v>
+        <v>365.1663703188712</v>
       </c>
       <c r="B315" t="n">
-        <v>65298.56078006438</v>
+        <v>55600.3509371003</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>319.4566305073439</v>
+        <v>366.3330360387398</v>
       </c>
       <c r="B316" t="n">
-        <v>62885.97990933696</v>
+        <v>53332.5088769646</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>320.4740083115074</v>
+        <v>367.4997017586084</v>
       </c>
       <c r="B317" t="n">
-        <v>60567.58290476096</v>
+        <v>51162.31658230811</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>321.4913861156709</v>
+        <v>368.666367478477</v>
       </c>
       <c r="B318" t="n">
-        <v>58339.69295668088</v>
+        <v>49085.5694055206</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>322.5087639198345</v>
+        <v>369.8330331983456</v>
       </c>
       <c r="B319" t="n">
-        <v>56198.77679307262</v>
+        <v>47098.2437446038</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>323.526141723998</v>
+        <v>370.9996989182142</v>
       </c>
       <c r="B320" t="n">
-        <v>54141.43907603293</v>
+        <v>45196.48924762714</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>324.5435195281615</v>
+        <v>372.1663646380828</v>
       </c>
       <c r="B321" t="n">
-        <v>52164.41701701881</v>
+        <v>43376.62135284983</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>325.560897332325</v>
+        <v>373.3330303579514</v>
       </c>
       <c r="B322" t="n">
-        <v>50264.57520230027</v>
+        <v>41635.11415004973</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>326.5782751364885</v>
+        <v>374.49969607782</v>
       </c>
       <c r="B323" t="n">
-        <v>48438.90062042264</v>
+        <v>39968.59354923725</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>327.595652940652</v>
+        <v>375.6663617976886</v>
       </c>
       <c r="B324" t="n">
-        <v>46684.49788378934</v>
+        <v>38373.83074350921</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>328.6130307448155</v>
+        <v>376.8330275175572</v>
       </c>
       <c r="B325" t="n">
-        <v>44998.58463678494</v>
+        <v>36847.7359533858</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>329.630408548979</v>
+        <v>377.9996932374258</v>
       </c>
       <c r="B326" t="n">
-        <v>43378.48714316152</v>
+        <v>35387.35244050432</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>330.6477863531425</v>
+        <v>379.1663589572944</v>
       </c>
       <c r="B327" t="n">
-        <v>41821.63604568753</v>
+        <v>33989.85077907467</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>331.665164157306</v>
+        <v>380.333024677163</v>
       </c>
       <c r="B328" t="n">
-        <v>40325.56229133343</v>
+        <v>32652.52337399875</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>332.6825419614696</v>
+        <v>381.4996903970316</v>
       </c>
       <c r="B329" t="n">
-        <v>38887.89321553029</v>
+        <v>31372.77921502705</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>333.6999197656331</v>
+        <v>382.6663561169002</v>
       </c>
       <c r="B330" t="n">
-        <v>37506.34877929887</v>
+        <v>30148.13885679714</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>334.7172975697966</v>
+        <v>383.8330218367688</v>
       </c>
       <c r="B331" t="n">
-        <v>36178.7379532701</v>
+        <v>28976.22961502396</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>335.7346753739601</v>
+        <v>384.9996875566374</v>
       </c>
       <c r="B332" t="n">
-        <v>34902.95524287441</v>
+        <v>27854.78096952977</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>336.7520531781236</v>
+        <v>386.166353276506</v>
       </c>
       <c r="B333" t="n">
-        <v>33676.97734917592</v>
+        <v>26781.62016521974</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>337.7694309822871</v>
+        <v>387.3330189963746</v>
       </c>
       <c r="B334" t="n">
-        <v>32498.85996007141</v>
+        <v>25754.66800246503</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>338.7868087864506</v>
+        <v>388.4996847162432</v>
       </c>
       <c r="B335" t="n">
-        <v>31366.73466674866</v>
+        <v>24771.9348087536</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>339.8041865906142</v>
+        <v>389.6663504361118</v>
       </c>
       <c r="B336" t="n">
-        <v>30278.80600052614</v>
+        <v>23831.51658378786</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>340.8215643947777</v>
+        <v>390.8330161559804</v>
       </c>
       <c r="B337" t="n">
-        <v>29233.34858537149</v>
+        <v>22931.59131057251</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>341.8389421989412</v>
+        <v>391.999681875849</v>
       </c>
       <c r="B338" t="n">
-        <v>28228.70440157896</v>
+        <v>22070.41542534325</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>342.8563200031047</v>
+        <v>393.1663475957176</v>
       </c>
       <c r="B339" t="n">
-        <v>27263.28015627058</v>
+        <v>21246.32043948803</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>343.8736978072682</v>
+        <v>394.3330133155862</v>
       </c>
       <c r="B340" t="n">
-        <v>26335.54475654769</v>
+        <v>20457.70970693079</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>344.8910756114317</v>
+        <v>395.4996790354548</v>
       </c>
       <c r="B341" t="n">
-        <v>25444.02688129126</v>
+        <v>19703.05533070146</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>345.9084534155953</v>
+        <v>396.6663447553233</v>
       </c>
       <c r="B342" t="n">
-        <v>24587.31264775054</v>
+        <v>18980.89520270508</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>346.9258312197588</v>
+        <v>397.8330104751919</v>
       </c>
       <c r="B343" t="n">
-        <v>23764.04336922927</v>
+        <v>18289.83017095789</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>347.9432090239223</v>
+        <v>398.9996761950605</v>
       </c>
       <c r="B344" t="n">
-        <v>22972.91340030658</v>
+        <v>17628.52132879135</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>348.9605868280858</v>
+        <v>400.1663419149291</v>
       </c>
       <c r="B345" t="n">
-        <v>22212.66806617714</v>
+        <v>16995.6874207846</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>349.9779646322493</v>
+        <v>401.3330076347978</v>
       </c>
       <c r="B346" t="n">
-        <v>21482.10167282928</v>
+        <v>16390.10236038946</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>350.9953424364128</v>
+        <v>402.4996733546664</v>
       </c>
       <c r="B347" t="n">
-        <v>20780.05559490004</v>
+        <v>15810.59285444543</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>352.0127202405764</v>
+        <v>403.666339074535</v>
       </c>
       <c r="B348" t="n">
-        <v>20105.41643818055</v>
+        <v>15256.0361299771</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>353.0300980447399</v>
+        <v>404.8330047944036</v>
       </c>
       <c r="B349" t="n">
-        <v>19457.11427385315</v>
+        <v>14725.35775887446</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>354.0474758489034</v>
+        <v>405.9996705142722</v>
       </c>
       <c r="B350" t="n">
-        <v>18834.12094166139</v>
+        <v>14217.52957623689</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>355.0648536530669</v>
+        <v>407.1663362341408</v>
       </c>
       <c r="B351" t="n">
-        <v>18235.4484193233</v>
+        <v>13731.5676883512</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>356.0822314572304</v>
+        <v>408.3330019540093</v>
       </c>
       <c r="B352" t="n">
-        <v>17660.14725559805</v>
+        <v>13266.53056644389</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>357.0996092613939</v>
+        <v>409.4996676738779</v>
       </c>
       <c r="B353" t="n">
-        <v>17107.3050645269</v>
+        <v>12821.51722251115</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>358.1169870655575</v>
+        <v>410.6663333937465</v>
       </c>
       <c r="B354" t="n">
-        <v>16576.0450784542</v>
+        <v>12395.66546369638</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>359.134364869721</v>
+        <v>411.8329991136151</v>
       </c>
       <c r="B355" t="n">
-        <v>16065.52475753736</v>
+        <v>11988.15022183257</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>360.1517426738845</v>
+        <v>412.9996648334837</v>
       </c>
       <c r="B356" t="n">
-        <v>15574.93445354023</v>
+        <v>11598.18195490857</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>361.169120478048</v>
+        <v>414.1663305533523</v>
       </c>
       <c r="B357" t="n">
-        <v>15103.49612578855</v>
+        <v>11225.00511736978</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>362.1864982822115</v>
+        <v>415.3329962732209</v>
       </c>
       <c r="B358" t="n">
-        <v>14650.46210725584</v>
+        <v>10867.89669628214</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>363.203876086375</v>
+        <v>416.4996619930895</v>
       </c>
       <c r="B359" t="n">
-        <v>14215.11391881512</v>
+        <v>10526.16481052872</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>364.2212538905385</v>
+        <v>417.6663277129582</v>
       </c>
       <c r="B360" t="n">
-        <v>13796.76112978607</v>
+        <v>10199.14737032111</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>365.2386316947021</v>
+        <v>418.8329934328268</v>
       </c>
       <c r="B361" t="n">
-        <v>13394.74026295854</v>
+        <v>9886.210794431778</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>366.2560094988656</v>
+        <v>419.9996591526953</v>
       </c>
       <c r="B362" t="n">
-        <v>13008.41374236857</v>
+        <v>9586.748782658975</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>367.2733873030291</v>
+        <v>421.1663248725639</v>
       </c>
       <c r="B363" t="n">
-        <v>12637.16888214845</v>
+        <v>9300.18114114815</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>368.2907651071926</v>
+        <v>422.3329905924325</v>
       </c>
       <c r="B364" t="n">
-        <v>12280.41691485003</v>
+        <v>9025.952658293732</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>369.3081429113561</v>
+        <v>423.4996563123011</v>
       </c>
       <c r="B365" t="n">
-        <v>11937.59205770373</v>
+        <v>8763.532029041209</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>370.3255207155196</v>
+        <v>424.6663220321697</v>
       </c>
       <c r="B366" t="n">
-        <v>11608.1506153274</v>
+        <v>8512.41082550892</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>371.3428985196832</v>
+        <v>425.8329877520383</v>
       </c>
       <c r="B367" t="n">
-        <v>11291.57011746502</v>
+        <v>8272.102511931545</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>372.3602763238467</v>
+        <v>426.9996534719069</v>
       </c>
       <c r="B368" t="n">
-        <v>10987.34849038626</v>
+        <v>8042.141502020524</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>373.3776541280102</v>
+        <v>428.1663191917755</v>
       </c>
       <c r="B369" t="n">
-        <v>10695.0032606353</v>
+        <v>7822.082256911496</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>374.3950319321737</v>
+        <v>429.3329849116441</v>
       </c>
       <c r="B370" t="n">
-        <v>10414.07078986084</v>
+        <v>7611.498421952668</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>375.4124097363372</v>
+        <v>430.4996506315127</v>
       </c>
       <c r="B371" t="n">
-        <v>10144.10553952077</v>
+        <v>7409.982000664015</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>376.4297875405007</v>
+        <v>431.6663163513813</v>
       </c>
       <c r="B372" t="n">
-        <v>9884.679364290248</v>
+        <v>7217.142564261184</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>377.4471653446643</v>
+        <v>432.8329820712499</v>
       </c>
       <c r="B373" t="n">
-        <v>9635.380833053066</v>
+        <v>7032.606495218276</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>378.4645431488278</v>
+        <v>433.9996477911185</v>
       </c>
       <c r="B374" t="n">
-        <v>9395.814576403201</v>
+        <v>6856.016263401461</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>379.4819209529913</v>
+        <v>435.1663135109871</v>
       </c>
       <c r="B375" t="n">
-        <v>9165.600659616468</v>
+        <v>6687.02973337074</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>380.4992987571548</v>
+        <v>436.3329792308557</v>
       </c>
       <c r="B376" t="n">
-        <v>8944.373980102804</v>
+        <v>6525.319501507589</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>381.5166765613183</v>
+        <v>437.4996449507243</v>
       </c>
       <c r="B377" t="n">
-        <v>8731.783688378142</v>
+        <v>6370.572261686231</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>382.5340543654818</v>
+        <v>438.6663106705929</v>
       </c>
       <c r="B378" t="n">
-        <v>8527.492631644731</v>
+        <v>6222.488198257372</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>383.5514321696454</v>
+        <v>439.8329763904615</v>
       </c>
       <c r="B379" t="n">
-        <v>8331.176819089462</v>
+        <v>6080.78040516916</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>384.5688099738089</v>
+        <v>440.9996421103301</v>
       </c>
       <c r="B380" t="n">
-        <v>8142.524908058689</v>
+        <v>5945.174330099429</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>385.5861877779724</v>
+        <v>442.1663078301987</v>
       </c>
       <c r="B381" t="n">
-        <v>7961.237710291586</v>
+        <v>5815.407242524059</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>386.6035655821359</v>
+        <v>443.3329735500673</v>
       </c>
       <c r="B382" t="n">
-        <v>7787.027717428166</v>
+        <v>5691.227724687862</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>387.6209433862994</v>
+        <v>444.4996392699359</v>
       </c>
       <c r="B383" t="n">
-        <v>7619.618645043424</v>
+        <v>5572.395184494902</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>388.6383211904629</v>
+        <v>445.6663049898045</v>
       </c>
       <c r="B384" t="n">
-        <v>7458.744994479259</v>
+        <v>5458.679389372142</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>389.6556989946264</v>
+        <v>446.8329707096731</v>
       </c>
       <c r="B385" t="n">
-        <v>7304.15163178301</v>
+        <v>5349.860020204475</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>390.67307679879</v>
+        <v>447.9996364295417</v>
       </c>
       <c r="B386" t="n">
-        <v>7155.593383082623</v>
+        <v>5245.726244476095</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>391.6904546029535</v>
+        <v>449.1663021494103</v>
       </c>
       <c r="B387" t="n">
-        <v>7012.834645760953</v>
+        <v>5146.076307793608</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>392.707832407117</v>
+        <v>450.3329678692789</v>
       </c>
       <c r="B388" t="n">
-        <v>6875.649014804951</v>
+        <v>5050.717142993843</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>393.7252102112805</v>
+        <v>451.4996335891475</v>
       </c>
       <c r="B389" t="n">
-        <v>6743.818923744142</v>
+        <v>4959.463996088028</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>394.742588015444</v>
+        <v>452.6662993090161</v>
       </c>
       <c r="B390" t="n">
-        <v>6617.135299606602</v>
+        <v>4872.140068306856</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>395.7599658196075</v>
+        <v>453.8329650288846</v>
       </c>
       <c r="B391" t="n">
-        <v>6495.39723134457</v>
+        <v>4788.576173562598</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>396.7773436237711</v>
+        <v>454.9996307487532</v>
       </c>
       <c r="B392" t="n">
-        <v>6378.411651202459</v>
+        <v>4708.610410658095</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>397.7947214279346</v>
+        <v>456.1662964686219</v>
       </c>
       <c r="B393" t="n">
-        <v>6265.99302852694</v>
+        <v>4632.087849611262</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>398.8120992320981</v>
+        <v>457.3329621884905</v>
       </c>
       <c r="B394" t="n">
-        <v>6157.963075528674</v>
+        <v>4558.860231484592</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>399.8294770362616</v>
+        <v>458.4996279083591</v>
       </c>
       <c r="B395" t="n">
-        <v>6054.150464530408</v>
+        <v>4488.78568114077</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>400.8468548404251</v>
+        <v>459.6662936282277</v>
       </c>
       <c r="B396" t="n">
-        <v>5954.390556252703</v>
+        <v>4421.728432366348</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>401.8642326445886</v>
+        <v>460.8329593480963</v>
       </c>
       <c r="B397" t="n">
-        <v>5858.525138710098</v>
+        <v>4357.558564830328</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>402.8816104487522</v>
+        <v>461.9996250679649</v>
       </c>
       <c r="B398" t="n">
-        <v>5766.402176296579</v>
+        <v>4296.151752370495</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>403.8989882529157</v>
+        <v>463.1662907878335</v>
       </c>
       <c r="B399" t="n">
-        <v>5677.875568669379</v>
+        <v>4237.389022115807</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>404.9163660570792</v>
+        <v>464.3329565077021</v>
       </c>
       <c r="B400" t="n">
-        <v>5592.804919043452</v>
+        <v>4181.156523983186</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>405.9337438612427</v>
+        <v>465.4996222275706</v>
       </c>
       <c r="B401" t="n">
-        <v>5511.055311532624</v>
+        <v>4127.345310097709</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>406.9511216654062</v>
+        <v>466.6662879474392</v>
       </c>
       <c r="B402" t="n">
-        <v>5432.497097182927</v>
+        <v>4075.851123710663</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>407.9684994695697</v>
+        <v>467.8329536673078</v>
       </c>
       <c r="B403" t="n">
-        <v>5357.005688358988</v>
+        <v>4026.574197208363</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>408.9858772737333</v>
+        <v>468.9996193871764</v>
       </c>
       <c r="B404" t="n">
-        <v>5284.461361156587</v>
+        <v>3979.419058815106</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>410.0032550778968</v>
+        <v>470.166285107045</v>
       </c>
       <c r="B405" t="n">
-        <v>5214.74906552926</v>
+        <v>3934.294347622226</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>411.0206328820603</v>
+        <v>471.3329508269136</v>
       </c>
       <c r="B406" t="n">
-        <v>5147.758242827254</v>
+        <v>3891.112636580347</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>412.0380106862238</v>
+        <v>472.4996165467822</v>
       </c>
       <c r="B407" t="n">
-        <v>5083.382650460623</v>
+        <v>3849.790263113312</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>413.0553884903873</v>
+        <v>473.6662822666509</v>
       </c>
       <c r="B408" t="n">
-        <v>5021.520193403807</v>
+        <v>3810.247167025929</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>414.0727662945508</v>
+        <v>474.8329479865195</v>
       </c>
       <c r="B409" t="n">
-        <v>4962.072762283275</v>
+        <v>3772.406735390775</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>415.0901440987143</v>
+        <v>475.9996137063881</v>
       </c>
       <c r="B410" t="n">
-        <v>4904.946077780268</v>
+        <v>3736.195654114579</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>416.1075219028779</v>
+        <v>477.1662794262566</v>
       </c>
       <c r="B411" t="n">
-        <v>4850.049541112663</v>
+        <v>3701.543765895392</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>417.1248997070414</v>
+        <v>478.3329451461252</v>
       </c>
       <c r="B412" t="n">
-        <v>4797.296090351613</v>
+        <v>3668.383934295671</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>418.1422775112049</v>
+        <v>479.4996108659938</v>
       </c>
       <c r="B413" t="n">
-        <v>4746.602062346172</v>
+        <v>3636.651913669254</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>419.1596553153684</v>
+        <v>480.6662765858624</v>
       </c>
       <c r="B414" t="n">
-        <v>4697.887060041681</v>
+        <v>3606.286224687705</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>420.1770331195319</v>
+        <v>481.832942305731</v>
       </c>
       <c r="B415" t="n">
-        <v>4651.073824974301</v>
+        <v>3577.228035227551</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>421.1944109236954</v>
+        <v>482.9996080255996</v>
       </c>
       <c r="B416" t="n">
-        <v>4606.088114745257</v>
+        <v>3549.421046384492</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>422.211788727859</v>
+        <v>484.1662737454682</v>
       </c>
       <c r="B417" t="n">
-        <v>4562.858585277483</v>
+        <v>3522.811383399135</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>423.2291665320225</v>
+        <v>485.3329394653368</v>
       </c>
       <c r="B418" t="n">
-        <v>4521.31667767016</v>
+        <v>3497.347491274783</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>424.246544336186</v>
+        <v>486.4996051852054</v>
       </c>
       <c r="B419" t="n">
-        <v>4481.39650946796</v>
+        <v>3472.9800348935</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>425.2639221403495</v>
+        <v>487.666270905074</v>
       </c>
       <c r="B420" t="n">
-        <v>4443.034770176782</v>
+        <v>3449.661803430532</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>426.281299944513</v>
+        <v>488.8329366249426</v>
       </c>
       <c r="B421" t="n">
-        <v>4406.170620857189</v>
+        <v>3427.347618887219</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>427.2986777486765</v>
+        <v>489.9996023448112</v>
       </c>
       <c r="B422" t="n">
-        <v>4370.745597640539</v>
+        <v>3405.994248557996</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>428.3160555528401</v>
+        <v>491.1662680646798</v>
       </c>
       <c r="B423" t="n">
-        <v>4336.70351900608</v>
+        <v>3385.560321271969</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>429.3334333570036</v>
+        <v>492.3329337845484</v>
       </c>
       <c r="B424" t="n">
-        <v>4303.990396684262</v>
+        <v>3366.006247235898</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>430.3508111611671</v>
+        <v>493.499599504417</v>
       </c>
       <c r="B425" t="n">
-        <v>4272.554350033429</v>
+        <v>3347.294141332183</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>431.3681889653306</v>
+        <v>494.6662652242856</v>
       </c>
       <c r="B426" t="n">
-        <v>4242.345523761282</v>
+        <v>3329.387749717434</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>432.3855667694941</v>
+        <v>495.8329309441542</v>
       </c>
       <c r="B427" t="n">
-        <v>4213.316008858544</v>
+        <v>3312.252379582974</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>433.4029445736576</v>
+        <v>496.9995966640228</v>
       </c>
       <c r="B428" t="n">
-        <v>4185.419766617733</v>
+        <v>3295.854831938103</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>434.4203223778212</v>
+        <v>498.1662623838914</v>
       </c>
       <c r="B429" t="n">
-        <v>4158.612555620763</v>
+        <v>3280.163337289536</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>435.4377001819847</v>
+        <v>499.33292810376</v>
       </c>
       <c r="B430" t="n">
-        <v>4132.851861572563</v>
+        <v>3265.147494089338</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>436.4550779861482</v>
+        <v>500.4995938236286</v>
       </c>
       <c r="B431" t="n">
-        <v>4108.096829879465</v>
+        <v>3250.778209832795</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>437.4724557903117</v>
+        <v>501.6662595434972</v>
       </c>
       <c r="B432" t="n">
-        <v>4084.308200855099</v>
+        <v>3237.027644693818</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>438.4898335944752</v>
+        <v>502.8329252633658</v>
       </c>
       <c r="B433" t="n">
-        <v>4061.448247457127</v>
+        <v>3223.869157585449</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>439.5072113986387</v>
+        <v>503.9995909832344</v>
       </c>
       <c r="B434" t="n">
-        <v>4039.480715456597</v>
+        <v>3211.277254545131</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>440.5245892028022</v>
+        <v>505.166256703103</v>
       </c>
       <c r="B435" t="n">
-        <v>4018.370765938635</v>
+        <v>3199.227539340872</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>441.5419670069658</v>
+        <v>506.3329224229716</v>
       </c>
       <c r="B436" t="n">
-        <v>3998.084920053757</v>
+        <v>3187.696666204107</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>442.5593448111293</v>
+        <v>507.4995881428402</v>
       </c>
       <c r="B437" t="n">
-        <v>3978.591005919752</v>
+        <v>3176.662294599858</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>443.5767226152928</v>
+        <v>508.6662538627088</v>
       </c>
       <c r="B438" t="n">
-        <v>3959.858107601691</v>
+        <v>3166.103045940791</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>444.5941004194563</v>
+        <v>509.8329195825774</v>
       </c>
       <c r="B439" t="n">
-        <v>3941.85651608014</v>
+        <v>3155.998462169415</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>445.6114782236198</v>
+        <v>510.999585302446</v>
       </c>
       <c r="B440" t="n">
-        <v>3924.557682135161</v>
+        <v>3146.328966119585</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>446.6288560277833</v>
+        <v>512.1662510223146</v>
       </c>
       <c r="B441" t="n">
-        <v>3907.934171069953</v>
+        <v>3137.075823588772</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>447.6462338319469</v>
+        <v>513.3329167421832</v>
       </c>
       <c r="B442" t="n">
-        <v>3891.959619200201</v>
+        <v>3128.221107039211</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>448.6636116361104</v>
+        <v>514.4995824620518</v>
       </c>
       <c r="B443" t="n">
-        <v>3876.608692044653</v>
+        <v>3119.747660865299</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>449.6809894402739</v>
+        <v>515.6662481819204</v>
       </c>
       <c r="B444" t="n">
-        <v>3861.857044144509</v>
+        <v>3111.639068155515</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>450.6983672444374</v>
+        <v>516.832913901789</v>
       </c>
       <c r="B445" t="n">
-        <v>3847.681280455143</v>
+        <v>3103.879618884891</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>451.7157450486009</v>
+        <v>517.9995796216575</v>
       </c>
       <c r="B446" t="n">
-        <v>3834.058919243254</v>
+        <v>3096.454279477815</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>452.7331228527644</v>
+        <v>519.1662453415262</v>
       </c>
       <c r="B447" t="n">
-        <v>3820.968356430511</v>
+        <v>3089.348663681483</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>453.750500656928</v>
+        <v>520.3329110613947</v>
       </c>
       <c r="B448" t="n">
-        <v>3808.388831332745</v>
+        <v>3082.549004692465</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>454.7678784610915</v>
+        <v>521.4995767812634</v>
       </c>
       <c r="B449" t="n">
-        <v>3796.300393734859</v>
+        <v>3076.04212848444</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>455.7852562652549</v>
+        <v>522.6662425011319</v>
       </c>
       <c r="B450" t="n">
-        <v>3784.683872251082</v>
+        <v>3069.815428284936</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>456.8026340694184</v>
+        <v>523.8329082210006</v>
       </c>
       <c r="B451" t="n">
-        <v>3773.520843919357</v>
+        <v>3063.856840148599</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>457.820011873582</v>
+        <v>524.9995739408691</v>
       </c>
       <c r="B452" t="n">
-        <v>3762.793604986236</v>
+        <v>3058.154819585508</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>458.8373896777455</v>
+        <v>526.1662396607378</v>
       </c>
       <c r="B453" t="n">
-        <v>3752.485142828008</v>
+        <v>3052.698319193967</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>459.854767481909</v>
+        <v>527.3329053806063</v>
       </c>
       <c r="B454" t="n">
-        <v>3742.579108970253</v>
+        <v>3047.476767254924</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>460.8721452860725</v>
+        <v>528.4995711004749</v>
       </c>
       <c r="B455" t="n">
-        <v>3733.05979316137</v>
+        <v>3042.480047252716</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>461.889523090236</v>
+        <v>529.6662368203436</v>
       </c>
       <c r="B456" t="n">
-        <v>3723.912098456156</v>
+        <v>3037.698478272339</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>462.9069008943995</v>
+        <v>530.8329025402121</v>
       </c>
       <c r="B457" t="n">
-        <v>3715.121517273853</v>
+        <v>3033.122796243812</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>463.9242786985631</v>
+        <v>531.9995682600808</v>
       </c>
       <c r="B458" t="n">
-        <v>3706.674108389519</v>
+        <v>3028.744135994285</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>464.9416565027266</v>
+        <v>533.1662339799493</v>
       </c>
       <c r="B459" t="n">
-        <v>3698.556474824674</v>
+        <v>3024.554014071231</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>465.9590343068901</v>
+        <v>534.332899699818</v>
       </c>
       <c r="B460" t="n">
-        <v>3690.755742600994</v>
+        <v>3020.544312306205</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>466.9764121110536</v>
+        <v>535.4995654196865</v>
       </c>
       <c r="B461" t="n">
-        <v>3683.259540322059</v>
+        <v>3016.707262086785</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>467.9937899152171</v>
+        <v>536.6662311395552</v>
       </c>
       <c r="B462" t="n">
-        <v>3676.055979554324</v>
+        <v>3013.035429305125</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>469.0111677193806</v>
+        <v>537.8328968594237</v>
       </c>
       <c r="B463" t="n">
-        <v>3669.133635972609</v>
+        <v>3009.521699954185</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>470.0285455235442</v>
+        <v>538.9995625792924</v>
       </c>
       <c r="B464" t="n">
-        <v>3662.481531241578</v>
+        <v>3006.15926634492</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>471.0459233277077</v>
+        <v>540.1662282991609</v>
       </c>
       <c r="B465" t="n">
-        <v>3656.089115604667</v>
+        <v>3002.941613917608</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>472.0633011318712</v>
+        <v>541.3328940190295</v>
       </c>
       <c r="B466" t="n">
-        <v>3649.946251154361</v>
+        <v>2999.862508618468</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>473.0806789360347</v>
+        <v>542.4995597388981</v>
       </c>
       <c r="B467" t="n">
-        <v>3644.043195752823</v>
+        <v>2996.915984823053</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>474.0980567401982</v>
+        <v>543.6662254587667</v>
       </c>
       <c r="B468" t="n">
-        <v>3638.370587581408</v>
+        <v>2994.096333777008</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>475.1154345443617</v>
+        <v>544.8328911786354</v>
       </c>
       <c r="B469" t="n">
-        <v>3632.919430295103</v>
+        <v>2991.398092536779</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>476.1328123485252</v>
+        <v>545.9995568985039</v>
       </c>
       <c r="B470" t="n">
-        <v>3627.681078753041</v>
+        <v>2988.816033383524</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>477.1501901526888</v>
+        <v>547.1662226183726</v>
       </c>
       <c r="B471" t="n">
-        <v>3622.647225309772</v>
+        <v>2986.345153697093</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>478.1675679568523</v>
+        <v>548.3328883382411</v>
       </c>
       <c r="B472" t="n">
-        <v>3617.809886637784</v>
+        <v>2983.980666261725</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>479.1849457610158</v>
+        <v>549.4995540581098</v>
       </c>
       <c r="B473" t="n">
-        <v>3613.161391069039</v>
+        <v>2981.717989991938</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>480.2023235651793</v>
+        <v>550.6662197779783</v>
       </c>
       <c r="B474" t="n">
-        <v>3608.694366426336</v>
+        <v>2979.552741056945</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>481.2197013693428</v>
+        <v>551.8328854978469</v>
       </c>
       <c r="B475" t="n">
-        <v>3604.401728331938</v>
+        <v>2977.48072438619</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>482.2370791735063</v>
+        <v>552.9995512177155</v>
       </c>
       <c r="B476" t="n">
-        <v>3600.276668973185</v>
+        <v>2975.497925543166</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>483.2544569776699</v>
+        <v>554.1662169375841</v>
       </c>
       <c r="B477" t="n">
-        <v>3596.312646304868</v>
+        <v>2973.600502946092</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>484.2718347818334</v>
+        <v>555.3328826574527</v>
       </c>
       <c r="B478" t="n">
-        <v>3592.503373673905</v>
+        <v>2971.784780426363</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>485.2892125859969</v>
+        <v>556.4995483773213</v>
       </c>
       <c r="B479" t="n">
-        <v>3588.84280985038</v>
+        <v>2970.047240105491</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>486.3065903901604</v>
+        <v>557.6662140971899</v>
       </c>
       <c r="B480" t="n">
-        <v>3585.325149444684</v>
+        <v>2968.384515578497</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>487.3239681943239</v>
+        <v>558.8328798170585</v>
       </c>
       <c r="B481" t="n">
-        <v>3581.944813703086</v>
+        <v>2966.793385393588</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>488.3413459984874</v>
+        <v>559.9995455369271</v>
       </c>
       <c r="B482" t="n">
-        <v>3578.696441657786</v>
+        <v>2965.270766809377</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>489.358723802651</v>
+        <v>561.1662112567957</v>
       </c>
       <c r="B483" t="n">
-        <v>3575.574881625633</v>
+        <v>2963.813709822155</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>490.3761016068145</v>
+        <v>562.3328769766644</v>
       </c>
       <c r="B484" t="n">
-        <v>3572.575183039227</v>
+        <v>2962.419391451709</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>491.393479410978</v>
+        <v>563.4995426965329</v>
       </c>
       <c r="B485" t="n">
-        <v>3569.692588593539</v>
+        <v>2961.08511026962</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>492.4108572151415</v>
+        <v>564.6662084164014</v>
       </c>
       <c r="B486" t="n">
-        <v>3566.922526702819</v>
+        <v>2959.808281168179</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>493.428235019305</v>
+        <v>565.8328741362701</v>
       </c>
       <c r="B487" t="n">
-        <v>3564.260604249684</v>
+        <v>2958.586430349834</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>494.4456128234685</v>
+        <v>566.9995398561387</v>
       </c>
       <c r="B488" t="n">
-        <v>3561.702599617809</v>
+        <v>2957.417190534239</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>495.4629906276321</v>
+        <v>568.1662055760073</v>
       </c>
       <c r="B489" t="n">
-        <v>3559.244455997456</v>
+        <v>2956.298296373785</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>496.4803684317956</v>
+        <v>569.3328712958759</v>
       </c>
       <c r="B490" t="n">
-        <v>3556.882274950968</v>
+        <v>2955.227580062386</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>497.4977462359591</v>
+        <v>570.4995370157445</v>
       </c>
       <c r="B491" t="n">
-        <v>3554.612310230237</v>
+        <v>2954.202967136683</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>498.5151240401226</v>
+        <v>571.6662027356131</v>
       </c>
       <c r="B492" t="n">
-        <v>3552.430961835413</v>
+        <v>2953.222472455781</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>499.5325018442861</v>
+        <v>572.8328684554817</v>
       </c>
       <c r="B493" t="n">
-        <v>3550.334770306558</v>
+        <v>2952.284196356817</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>500.5498796484496</v>
+        <v>573.9995341753503</v>
       </c>
       <c r="B494" t="n">
-        <v>3548.320411235366</v>
+        <v>2951.386320972992</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>501.5672574526131</v>
+        <v>575.1661998952188</v>
       </c>
       <c r="B495" t="n">
-        <v>3546.384689994784</v>
+        <v>2950.527106711925</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>502.5846352567767</v>
+        <v>576.3328656150875</v>
       </c>
       <c r="B496" t="n">
-        <v>3544.524536670595</v>
+        <v>2949.704888886017</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>503.6020130609402</v>
+        <v>577.499531334956</v>
       </c>
       <c r="B497" t="n">
-        <v>3542.737001194943</v>
+        <v>2948.918074485484</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>504.6193908651037</v>
+        <v>578.6661970548247</v>
       </c>
       <c r="B498" t="n">
-        <v>3541.019248665856</v>
+        <v>2948.165139094298</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>505.6367686692672</v>
+        <v>579.8328627746932</v>
       </c>
       <c r="B499" t="n">
-        <v>3539.368554852144</v>
+        <v>2947.444623934334</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>506.6541464734307</v>
+        <v>580.9995284945619</v>
       </c>
       <c r="B500" t="n">
-        <v>3537.782301873239</v>
+        <v>2946.755133040939</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>507.6715242775942</v>
+        <v>582.1661942144304</v>
       </c>
       <c r="B501" t="n">
-        <v>3536.257974046611</v>
+        <v>2946.095330557315</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>508.6889020817578</v>
+        <v>583.3328599342991</v>
       </c>
       <c r="B502" t="n">
-        <v>3534.793153899081</v>
+        <v>2945.46393814615</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>509.7062798859213</v>
+        <v>584.4995256541677</v>
       </c>
       <c r="B503" t="n">
-        <v>3533.385518332205</v>
+        <v>2944.859732513911</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>510.7236576900848</v>
+        <v>585.6661913740363</v>
       </c>
       <c r="B504" t="n">
-        <v>3532.032834937426</v>
+        <v>2944.281543040334</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>511.7410354942483</v>
+        <v>586.8328570939049</v>
       </c>
       <c r="B505" t="n">
-        <v>3530.732958457027</v>
+        <v>2943.728249509606</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>512.7584132984118</v>
+        <v>587.9995228137734</v>
       </c>
       <c r="B506" t="n">
-        <v>3529.483827381643</v>
+        <v>2943.198779940851</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>513.7757911025753</v>
+        <v>589.1661885336421</v>
       </c>
       <c r="B507" t="n">
-        <v>3528.283460679149</v>
+        <v>2942.692108511757</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>514.7931689067389</v>
+        <v>590.3328542535106</v>
       </c>
       <c r="B508" t="n">
-        <v>3527.12995465521</v>
+        <v>2942.207253569178</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>515.8105467109024</v>
+        <v>591.4995199733793</v>
       </c>
       <c r="B509" t="n">
-        <v>3526.021479933215</v>
+        <v>2941.743275729405</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>516.8279245150659</v>
+        <v>592.6661856932478</v>
       </c>
       <c r="B510" t="n">
-        <v>3524.956278552079</v>
+        <v>2941.299276056319</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>517.8453023192294</v>
+        <v>593.8328514131165</v>
       </c>
       <c r="B511" t="n">
-        <v>3523.932661180049</v>
+        <v>2940.874394321439</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>518.8626801233929</v>
+        <v>594.999517132985</v>
       </c>
       <c r="B512" t="n">
-        <v>3522.949004433788</v>
+        <v>2940.467807335705</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>519.8800579275564</v>
+        <v>596.1661828528537</v>
       </c>
       <c r="B513" t="n">
-        <v>3522.003748304881</v>
+        <v>2940.07872735566</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>520.89743573172</v>
+        <v>597.3328485727222</v>
       </c>
       <c r="B514" t="n">
-        <v>3521.095393686082</v>
+        <v>2939.706400556547</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>521.9148135358835</v>
+        <v>598.4995142925908</v>
       </c>
       <c r="B515" t="n">
-        <v>3520.2224999921</v>
+        <v>2939.350105572847</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>522.932191340047</v>
+        <v>599.6661800124594</v>
       </c>
       <c r="B516" t="n">
-        <v>3519.383682877671</v>
+        <v>2939.009152099045</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>523.9495691442105</v>
+        <v>600.832845732328</v>
       </c>
       <c r="B517" t="n">
-        <v>3518.577612038806</v>
+        <v>2938.682879553551</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>524.966946948374</v>
+        <v>601.9995114521967</v>
       </c>
       <c r="B518" t="n">
-        <v>3517.80300910612</v>
+        <v>2938.370655798295</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>525.9843247525375</v>
+        <v>603.1661771720652</v>
       </c>
       <c r="B519" t="n">
-        <v>3517.058645615186</v>
+        <v>2938.071875914259</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>527.001702556701</v>
+        <v>604.3328428919339</v>
       </c>
       <c r="B520" t="n">
-        <v>3516.343341059456</v>
+        <v>2937.785961029203</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>528.0190803608646</v>
+        <v>605.4995086118024</v>
       </c>
       <c r="B521" t="n">
-        <v>3515.655961018075</v>
+        <v>2937.512357195966</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>529.0364581650281</v>
+        <v>606.6661743316711</v>
       </c>
       <c r="B522" t="n">
-        <v>3514.995415355809</v>
+        <v>2937.250534320026</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>530.0538359691916</v>
+        <v>607.8328400515396</v>
       </c>
       <c r="B523" t="n">
-        <v>3514.360656494797</v>
+        <v>2936.999985131475</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>531.0712137733551</v>
+        <v>608.9995057714082</v>
       </c>
       <c r="B524" t="n">
-        <v>3513.750677754136</v>
+        <v>2936.760224202775</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>532.0885915775186</v>
+        <v>610.1661714912768</v>
       </c>
       <c r="B525" t="n">
-        <v>3513.164511751455</v>
+        <v>2936.530787007989</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>533.1059693816821</v>
+        <v>611.3328372111454</v>
       </c>
       <c r="B526" t="n">
-        <v>3512.601228869869</v>
+        <v>2936.311229023498</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>534.1233471858457</v>
+        <v>612.499502931014</v>
       </c>
       <c r="B527" t="n">
-        <v>3512.059935783549</v>
+        <v>2936.101124865657</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>535.1407249900092</v>
+        <v>613.6661686508826</v>
       </c>
       <c r="B528" t="n">
-        <v>3511.539774040688</v>
+        <v>2935.900067467522</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>536.1581027941727</v>
+        <v>614.8328343707512</v>
       </c>
       <c r="B529" t="n">
-        <v>3511.03991870294</v>
+        <v>2935.707667289307</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>537.1754805983362</v>
+        <v>615.9995000906198</v>
       </c>
       <c r="B530" t="n">
-        <v>3510.559577035807</v>
+        <v>2935.523551564425</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>538.1928584024997</v>
+        <v>617.1661658104885</v>
       </c>
       <c r="B531" t="n">
-        <v>3510.097987252121</v>
+        <v>2935.347363577662</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>539.2102362066632</v>
+        <v>618.332831530357</v>
       </c>
       <c r="B532" t="n">
-        <v>3509.654417303711</v>
+        <v>2935.178761972513</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>540.2276140108268</v>
+        <v>619.4994972502257</v>
       </c>
       <c r="B533" t="n">
-        <v>3509.228163721266</v>
+        <v>2935.017420091438</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>541.2449918149903</v>
+        <v>620.6661629700942</v>
       </c>
       <c r="B534" t="n">
-        <v>3508.818550497146</v>
+        <v>2934.863025341823</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>542.2623696191538</v>
+        <v>621.8328286899628</v>
       </c>
       <c r="B535" t="n">
-        <v>3508.424928014254</v>
+        <v>2934.715278590563</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>543.2797474233173</v>
+        <v>622.9994944098314</v>
       </c>
       <c r="B536" t="n">
-        <v>3508.046672016631</v>
+        <v>2934.573893585688</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>544.2971252274808</v>
+        <v>624.1661601297</v>
       </c>
       <c r="B537" t="n">
-        <v>3507.683182616888</v>
+        <v>2934.438596400204</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>545.3145030316443</v>
+        <v>625.3328258495686</v>
       </c>
       <c r="B538" t="n">
-        <v>3507.333883347223</v>
+        <v>2934.309124901883</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>546.3318808358079</v>
+        <v>626.4994915694372</v>
       </c>
       <c r="B539" t="n">
-        <v>3506.998220245112</v>
+        <v>2934.185228245552</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>547.3492586399714</v>
+        <v>627.6661572893058</v>
       </c>
       <c r="B540" t="n">
-        <v>3506.675660972156</v>
+        <v>2934.066666387319</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>548.3666364441349</v>
+        <v>628.8328230091744</v>
       </c>
       <c r="B541" t="n">
-        <v>3506.365693973429</v>
+        <v>2933.953209619137</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>549.3840142482984</v>
+        <v>629.999488729043</v>
       </c>
       <c r="B542" t="n">
-        <v>3506.067827663543</v>
+        <v>2933.844638123448</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>550.4013920524619</v>
+        <v>631.1661544489116</v>
       </c>
       <c r="B543" t="n">
-        <v>3505.781589647995</v>
+        <v>2933.740741548168</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>551.4187698566254</v>
+        <v>632.3328201687801</v>
       </c>
       <c r="B544" t="n">
-        <v>3505.506525973985</v>
+        <v>2933.641318598527</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>552.4361476607889</v>
+        <v>633.4994858886488</v>
       </c>
       <c r="B545" t="n">
-        <v>3505.242200410698</v>
+        <v>2933.546176647114</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>553.4535254649525</v>
+        <v>634.6661516085173</v>
       </c>
       <c r="B546" t="n">
-        <v>3504.988193756895</v>
+        <v>2933.455131360519</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>554.470903269116</v>
+        <v>635.832817328386</v>
       </c>
       <c r="B547" t="n">
-        <v>3504.744103176446</v>
+        <v>2933.368006343092</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>555.4882810732795</v>
+        <v>636.9994830482545</v>
       </c>
       <c r="B548" t="n">
-        <v>3504.509541559014</v>
+        <v>2933.28463279383</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>556.505658877443</v>
+        <v>638.1661487681232</v>
       </c>
       <c r="B549" t="n">
-        <v>3504.284136907455</v>
+        <v>2933.204849180386</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>557.5230366816065</v>
+        <v>639.3328144879918</v>
       </c>
       <c r="B550" t="n">
-        <v>3504.067531745777</v>
+        <v>2933.128500925926</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>558.54041448577</v>
+        <v>640.4994802078604</v>
       </c>
       <c r="B551" t="n">
-        <v>3503.859382554101</v>
+        <v>2933.055440108834</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>559.5577922899336</v>
+        <v>641.666145927729</v>
       </c>
       <c r="B552" t="n">
-        <v>3503.659359223271</v>
+        <v>2932.985525177402</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>560.5751700940971</v>
+        <v>642.8328116475976</v>
       </c>
       <c r="B553" t="n">
-        <v>3503.467144530032</v>
+        <v>2932.918620674696</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>561.5925478982606</v>
+        <v>643.9994773674662</v>
       </c>
       <c r="B554" t="n">
-        <v>3503.282433636442</v>
+        <v>2932.854596975997</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>562.6099257024241</v>
+        <v>645.1661430873347</v>
       </c>
       <c r="B555" t="n">
-        <v>3503.104933604028</v>
+        <v>2932.793330038552</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>563.6273035065876</v>
+        <v>646.3328088072034</v>
       </c>
       <c r="B556" t="n">
-        <v>3502.934362930951</v>
+        <v>2932.7347011607</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>564.6446813107511</v>
+        <v>647.4994745270719</v>
       </c>
       <c r="B557" t="n">
-        <v>3502.770451104221</v>
+        <v>2932.678596751425</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>565.6620591149147</v>
+        <v>648.6661402469406</v>
       </c>
       <c r="B558" t="n">
-        <v>3502.61293817154</v>
+        <v>2932.62490811116</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>566.6794369190782</v>
+        <v>649.8328059668091</v>
       </c>
       <c r="B559" t="n">
-        <v>3502.461574328814</v>
+        <v>2932.573531220352</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>567.6968147232417</v>
+        <v>650.9994716866778</v>
       </c>
       <c r="B560" t="n">
-        <v>3502.316119524223</v>
+        <v>2932.524366538988</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>568.7141925274052</v>
+        <v>652.1661374065463</v>
       </c>
       <c r="B561" t="n">
-        <v>3502.176343076424</v>
+        <v>2932.477318812829</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>569.7315703315687</v>
+        <v>653.332803126415</v>
       </c>
       <c r="B562" t="n">
-        <v>3502.042023310848</v>
+        <v>2932.432296888734</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>570.7489481357322</v>
+        <v>654.4994688462835</v>
       </c>
       <c r="B563" t="n">
-        <v>3501.912947205523</v>
+        <v>2932.389213538819</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>571.7663259398958</v>
+        <v>655.6661345661521</v>
       </c>
       <c r="B564" t="n">
-        <v>3501.788910055307</v>
+        <v>2932.347985291304</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>572.7837037440593</v>
+        <v>656.8328002860208</v>
       </c>
       <c r="B565" t="n">
-        <v>3501.669715146243</v>
+        <v>2932.308532268054</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>573.8010815482228</v>
+        <v>657.9994660058893</v>
       </c>
       <c r="B566" t="n">
-        <v>3501.555173443742</v>
+        <v>2932.270778031226</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>574.8184593523863</v>
+        <v>659.166131725758</v>
       </c>
       <c r="B567" t="n">
-        <v>3501.445103293329</v>
+        <v>2932.234649433109</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>575.8358371565498</v>
+        <v>660.3327974456265</v>
       </c>
       <c r="B568" t="n">
-        <v>3501.339330131229</v>
+        <v>2932.200076476424</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>576.8532149607133</v>
+        <v>661.4994631654952</v>
       </c>
       <c r="B569" t="n">
-        <v>3501.237686209056</v>
+        <v>2932.166992177824</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>577.8705927648768</v>
+        <v>662.6661288853637</v>
       </c>
       <c r="B570" t="n">
-        <v>3501.140010327108</v>
+        <v>2932.135332437549</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>578.8879705690404</v>
+        <v>663.8327946052324</v>
       </c>
       <c r="B571" t="n">
-        <v>3501.046147578085</v>
+        <v>2932.105035917114</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>579.9053483732039</v>
+        <v>664.9994603251009</v>
       </c>
       <c r="B572" t="n">
-        <v>3500.955949103099</v>
+        <v>2932.076043917534</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>580.9227261773674</v>
+        <v>666.1661260449696</v>
       </c>
       <c r="B573" t="n">
-        <v>3500.869271853192</v>
+        <v>2932.048300268783</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>581.9401039815309</v>
+        <v>667.3327917648381</v>
       </c>
       <c r="B574" t="n">
-        <v>3500.78597836529</v>
+        <v>2932.021751218458</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>582.9574817856944</v>
+        <v>668.4994574847067</v>
       </c>
       <c r="B575" t="n">
-        <v>3500.705936541223</v>
+        <v>2931.996345329003</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>583.9748595898579</v>
+        <v>669.6661232045753</v>
       </c>
       <c r="B576" t="n">
-        <v>3500.629019440863</v>
+        <v>2931.972033377876</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>584.9922373940215</v>
+        <v>670.8327889244439</v>
       </c>
       <c r="B577" t="n">
-        <v>3500.555105078945</v>
+        <v>2931.948768261736</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>586.009615198185</v>
+        <v>671.9994546443126</v>
       </c>
       <c r="B578" t="n">
-        <v>3500.484076233243</v>
+        <v>2931.926504905442</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>587.0269930023485</v>
+        <v>673.1661203641811</v>
       </c>
       <c r="B579" t="n">
-        <v>3500.415820256741</v>
+        <v>2931.905200174802</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>588.044370806512</v>
+        <v>674.3327860840498</v>
       </c>
       <c r="B580" t="n">
-        <v>3500.350228900228</v>
+        <v>2931.8848127928</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>589.0617486106755</v>
+        <v>675.4994518039183</v>
       </c>
       <c r="B581" t="n">
-        <v>3500.287198141046</v>
+        <v>2931.86530325984</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>590.079126414839</v>
+        <v>676.666117523787</v>
       </c>
       <c r="B582" t="n">
-        <v>3500.226628016429</v>
+        <v>2931.8466337772</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>591.0965042190026</v>
+        <v>677.8327832436555</v>
       </c>
       <c r="B583" t="n">
-        <v>3500.16842246698</v>
+        <v>2931.828768173425</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>592.1138820231661</v>
+        <v>678.9994489635241</v>
       </c>
       <c r="B584" t="n">
-        <v>3500.1124891829</v>
+        <v>2931.811671835016</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>593.1312598273296</v>
+        <v>680.1661146833927</v>
       </c>
       <c r="B585" t="n">
-        <v>3500.058739457902</v>
+        <v>2931.795311638442</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>594.1486376314931</v>
+        <v>681.3327804032613</v>
       </c>
       <c r="B586" t="n">
-        <v>3500.007088048942</v>
+        <v>2931.77965588671</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>595.1660154356566</v>
+        <v>682.4994461231299</v>
       </c>
       <c r="B587" t="n">
-        <v>3499.957453040266</v>
+        <v>2931.764674247273</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>596.1833932398201</v>
+        <v>683.6661118429985</v>
       </c>
       <c r="B588" t="n">
-        <v>3499.909755714802</v>
+        <v>2931.750337693953</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>597.2007710439837</v>
+        <v>684.8327775628671</v>
       </c>
       <c r="B589" t="n">
-        <v>3499.863920427713</v>
+        <v>2931.736618450462</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>598.2181488481472</v>
+        <v>685.9994432827357</v>
       </c>
       <c r="B590" t="n">
-        <v>3499.819874487933</v>
+        <v>2931.723489936345</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>599.2355266523107</v>
+        <v>687.1661090026043</v>
       </c>
       <c r="B591" t="n">
-        <v>3499.777548041221</v>
+        <v>2931.710926715588</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>600.2529044564742</v>
+        <v>688.3327747224729</v>
       </c>
       <c r="B592" t="n">
-        <v>3499.736873961524</v>
+        <v>2931.69890444791</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>601.2702822606377</v>
+        <v>689.4994404423414</v>
       </c>
       <c r="B593" t="n">
-        <v>3499.697787742317</v>
+        <v>2931.687399840318</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>602.2876600648012</v>
+        <v>690.6661061622101</v>
       </c>
       <c r="B594" t="n">
-        <v>3499.660227395947</v>
+        <v>2931.676390603211</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>603.3050378689647</v>
+        <v>691.8327718820786</v>
       </c>
       <c r="B595" t="n">
-        <v>3499.624133354179</v>
+        <v>2931.665855406761</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>604.3224156731283</v>
+        <v>692.9994376019473</v>
       </c>
       <c r="B596" t="n">
-        <v>3499.589448374291</v>
+        <v>2931.655773839688</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>605.3397934772918</v>
+        <v>694.1661033218159</v>
       </c>
       <c r="B597" t="n">
-        <v>3499.556117449137</v>
+        <v>2931.646126369387</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>606.3571712814553</v>
+        <v>695.3327690416845</v>
       </c>
       <c r="B598" t="n">
-        <v>3499.524087717537</v>
+        <v>2931.636894303919</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>607.3745490856188</v>
+        <v>696.4994347615531</v>
       </c>
       <c r="B599" t="n">
-        <v>3499.493308382938</v>
+        <v>2931.628059757221</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>608.3919268897823</v>
+        <v>697.6661004814217</v>
       </c>
       <c r="B600" t="n">
-        <v>3499.463730631774</v>
+        <v>2931.619605612167</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>609.4093046939458</v>
+        <v>698.8327662012903</v>
       </c>
       <c r="B601" t="n">
-        <v>3499.435307555513</v>
+        <v>2931.611515489525</v>
       </c>
     </row>
   </sheetData>
